--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -2,24 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown function" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Estimation" sheetId="3" r:id="rId2"/>
-    <sheet name="DB Relationship" sheetId="2" r:id="rId3"/>
+    <sheet name="Estimation" sheetId="2" r:id="rId2"/>
+    <sheet name="DB Relationship" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$A$2:$AT$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$A$2:$AU$37</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$37</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <customWorkbookViews>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
   <si>
     <t>User login</t>
   </si>
@@ -385,6 +390,21 @@
   </si>
   <si>
     <t>Add/Edit/Remove title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup and get famliar Github </t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Thai Pham</t>
+  </si>
+  <si>
+    <t>Thai Pham + Tan Vo</t>
+  </si>
+  <si>
+    <t>Tan Vo</t>
   </si>
 </sst>
 </file>
@@ -465,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -842,11 +862,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1108,6 +1141,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1173,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,6 +1263,236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" diskRevisions="1" revisionId="22" version="8">
+  <header guid="{935471E8-FCED-47C5-9F32-F5A3DD6E0D2D}" dateTime="2016-01-13T09:07:08" maxSheetId="4" userName="thai.pham" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F960DFDC-1629-4E52-9765-DDF92B80D663}" dateTime="2016-01-13T09:07:25" maxSheetId="4" userName="thai.pham" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D186AC19-2D18-458B-AACE-7AC97D6BA23E}" dateTime="2016-01-13T09:09:01" maxSheetId="4" userName="thai.pham" r:id="rId3" minRId="3" maxRId="7">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9B54EB4D-82E4-4841-BA57-AC564E373789}" dateTime="2016-01-13T09:09:30" maxSheetId="4" userName="thai.pham" r:id="rId4" minRId="10" maxRId="11">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1A9A02A1-5246-4E10-B467-0048DFD2C37D}" dateTime="2016-01-13T09:09:57" maxSheetId="4" userName="thai.pham" r:id="rId5" minRId="14">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{24C00A87-75A5-4284-9E69-9FD75EACA28E}" dateTime="2016-01-13T09:10:24" maxSheetId="4" userName="thai.pham" r:id="rId6">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ABDC2168-5E4E-49E5-976E-3FDD966F3AC7}" dateTime="2016-01-13T09:13:35" maxSheetId="4" userName="thai.pham" r:id="rId7">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" dateTime="2016-01-13T09:14:20" maxSheetId="4" userName="thai.pham" r:id="rId8">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="3" sId="2">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="2">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="2">
+    <nc r="H32" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="2">
+    <nc r="H33" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="2">
+    <nc r="H34" t="inlineStr">
+      <is>
+        <t>Thai Pham + Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$L</formula>
+    <oldFormula>Estimation!$J:$L</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="1" sId="2" ref="H1:H1048576" action="insertCol">
+    <undo index="0" exp="area" ref3D="1" dr="$I$1:$K$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+  </rrc>
+  <rcc rId="2" sId="2">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Developer</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="14" sId="2" numFmtId="19">
+    <nc r="O2">
+      <v>42382</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$L</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="10" sId="2">
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$L</formula>
+    <oldFormula>Estimation!$J:$L</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <userInfo guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" name="thai.pham" id="-598486243" dateTime="2016-01-13T09:07:08"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,6 +2034,13 @@
       <c r="F25" s="2"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+      <selection activeCell="F8" sqref="F8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="10">
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="D3:D11"/>
@@ -1775,17 +2054,17 @@
     <mergeCell ref="B3:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:AS40"/>
+  <dimension ref="B1:AT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1797,15 +2076,17 @@
     <col min="5" max="5" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="11" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="44" width="3.5703125" customWidth="1"/>
-    <col min="45" max="45" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="45" width="3.5703125" customWidth="1"/>
+    <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:45" ht="31.5" thickBot="1">
+    <row r="1" spans="2:46" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:46" ht="55.5" customHeight="1" thickBot="1">
       <c r="B2" s="22" t="s">
         <v>64</v>
       </c>
@@ -1825,25 +2106,29 @@
         <v>66</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="20">
+      <c r="J2" s="20">
         <v>42291</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="20">
         <v>42292</v>
       </c>
-      <c r="K2" s="20">
+      <c r="L2" s="20">
         <v>42377</v>
       </c>
-      <c r="L2" s="27">
+      <c r="M2" s="27">
         <v>42380</v>
       </c>
-      <c r="M2" s="27">
+      <c r="N2" s="27">
         <v>42381</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="O2" s="27">
+        <v>42382</v>
+      </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
@@ -1873,9 +2158,10 @@
       <c r="AP2" s="27"/>
       <c r="AQ2" s="27"/>
       <c r="AR2" s="27"/>
-      <c r="AS2" s="21"/>
-    </row>
-    <row r="3" spans="2:45">
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="21"/>
+    </row>
+    <row r="3" spans="2:46">
       <c r="B3" s="81" t="s">
         <v>80</v>
       </c>
@@ -1890,19 +2176,21 @@
         <v>24</v>
       </c>
       <c r="G3" s="31">
-        <f>SUM(I3:BO3)+8</f>
+        <f>SUM(J3:BP3)+8</f>
         <v>12</v>
       </c>
       <c r="H3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="33">
+      <c r="L3" s="32"/>
+      <c r="M3" s="33">
         <v>4</v>
       </c>
-      <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
@@ -1934,9 +2222,10 @@
       <c r="AP3" s="33"/>
       <c r="AQ3" s="33"/>
       <c r="AR3" s="33"/>
-      <c r="AS3" s="34"/>
-    </row>
-    <row r="4" spans="2:45" ht="15.75" thickBot="1">
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="34"/>
+    </row>
+    <row r="4" spans="2:46" ht="15.75" thickBot="1">
       <c r="B4" s="82"/>
       <c r="C4" s="89" t="s">
         <v>105</v>
@@ -1949,25 +2238,27 @@
         <v>16</v>
       </c>
       <c r="G4" s="36">
-        <f>SUM(I4:BO4)</f>
+        <f>SUM(J4:BP4)</f>
         <v>17</v>
       </c>
       <c r="H4" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="37">
+      <c r="J4" s="37">
         <v>2</v>
       </c>
-      <c r="J4" s="37">
+      <c r="K4" s="37">
         <v>3</v>
       </c>
-      <c r="K4" s="37">
+      <c r="L4" s="37">
         <v>8</v>
       </c>
-      <c r="L4" s="38">
+      <c r="M4" s="38">
         <v>4</v>
       </c>
-      <c r="M4" s="38"/>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
@@ -1999,13 +2290,14 @@
       <c r="AP4" s="38"/>
       <c r="AQ4" s="38"/>
       <c r="AR4" s="38"/>
-      <c r="AS4" s="39"/>
-    </row>
-    <row r="5" spans="2:45">
-      <c r="B5" s="97" t="s">
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
+    </row>
+    <row r="5" spans="2:46">
+      <c r="B5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -2018,13 +2310,15 @@
         <v>16</v>
       </c>
       <c r="G5" s="31"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="42"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
@@ -2057,11 +2351,12 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="42"/>
       <c r="AR5" s="42"/>
-      <c r="AS5" s="43"/>
-    </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="98"/>
-      <c r="C6" s="103"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="43"/>
+    </row>
+    <row r="6" spans="2:46">
+      <c r="B6" s="100"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="44" t="s">
         <v>106</v>
       </c>
@@ -2072,13 +2367,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="45"/>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
@@ -2111,10 +2406,11 @@
       <c r="AP6" s="45"/>
       <c r="AQ6" s="45"/>
       <c r="AR6" s="45"/>
-      <c r="AS6" s="46"/>
-    </row>
-    <row r="7" spans="2:45" hidden="1">
-      <c r="B7" s="98"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="46"/>
+    </row>
+    <row r="7" spans="2:46" hidden="1">
+      <c r="B7" s="100"/>
       <c r="C7" s="87"/>
       <c r="D7" s="44" t="s">
         <v>107</v>
@@ -2126,13 +2422,13 @@
         <v>24</v>
       </c>
       <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
@@ -2165,10 +2461,11 @@
       <c r="AP7" s="45"/>
       <c r="AQ7" s="45"/>
       <c r="AR7" s="45"/>
-      <c r="AS7" s="46"/>
-    </row>
-    <row r="8" spans="2:45">
-      <c r="B8" s="98"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="46"/>
+    </row>
+    <row r="8" spans="2:46">
+      <c r="B8" s="100"/>
       <c r="C8" s="86" t="s">
         <v>18</v>
       </c>
@@ -2183,12 +2480,14 @@
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
@@ -2221,10 +2520,11 @@
       <c r="AP8" s="45"/>
       <c r="AQ8" s="45"/>
       <c r="AR8" s="45"/>
-      <c r="AS8" s="46"/>
-    </row>
-    <row r="9" spans="2:45" hidden="1">
-      <c r="B9" s="98"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="46"/>
+    </row>
+    <row r="9" spans="2:46" hidden="1">
+      <c r="B9" s="100"/>
       <c r="C9" s="87"/>
       <c r="D9" s="44" t="s">
         <v>24</v>
@@ -2236,13 +2536,13 @@
         <v>24</v>
       </c>
       <c r="G9" s="41"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
@@ -2275,11 +2575,12 @@
       <c r="AP9" s="45"/>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="45"/>
-      <c r="AS9" s="46"/>
-    </row>
-    <row r="10" spans="2:45" hidden="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="93" t="s">
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="46"/>
+    </row>
+    <row r="10" spans="2:46" hidden="1">
+      <c r="B10" s="100"/>
+      <c r="C10" s="95" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -2292,13 +2593,13 @@
         <v>24</v>
       </c>
       <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
@@ -2331,11 +2632,12 @@
       <c r="AP10" s="45"/>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="45"/>
-      <c r="AS10" s="46"/>
-    </row>
-    <row r="11" spans="2:45" hidden="1">
-      <c r="B11" s="98"/>
-      <c r="C11" s="94"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="46"/>
+    </row>
+    <row r="11" spans="2:46" hidden="1">
+      <c r="B11" s="100"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="47" t="s">
         <v>72</v>
       </c>
@@ -2346,13 +2648,13 @@
         <v>16</v>
       </c>
       <c r="G11" s="41"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="48"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
@@ -2385,11 +2687,12 @@
       <c r="AP11" s="49"/>
       <c r="AQ11" s="49"/>
       <c r="AR11" s="49"/>
-      <c r="AS11" s="50"/>
-    </row>
-    <row r="12" spans="2:45" hidden="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="94"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="50"/>
+    </row>
+    <row r="12" spans="2:46" hidden="1">
+      <c r="B12" s="100"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="47" t="s">
         <v>27</v>
       </c>
@@ -2400,13 +2703,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="48"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
@@ -2439,11 +2742,12 @@
       <c r="AP12" s="49"/>
       <c r="AQ12" s="49"/>
       <c r="AR12" s="49"/>
-      <c r="AS12" s="50"/>
-    </row>
-    <row r="13" spans="2:45" hidden="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="95"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="50"/>
+    </row>
+    <row r="13" spans="2:46" hidden="1">
+      <c r="B13" s="100"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="47" t="s">
         <v>73</v>
       </c>
@@ -2454,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="G13" s="41"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="48"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="48"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
@@ -2493,11 +2797,12 @@
       <c r="AP13" s="49"/>
       <c r="AQ13" s="49"/>
       <c r="AR13" s="49"/>
-      <c r="AS13" s="50"/>
-    </row>
-    <row r="14" spans="2:45">
-      <c r="B14" s="98"/>
-      <c r="C14" s="93" t="s">
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="50"/>
+    </row>
+    <row r="14" spans="2:46">
+      <c r="B14" s="100"/>
+      <c r="C14" s="95" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -2510,13 +2815,13 @@
         <v>24</v>
       </c>
       <c r="G14" s="41"/>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
@@ -2549,11 +2854,12 @@
       <c r="AP14" s="49"/>
       <c r="AQ14" s="49"/>
       <c r="AR14" s="49"/>
-      <c r="AS14" s="50"/>
-    </row>
-    <row r="15" spans="2:45">
-      <c r="B15" s="98"/>
-      <c r="C15" s="94"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="50"/>
+    </row>
+    <row r="15" spans="2:46">
+      <c r="B15" s="100"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
@@ -2564,13 +2870,13 @@
         <v>24</v>
       </c>
       <c r="G15" s="41"/>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
@@ -2603,11 +2909,12 @@
       <c r="AP15" s="49"/>
       <c r="AQ15" s="49"/>
       <c r="AR15" s="49"/>
-      <c r="AS15" s="50"/>
-    </row>
-    <row r="16" spans="2:45">
-      <c r="B16" s="98"/>
-      <c r="C16" s="94"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="50"/>
+    </row>
+    <row r="16" spans="2:46">
+      <c r="B16" s="100"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="47" t="s">
         <v>93</v>
       </c>
@@ -2618,13 +2925,13 @@
         <v>24</v>
       </c>
       <c r="G16" s="41"/>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
@@ -2657,11 +2964,12 @@
       <c r="AP16" s="49"/>
       <c r="AQ16" s="49"/>
       <c r="AR16" s="49"/>
-      <c r="AS16" s="50"/>
-    </row>
-    <row r="17" spans="2:45">
-      <c r="B17" s="98"/>
-      <c r="C17" s="94"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="50"/>
+    </row>
+    <row r="17" spans="2:46">
+      <c r="B17" s="100"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="47" t="s">
         <v>92</v>
       </c>
@@ -2672,13 +2980,13 @@
         <v>24</v>
       </c>
       <c r="G17" s="41"/>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
@@ -2711,11 +3019,12 @@
       <c r="AP17" s="49"/>
       <c r="AQ17" s="49"/>
       <c r="AR17" s="49"/>
-      <c r="AS17" s="50"/>
-    </row>
-    <row r="18" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="95"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="50"/>
+    </row>
+    <row r="18" spans="2:46" ht="15.75" thickBot="1">
+      <c r="B18" s="100"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="47" t="s">
         <v>94</v>
       </c>
@@ -2726,13 +3035,13 @@
         <v>24</v>
       </c>
       <c r="G18" s="41"/>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="48"/>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
@@ -2765,11 +3074,12 @@
       <c r="AP18" s="49"/>
       <c r="AQ18" s="49"/>
       <c r="AR18" s="49"/>
-      <c r="AS18" s="50"/>
-    </row>
-    <row r="19" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B19" s="98"/>
-      <c r="C19" s="93" t="s">
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="50"/>
+    </row>
+    <row r="19" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B19" s="100"/>
+      <c r="C19" s="95" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="47" t="s">
@@ -2782,13 +3092,13 @@
         <v>16</v>
       </c>
       <c r="G19" s="41"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="48"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="49"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
@@ -2821,11 +3131,12 @@
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
       <c r="AR19" s="49"/>
-      <c r="AS19" s="50"/>
-    </row>
-    <row r="20" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B20" s="98"/>
-      <c r="C20" s="95"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="50"/>
+    </row>
+    <row r="20" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B20" s="100"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="47" t="s">
         <v>76</v>
       </c>
@@ -2836,13 +3147,13 @@
         <v>16</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="48"/>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="49"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
@@ -2875,11 +3186,12 @@
       <c r="AP20" s="49"/>
       <c r="AQ20" s="49"/>
       <c r="AR20" s="49"/>
-      <c r="AS20" s="50"/>
-    </row>
-    <row r="21" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B21" s="98"/>
-      <c r="C21" s="100" t="s">
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="50"/>
+    </row>
+    <row r="21" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B21" s="100"/>
+      <c r="C21" s="102" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="47" t="s">
@@ -2892,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="48"/>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
@@ -2931,11 +3243,12 @@
       <c r="AP21" s="49"/>
       <c r="AQ21" s="49"/>
       <c r="AR21" s="49"/>
-      <c r="AS21" s="50"/>
-    </row>
-    <row r="22" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="100"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="50"/>
+    </row>
+    <row r="22" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B22" s="100"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="47" t="s">
         <v>91</v>
       </c>
@@ -2946,13 +3259,13 @@
         <v>16</v>
       </c>
       <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="48"/>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
@@ -2985,11 +3298,12 @@
       <c r="AP22" s="49"/>
       <c r="AQ22" s="49"/>
       <c r="AR22" s="49"/>
-      <c r="AS22" s="50"/>
-    </row>
-    <row r="23" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="93" t="s">
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="50"/>
+    </row>
+    <row r="23" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B23" s="100"/>
+      <c r="C23" s="95" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -3002,13 +3316,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="41"/>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="48"/>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
@@ -3041,11 +3355,12 @@
       <c r="AP23" s="49"/>
       <c r="AQ23" s="49"/>
       <c r="AR23" s="49"/>
-      <c r="AS23" s="50"/>
-    </row>
-    <row r="24" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B24" s="98"/>
-      <c r="C24" s="95"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="50"/>
+    </row>
+    <row r="24" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B24" s="100"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="47" t="s">
         <v>97</v>
       </c>
@@ -3056,13 +3371,13 @@
         <v>24</v>
       </c>
       <c r="G24" s="41"/>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="48"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
@@ -3095,11 +3410,12 @@
       <c r="AP24" s="49"/>
       <c r="AQ24" s="49"/>
       <c r="AR24" s="49"/>
-      <c r="AS24" s="50"/>
-    </row>
-    <row r="25" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B25" s="98"/>
-      <c r="C25" s="93" t="s">
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="50"/>
+    </row>
+    <row r="25" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B25" s="100"/>
+      <c r="C25" s="95" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -3112,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="G25" s="41"/>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
@@ -3151,11 +3467,12 @@
       <c r="AP25" s="49"/>
       <c r="AQ25" s="49"/>
       <c r="AR25" s="49"/>
-      <c r="AS25" s="50"/>
-    </row>
-    <row r="26" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B26" s="99"/>
-      <c r="C26" s="101"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="50"/>
+    </row>
+    <row r="26" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B26" s="101"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="51" t="s">
         <v>101</v>
       </c>
@@ -3166,13 +3483,13 @@
         <v>16</v>
       </c>
       <c r="G26" s="36"/>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="52"/>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
       <c r="O26" s="53"/>
@@ -3205,10 +3522,11 @@
       <c r="AP26" s="53"/>
       <c r="AQ26" s="53"/>
       <c r="AR26" s="53"/>
-      <c r="AS26" s="54"/>
-    </row>
-    <row r="27" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B27" s="96" t="s">
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="54"/>
+    </row>
+    <row r="27" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B27" s="98" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -3224,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="G27" s="57"/>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="58"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
@@ -3263,10 +3581,11 @@
       <c r="AP27" s="59"/>
       <c r="AQ27" s="59"/>
       <c r="AR27" s="59"/>
-      <c r="AS27" s="60"/>
-    </row>
-    <row r="28" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B28" s="96"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="60"/>
+    </row>
+    <row r="28" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B28" s="98"/>
       <c r="C28" s="86" t="s">
         <v>74</v>
       </c>
@@ -3280,13 +3599,13 @@
         <v>8</v>
       </c>
       <c r="G28" s="41"/>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="48"/>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
@@ -3319,10 +3638,11 @@
       <c r="AP28" s="49"/>
       <c r="AQ28" s="49"/>
       <c r="AR28" s="49"/>
-      <c r="AS28" s="50"/>
-    </row>
-    <row r="29" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B29" s="96"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="50"/>
+    </row>
+    <row r="29" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B29" s="98"/>
       <c r="C29" s="87"/>
       <c r="D29" s="47" t="s">
         <v>76</v>
@@ -3334,13 +3654,13 @@
         <v>8</v>
       </c>
       <c r="G29" s="41"/>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="48"/>
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
+      <c r="L29" s="48"/>
       <c r="M29" s="49"/>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
@@ -3373,10 +3693,11 @@
       <c r="AP29" s="49"/>
       <c r="AQ29" s="49"/>
       <c r="AR29" s="49"/>
-      <c r="AS29" s="50"/>
-    </row>
-    <row r="30" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B30" s="96"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="50"/>
+    </row>
+    <row r="30" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B30" s="98"/>
       <c r="C30" s="61" t="s">
         <v>98</v>
       </c>
@@ -3390,13 +3711,13 @@
         <v>8</v>
       </c>
       <c r="G30" s="41"/>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="48"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="L30" s="48"/>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
@@ -3429,10 +3750,11 @@
       <c r="AP30" s="49"/>
       <c r="AQ30" s="49"/>
       <c r="AR30" s="49"/>
-      <c r="AS30" s="50"/>
-    </row>
-    <row r="31" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B31" s="96"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="50"/>
+    </row>
+    <row r="31" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B31" s="98"/>
       <c r="C31" s="62" t="s">
         <v>99</v>
       </c>
@@ -3446,13 +3768,13 @@
         <v>8</v>
       </c>
       <c r="G31" s="41"/>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="41"/>
+      <c r="I31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="48"/>
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
@@ -3485,9 +3807,10 @@
       <c r="AP31" s="49"/>
       <c r="AQ31" s="49"/>
       <c r="AR31" s="49"/>
-      <c r="AS31" s="50"/>
-    </row>
-    <row r="32" spans="2:45">
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="50"/>
+    </row>
+    <row r="32" spans="2:46">
       <c r="B32" s="81" t="s">
         <v>84</v>
       </c>
@@ -3502,16 +3825,18 @@
         <v>4</v>
       </c>
       <c r="G32" s="31">
-        <f>SUM(I32:BO32)+4</f>
+        <f>SUM(J32:BP32)+4</f>
         <v>4</v>
       </c>
       <c r="H32" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
@@ -3544,9 +3869,10 @@
       <c r="AP32" s="33"/>
       <c r="AQ32" s="33"/>
       <c r="AR32" s="33"/>
-      <c r="AS32" s="34"/>
-    </row>
-    <row r="33" spans="2:45">
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="34"/>
+    </row>
+    <row r="33" spans="2:46">
       <c r="B33" s="83"/>
       <c r="C33" s="90" t="s">
         <v>86</v>
@@ -3559,20 +3885,22 @@
         <v>16</v>
       </c>
       <c r="G33" s="41">
-        <f>SUM(I33:BO33)+12</f>
+        <f>SUM(J33:BP33)+12</f>
         <v>14</v>
       </c>
       <c r="H33" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="I33" s="64">
-        <v>1</v>
       </c>
       <c r="J33" s="64">
         <v>1</v>
       </c>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="K33" s="64">
+        <v>1</v>
+      </c>
+      <c r="L33" s="64"/>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
       <c r="O33" s="65"/>
@@ -3605,30 +3933,37 @@
       <c r="AP33" s="65"/>
       <c r="AQ33" s="65"/>
       <c r="AR33" s="65"/>
-      <c r="AS33" s="66"/>
-    </row>
-    <row r="34" spans="2:45">
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="66"/>
+    </row>
+    <row r="34" spans="2:46">
       <c r="B34" s="83"/>
-      <c r="C34" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="90"/>
+      <c r="C34" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="92"/>
       <c r="E34" s="63" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="63">
-        <v>16</v>
-      </c>
-      <c r="G34" s="41"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="41">
+        <v>4</v>
+      </c>
       <c r="H34" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="64"/>
+        <v>125</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>82</v>
+      </c>
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
+      <c r="N34" s="65">
+        <v>4</v>
+      </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -3659,252 +3994,326 @@
       <c r="AP34" s="65"/>
       <c r="AQ34" s="65"/>
       <c r="AR34" s="65"/>
-      <c r="AS34" s="66"/>
-    </row>
-    <row r="35" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B35" s="82"/>
-      <c r="C35" s="84" t="s">
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="66"/>
+    </row>
+    <row r="35" spans="2:46">
+      <c r="B35" s="83"/>
+      <c r="C35" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="63">
+        <v>16</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="65"/>
+      <c r="AQ35" s="65"/>
+      <c r="AR35" s="65"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="66"/>
+    </row>
+    <row r="36" spans="2:46" ht="15.75" thickBot="1">
+      <c r="B36" s="82"/>
+      <c r="C36" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="67" t="s">
+      <c r="D36" s="85"/>
+      <c r="E36" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F36" s="35">
         <v>8</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36" t="s">
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
-      <c r="AS35" s="39"/>
-    </row>
-    <row r="36" spans="2:45" ht="15.75" hidden="1" thickBot="1">
-      <c r="B36" s="91" t="s">
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="39"/>
+    </row>
+    <row r="37" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B37" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25">
-        <f>SUM(F3:F35)</f>
-        <v>532</v>
-      </c>
-      <c r="G36" s="25">
-        <f>SUM(G3:G34)</f>
-        <v>47</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25">
+        <f>SUM(F3:F36)</f>
+        <v>536</v>
+      </c>
+      <c r="G37" s="25">
+        <f>SUM(G3:G35)</f>
+        <v>51</v>
+      </c>
+      <c r="H37" s="115"/>
+      <c r="I37" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="25">
-        <f>SUM(I3:I35)</f>
+      <c r="J37" s="25">
+        <f>SUM(J3:J36)</f>
         <v>3</v>
       </c>
-      <c r="J36" s="25">
-        <f>SUM(J3:J35)</f>
+      <c r="K37" s="25">
+        <f>SUM(K3:K36)</f>
         <v>4</v>
       </c>
-      <c r="K36" s="25">
-        <f>SUM(K3:K35)</f>
+      <c r="L37" s="25">
+        <f>SUM(L3:L36)</f>
         <v>8</v>
       </c>
-      <c r="L36" s="25">
-        <f>SUM(L3:L35)</f>
+      <c r="M37" s="25">
+        <f>SUM(M3:M36)</f>
         <v>8</v>
       </c>
-      <c r="M36" s="25">
-        <f t="shared" ref="M36" si="0">SUM(M3:M35)</f>
+      <c r="N37" s="25">
+        <f t="shared" ref="N37" si="0">SUM(N3:N36)</f>
+        <v>4</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" ref="O37" si="1">SUM(O3:O36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="25">
-        <f t="shared" ref="N36" si="1">SUM(N3:N35)</f>
+      <c r="P37" s="25">
+        <f t="shared" ref="P37" si="2">SUM(P3:P36)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="25">
-        <f t="shared" ref="O36" si="2">SUM(O3:O35)</f>
+      <c r="Q37" s="25">
+        <f t="shared" ref="Q37" si="3">SUM(Q3:Q36)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="25">
-        <f t="shared" ref="P36" si="3">SUM(P3:P35)</f>
+      <c r="R37" s="25">
+        <f t="shared" ref="R37" si="4">SUM(R3:R36)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="25">
-        <f t="shared" ref="Q36" si="4">SUM(Q3:Q35)</f>
+      <c r="S37" s="25">
+        <f t="shared" ref="S37" si="5">SUM(S3:S36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="25">
-        <f t="shared" ref="R36" si="5">SUM(R3:R35)</f>
+      <c r="T37" s="25">
+        <f t="shared" ref="T37" si="6">SUM(T3:T36)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="25">
-        <f t="shared" ref="S36" si="6">SUM(S3:S35)</f>
+      <c r="U37" s="25">
+        <f t="shared" ref="U37" si="7">SUM(U3:U36)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="25">
-        <f t="shared" ref="T36" si="7">SUM(T3:T35)</f>
+      <c r="V37" s="25">
+        <f t="shared" ref="V37" si="8">SUM(V3:V36)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="25">
-        <f t="shared" ref="U36" si="8">SUM(U3:U35)</f>
+      <c r="W37" s="25">
+        <f t="shared" ref="W37" si="9">SUM(W3:W36)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="25">
-        <f t="shared" ref="V36" si="9">SUM(V3:V35)</f>
+      <c r="X37" s="25">
+        <f t="shared" ref="X37" si="10">SUM(X3:X36)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="25">
-        <f t="shared" ref="W36" si="10">SUM(W3:W35)</f>
+      <c r="Y37" s="25">
+        <f t="shared" ref="Y37" si="11">SUM(Y3:Y36)</f>
         <v>0</v>
       </c>
-      <c r="X36" s="25">
-        <f t="shared" ref="X36" si="11">SUM(X3:X35)</f>
+      <c r="Z37" s="25">
+        <f t="shared" ref="Z37" si="12">SUM(Z3:Z36)</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="25">
-        <f t="shared" ref="Y36" si="12">SUM(Y3:Y35)</f>
+      <c r="AA37" s="25">
+        <f t="shared" ref="AA37" si="13">SUM(AA3:AA36)</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="25">
-        <f t="shared" ref="Z36" si="13">SUM(Z3:Z35)</f>
+      <c r="AB37" s="25">
+        <f t="shared" ref="AB37" si="14">SUM(AB3:AB36)</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="25">
-        <f t="shared" ref="AA36" si="14">SUM(AA3:AA35)</f>
+      <c r="AC37" s="25">
+        <f t="shared" ref="AC37" si="15">SUM(AC3:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="25">
-        <f t="shared" ref="AB36" si="15">SUM(AB3:AB35)</f>
+      <c r="AD37" s="25">
+        <f t="shared" ref="AD37" si="16">SUM(AD3:AD36)</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="25">
-        <f t="shared" ref="AC36" si="16">SUM(AC3:AC35)</f>
+      <c r="AE37" s="25">
+        <f t="shared" ref="AE37" si="17">SUM(AE3:AE36)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="25">
-        <f t="shared" ref="AD36" si="17">SUM(AD3:AD35)</f>
+      <c r="AF37" s="25">
+        <f t="shared" ref="AF37" si="18">SUM(AF3:AF36)</f>
         <v>0</v>
       </c>
-      <c r="AE36" s="25">
-        <f t="shared" ref="AE36" si="18">SUM(AE3:AE35)</f>
+      <c r="AG37" s="25">
+        <f t="shared" ref="AG37" si="19">SUM(AG3:AG36)</f>
         <v>0</v>
       </c>
-      <c r="AF36" s="25">
-        <f t="shared" ref="AF36" si="19">SUM(AF3:AF35)</f>
+      <c r="AH37" s="25">
+        <f t="shared" ref="AH37" si="20">SUM(AH3:AH36)</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="25">
-        <f t="shared" ref="AG36" si="20">SUM(AG3:AG35)</f>
+      <c r="AI37" s="25">
+        <f t="shared" ref="AI37" si="21">SUM(AI3:AI36)</f>
         <v>0</v>
       </c>
-      <c r="AH36" s="25">
-        <f t="shared" ref="AH36" si="21">SUM(AH3:AH35)</f>
+      <c r="AJ37" s="25">
+        <f t="shared" ref="AJ37" si="22">SUM(AJ3:AJ36)</f>
         <v>0</v>
       </c>
-      <c r="AI36" s="25">
-        <f t="shared" ref="AI36" si="22">SUM(AI3:AI35)</f>
+      <c r="AK37" s="25">
+        <f t="shared" ref="AK37" si="23">SUM(AK3:AK36)</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="25">
-        <f t="shared" ref="AJ36" si="23">SUM(AJ3:AJ35)</f>
+      <c r="AL37" s="25">
+        <f t="shared" ref="AL37" si="24">SUM(AL3:AL36)</f>
         <v>0</v>
       </c>
-      <c r="AK36" s="25">
-        <f t="shared" ref="AK36" si="24">SUM(AK3:AK35)</f>
+      <c r="AM37" s="25">
+        <f t="shared" ref="AM37" si="25">SUM(AM3:AM36)</f>
         <v>0</v>
       </c>
-      <c r="AL36" s="25">
-        <f t="shared" ref="AL36" si="25">SUM(AL3:AL35)</f>
+      <c r="AN37" s="25">
+        <f t="shared" ref="AN37" si="26">SUM(AN3:AN36)</f>
         <v>0</v>
       </c>
-      <c r="AM36" s="25">
-        <f t="shared" ref="AM36" si="26">SUM(AM3:AM35)</f>
+      <c r="AO37" s="25">
+        <f t="shared" ref="AO37:AT37" si="27">SUM(AO3:AO36)</f>
         <v>0</v>
       </c>
-      <c r="AN36" s="25">
-        <f t="shared" ref="AN36:AS36" si="27">SUM(AN3:AN35)</f>
-        <v>0</v>
-      </c>
-      <c r="AO36" s="25">
+      <c r="AP37" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP36" s="25">
+      <c r="AQ37" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ36" s="25">
+      <c r="AR37" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AR36" s="25">
+      <c r="AS37" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS36" s="26">
+      <c r="AT37" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:45">
-      <c r="C39" t="s">
+    <row r="40" spans="2:46">
+      <c r="C40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:45">
-      <c r="C40" t="s">
+    <row r="41" spans="2:46">
+      <c r="C41" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AT36">
+  <autoFilter ref="A2:AU37">
     <filterColumn colId="4">
       <filters>
         <filter val="P1"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
-  <mergeCells count="20">
-    <mergeCell ref="B36:D36"/>
+  <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="H17" sqref="H17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A2:AU37">
+        <filterColumn colId="4">
+          <filters>
+            <filter val="P1"/>
+          </filters>
+        </filterColumn>
+        <filterColumn colId="7"/>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="21">
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B5:B26"/>
@@ -3914,15 +4323,16 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H36">
+  <conditionalFormatting sqref="I3:I37">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -3930,18 +4340,18 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H36">
+  <conditionalFormatting sqref="I3:I37">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I37">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3949,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3972,7 +4382,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="106" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3980,47 +4390,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="105"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="105"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="105"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="105"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="105"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="105"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="106"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="106" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4028,17 +4438,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="105"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="105"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="112" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -4046,7 +4456,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="111"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -4064,11 +4474,11 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="112"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="106" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4076,35 +4486,35 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="105"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="105"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="105"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="105"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="106"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="106" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4112,41 +4522,41 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="105"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="105"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="105"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="105"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="105"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="105"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="106" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4154,29 +4564,29 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="105"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="105"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="105"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="106"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="109" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4193,7 +4603,7 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="108"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="28" t="s">
         <v>58</v>
       </c>
@@ -4202,14 +4612,14 @@
       <c r="F36" s="68"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="109"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="28"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="109" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -4220,7 +4630,7 @@
       <c r="F38" s="68"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="108"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="28" t="s">
         <v>61</v>
       </c>
@@ -4229,14 +4639,14 @@
       <c r="F39" s="68"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="109"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="28"/>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
       <c r="F40" s="68"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="109" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="28" t="s">
@@ -4247,7 +4657,7 @@
       <c r="F41" s="68"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="108"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="28" t="s">
         <v>60</v>
       </c>
@@ -4256,7 +4666,7 @@
       <c r="F42" s="68"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="108"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="28" t="s">
         <v>53</v>
       </c>
@@ -4265,7 +4675,7 @@
       <c r="F43" s="68"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="108"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="28" t="s">
         <v>63</v>
       </c>
@@ -4274,13 +4684,19 @@
       <c r="F44" s="68"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="109"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="28"/>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="9">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B17:B22"/>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" diskRevisions="1" revisionId="22" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" diskRevisions="1" revisionId="26" version="9">
   <header guid="{935471E8-FCED-47C5-9F32-F5A3DD6E0D2D}" dateTime="2016-01-13T09:07:08" maxSheetId="4" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1323,10 +1323,47 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" dateTime="2016-01-13T10:02:53" maxSheetId="4" userName="thai.pham" r:id="rId9" minRId="23" maxRId="24">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="23" sId="2">
+    <oc r="H5" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </oc>
+    <nc r="H5"/>
+  </rcc>
+  <rcc rId="24" sId="2">
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -1341,7 +1378,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="3" sId="2">
     <nc r="H3" t="inlineStr">
@@ -1391,7 +1428,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rrc rId="1" sId="2" ref="H1:H1048576" action="insertCol">
     <undo index="0" exp="area" ref3D="1" dr="$I$1:$K$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
@@ -1406,7 +1443,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -1491,7 +1528,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <userInfo guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" name="thai.pham" id="-598486243" dateTime="2016-01-13T09:07:08"/>
+  <userInfo guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" name="thai.pham" id="-598486243" dateTime="2016-01-13T09:07:08"/>
 </users>
 </file>
 
@@ -2064,7 +2101,7 @@
   <dimension ref="B1:AT41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2310,9 +2347,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="31"/>
-      <c r="H5" s="57" t="s">
-        <v>124</v>
-      </c>
+      <c r="H5" s="57"/>
       <c r="I5" s="41" t="s">
         <v>69</v>
       </c>
@@ -2367,7 +2402,9 @@
         <v>24</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="H6" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I6" s="41" t="s">
         <v>69</v>
       </c>
@@ -4296,7 +4333,7 @@
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AU37">

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown function" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,19 +12,19 @@
     <sheet name="DB Relationship" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$A$2:$AU$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$A$2:$AU$38</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$37</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
   <si>
     <t>User login</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>Tan Vo</t>
+  </si>
+  <si>
+    <t>TitleCategoryID</t>
+  </si>
+  <si>
+    <t>tbl_TitleCategory</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Add/Edit/Remove title category</t>
   </si>
 </sst>
 </file>
@@ -879,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1087,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1266,7 +1284,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" diskRevisions="1" revisionId="26" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{F68139DF-05EE-4B49-95E9-058A900107CE}" diskRevisions="1" revisionId="71" version="19">
   <header guid="{935471E8-FCED-47C5-9F32-F5A3DD6E0D2D}" dateTime="2016-01-13T09:07:08" maxSheetId="4" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1330,34 +1348,89 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{81B87C81-77B0-41C3-8D15-E34BFAF06852}" dateTime="2016-01-13T10:20:46" maxSheetId="4" userName="thai.pham" r:id="rId10" minRId="27" maxRId="42">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F1FFBD20-86CD-4602-92C4-BD0FAF7EB038}" dateTime="2016-01-13T10:20:57" maxSheetId="4" userName="thai.pham" r:id="rId11" minRId="45">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FEEAFC66-2BC3-4854-AD87-F3530FF59C6E}" dateTime="2016-01-13T10:22:57" maxSheetId="4" userName="thai.pham" r:id="rId12" minRId="48">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FB095325-C960-4181-BC73-AC797A1EBCCD}" dateTime="2016-01-13T10:23:10" maxSheetId="4" userName="thai.pham" r:id="rId13" minRId="51">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9F9DADFA-D3D2-4265-9FFF-EFD0FD14EEE7}" dateTime="2016-01-13T10:23:20" maxSheetId="4" userName="thai.pham" r:id="rId14">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7B7C03F-DC42-4AB1-8E67-B11EA55BDF80}" dateTime="2016-01-13T10:23:37" maxSheetId="4" userName="thai.pham" r:id="rId15" minRId="56" maxRId="57">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{852A1889-A145-4020-BABA-D4B0E0E8FC65}" dateTime="2016-01-13T10:23:48" maxSheetId="4" userName="thai.pham" r:id="rId16" minRId="60" maxRId="62">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D624173A-6045-4AAD-B730-5F846CCA4E89}" dateTime="2016-01-13T10:23:52" maxSheetId="4" userName="thai.pham" r:id="rId17" minRId="65">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A3690655-A9FC-47F3-9958-35BA5C641035}" dateTime="2016-01-13T10:23:58" maxSheetId="4" userName="thai.pham" r:id="rId18">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F68139DF-05EE-4B49-95E9-058A900107CE}" dateTime="2016-01-13T10:29:19" maxSheetId="4" userName="thai.pham" r:id="rId19">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="23" sId="2">
-    <oc r="H5" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </oc>
-    <nc r="H5"/>
-  </rcc>
-  <rcc rId="24" sId="2">
-    <nc r="H6" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
     <oldFormula>Estimation!$J:$N</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+    <formula>Estimation!$A$2:$AU$38</formula>
+    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1449,6 +1522,14 @@
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="51" sId="3" ref="A26:XFD26" action="insertRow"/>
+  <rfmt sheetId="3" sqref="B25" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -1479,6 +1560,21 @@
 
 <file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="14" sId="2" numFmtId="19">
     <nc r="O2">
       <v>42382</v>
@@ -1497,7 +1593,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog121111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="10" sId="2">
     <nc r="H8" t="inlineStr">
@@ -1526,9 +1622,446 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$38</formula>
+    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="48" sId="3">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>Color</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="45" sId="3">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>tbl_Title</t>
+      </is>
+    </oc>
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>tbl_TitleCategory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="27" sId="3" ref="A23:XFD23" action="insertRow"/>
+  <rrc rId="28" sId="3" ref="A23:XFD23" action="insertRow"/>
+  <rrc rId="29" sId="3" ref="A24:XFD24" action="insertRow"/>
+  <rrc rId="30" sId="3" ref="A24:XFD24" action="insertRow"/>
+  <rrc rId="31" sId="3" ref="A24:XFD26" action="insertRow"/>
+  <rcc rId="32" sId="3" odxf="1" dxf="1">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>tbl_Title</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="33" sId="3">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>Category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="3">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>TOCKCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="3">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>TitleName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="3">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>TitleColor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="B28" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="37" sId="3" ref="A29:XFD29" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A29:XFD29" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B29" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="3" sqref="C29" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="38" sId="3">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>TitleCategoryID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="3">
+    <oc r="C18" t="inlineStr">
+      <is>
+        <t>Category</t>
+      </is>
+    </oc>
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>TitleCategoryID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="40" sId="3" ref="A25:XFD25" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B25" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>TOCKCode</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="41" sId="3" ref="A25:XFD25" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B25" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>TitleName</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="42" sId="3" ref="A25:XFD25" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B25" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C25" t="inlineStr">
+        <is>
+          <t>TitleColor</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="23" sId="2">
+    <oc r="H5" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </oc>
+    <nc r="H5"/>
+  </rcc>
+  <rcc rId="24" sId="2">
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="65" sId="2">
+    <nc r="I9" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$38</formula>
+    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="60" sId="2">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>P1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="2">
+    <nc r="F9">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="2">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$38</formula>
+    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="56" sId="2" ref="A9:XFD9" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$N$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+  </rrc>
+  <rcc rId="57" sId="2">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>Add/Edit/Remove title category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$38</formula>
+    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$A$2:$AU$37</formula>
+    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <userInfo guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" name="thai.pham" id="-598486243" dateTime="2016-01-13T09:07:08"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+  <userInfo guid="{F68139DF-05EE-4B49-95E9-058A900107CE}" name="thai.pham" id="-598486243" dateTime="2016-01-13T09:07:08"/>
+  <userInfo guid="{B7B7C03F-DC42-4AB1-8E67-B11EA55BDF80}" name="tan.thanh.vo" id="-1397632602" dateTime="2016-01-13T10:23:42"/>
 </users>
 </file>
 
@@ -1850,13 +2383,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -1865,28 +2398,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="80"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="80"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="80"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1894,56 +2427,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="80"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="70"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="80"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="80"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="80"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="80"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="71"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="80"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1952,35 +2485,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="80"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="80"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="80"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="80"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1988,8 +2521,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="80"/>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="77" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -1997,15 +2530,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="80"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="80"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="71" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2015,8 +2548,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="80"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -2024,7 +2557,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="80"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -2033,10 +2566,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="77" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2046,8 +2579,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2055,7 +2588,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="77"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2064,7 +2597,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="76"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -2098,10 +2631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:AT41"/>
+  <dimension ref="B1:AT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2199,13 +2732,13 @@
       <c r="AT2" s="21"/>
     </row>
     <row r="3" spans="2:46">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="30" t="s">
         <v>109</v>
       </c>
@@ -2263,11 +2796,11 @@
       <c r="AT3" s="34"/>
     </row>
     <row r="4" spans="2:46" ht="15.75" thickBot="1">
-      <c r="B4" s="82"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="35" t="s">
         <v>109</v>
       </c>
@@ -2331,10 +2864,10 @@
       <c r="AT4" s="39"/>
     </row>
     <row r="5" spans="2:46">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="106" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -2390,8 +2923,8 @@
       <c r="AT5" s="43"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="100"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="44" t="s">
         <v>106</v>
       </c>
@@ -2447,8 +2980,8 @@
       <c r="AT6" s="46"/>
     </row>
     <row r="7" spans="2:46" hidden="1">
-      <c r="B7" s="100"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="44" t="s">
         <v>107</v>
       </c>
@@ -2502,8 +3035,8 @@
       <c r="AT7" s="46"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="100"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="88" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="47" t="s">
@@ -2560,20 +3093,22 @@
       <c r="AS8" s="45"/>
       <c r="AT8" s="46"/>
     </row>
-    <row r="9" spans="2:46" hidden="1">
-      <c r="B9" s="100"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="44" t="s">
-        <v>24</v>
+    <row r="9" spans="2:46">
+      <c r="B9" s="102"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="I9" s="41" t="s">
         <v>69</v>
       </c>
@@ -2616,15 +3151,13 @@
       <c r="AT9" s="46"/>
     </row>
     <row r="10" spans="2:46" hidden="1">
-      <c r="B10" s="100"/>
-      <c r="C10" s="95" t="s">
-        <v>70</v>
-      </c>
+      <c r="B10" s="102"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="44" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F10" s="41">
         <v>24</v>
@@ -2673,71 +3206,73 @@
       <c r="AT10" s="46"/>
     </row>
     <row r="11" spans="2:46" hidden="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="47" t="s">
-        <v>72</v>
+      <c r="B11" s="102"/>
+      <c r="C11" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="41">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="50"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="46"/>
     </row>
     <row r="12" spans="2:46" hidden="1">
-      <c r="B12" s="100"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="47" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -2783,10 +3318,10 @@
       <c r="AT12" s="50"/>
     </row>
     <row r="13" spans="2:46" hidden="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="47" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>110</v>
@@ -2837,19 +3372,17 @@
       <c r="AS13" s="49"/>
       <c r="AT13" s="50"/>
     </row>
-    <row r="14" spans="2:46">
-      <c r="B14" s="100"/>
-      <c r="C14" s="95" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="2:46" hidden="1">
+      <c r="B14" s="102"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="47" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="41">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -2895,10 +3428,12 @@
       <c r="AT14" s="50"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="100"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="97" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>109</v>
@@ -2950,10 +3485,10 @@
       <c r="AT15" s="50"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="B16" s="100"/>
-      <c r="C16" s="96"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="47" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>109</v>
@@ -3005,10 +3540,10 @@
       <c r="AT16" s="50"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="B17" s="100"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>109</v>
@@ -3059,11 +3594,11 @@
       <c r="AS17" s="49"/>
       <c r="AT17" s="50"/>
     </row>
-    <row r="18" spans="2:46" ht="15.75" thickBot="1">
-      <c r="B18" s="100"/>
-      <c r="C18" s="97"/>
+    <row r="18" spans="2:46">
+      <c r="B18" s="102"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>109</v>
@@ -3114,19 +3649,17 @@
       <c r="AS18" s="49"/>
       <c r="AT18" s="50"/>
     </row>
-    <row r="19" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B19" s="100"/>
-      <c r="C19" s="95" t="s">
-        <v>74</v>
-      </c>
+    <row r="19" spans="2:46" ht="15.75" thickBot="1">
+      <c r="B19" s="102"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="47" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="41">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
@@ -3172,10 +3705,12 @@
       <c r="AT19" s="50"/>
     </row>
     <row r="20" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B20" s="100"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="97" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>112</v>
@@ -3227,18 +3762,16 @@
       <c r="AT20" s="50"/>
     </row>
     <row r="21" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B21" s="100"/>
-      <c r="C21" s="102" t="s">
-        <v>98</v>
-      </c>
+      <c r="B21" s="102"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="47" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -3284,16 +3817,18 @@
       <c r="AT21" s="50"/>
     </row>
     <row r="22" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="104" t="s">
+        <v>98</v>
+      </c>
       <c r="D22" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -3339,18 +3874,16 @@
       <c r="AT22" s="50"/>
     </row>
     <row r="23" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="95" t="s">
-        <v>95</v>
-      </c>
+      <c r="B23" s="102"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -3396,13 +3929,15 @@
       <c r="AT23" s="50"/>
     </row>
     <row r="24" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B24" s="100"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="97" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="41">
         <v>24</v>
@@ -3451,18 +3986,16 @@
       <c r="AT24" s="50"/>
     </row>
     <row r="25" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B25" s="100"/>
-      <c r="C25" s="95" t="s">
-        <v>99</v>
-      </c>
+      <c r="B25" s="102"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="41">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -3508,181 +4041,183 @@
       <c r="AT25" s="50"/>
     </row>
     <row r="26" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B26" s="101"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="51" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="41">
+        <v>8</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="50"/>
+    </row>
+    <row r="27" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B27" s="103"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E27" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F27" s="36">
         <v>16</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="54"/>
-    </row>
-    <row r="27" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B27" s="98" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="54"/>
+    </row>
+    <row r="28" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B28" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C28" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D28" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E28" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F28" s="57">
         <v>8</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57" t="s">
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="60"/>
-    </row>
-    <row r="28" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B28" s="98"/>
-      <c r="C28" s="86" t="s">
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="60"/>
+    </row>
+    <row r="29" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B29" s="100"/>
+      <c r="C29" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D29" s="47" t="s">
         <v>79</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="41">
-        <v>8</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="50"/>
-    </row>
-    <row r="29" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B29" s="98"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="47" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>112</v>
@@ -3734,15 +4269,13 @@
       <c r="AT29" s="50"/>
     </row>
     <row r="30" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B30" s="98"/>
-      <c r="C30" s="61" t="s">
-        <v>98</v>
-      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="47" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30" s="41">
         <v>8</v>
@@ -3791,12 +4324,12 @@
       <c r="AT30" s="50"/>
     </row>
     <row r="31" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B31" s="98"/>
-      <c r="C31" s="62" t="s">
-        <v>99</v>
+      <c r="B31" s="100"/>
+      <c r="C31" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>111</v>
@@ -3847,160 +4380,156 @@
       <c r="AS31" s="49"/>
       <c r="AT31" s="50"/>
     </row>
-    <row r="32" spans="2:46">
-      <c r="B32" s="81" t="s">
+    <row r="32" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B32" s="100"/>
+      <c r="C32" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="41">
+        <v>8</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="50"/>
+    </row>
+    <row r="33" spans="2:46">
+      <c r="B33" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C33" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="30" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F33" s="30">
         <v>4</v>
       </c>
-      <c r="G32" s="31">
-        <f>SUM(J32:BP32)+4</f>
+      <c r="G33" s="31">
+        <f>SUM(J33:BP33)+4</f>
         <v>4</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H33" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I33" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="34"/>
-    </row>
-    <row r="33" spans="2:46">
-      <c r="B33" s="83"/>
-      <c r="C33" s="90" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33"/>
+      <c r="AT33" s="34"/>
+    </row>
+    <row r="34" spans="2:46">
+      <c r="B34" s="85"/>
+      <c r="C34" s="92" t="s">
         <v>86</v>
-      </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="63">
-        <v>16</v>
-      </c>
-      <c r="G33" s="41">
-        <f>SUM(J33:BP33)+12</f>
-        <v>14</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="64">
-        <v>1</v>
-      </c>
-      <c r="K33" s="64">
-        <v>1</v>
-      </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="66"/>
-    </row>
-    <row r="34" spans="2:46">
-      <c r="B34" s="83"/>
-      <c r="C34" s="91" t="s">
-        <v>122</v>
       </c>
       <c r="D34" s="92"/>
       <c r="E34" s="63" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="63">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G34" s="41">
-        <v>4</v>
+        <f>SUM(J34:BP34)+12</f>
+        <v>14</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+        <v>83</v>
+      </c>
+      <c r="J34" s="64">
+        <v>1</v>
+      </c>
+      <c r="K34" s="64">
+        <v>1</v>
+      </c>
       <c r="L34" s="64"/>
       <c r="M34" s="65"/>
-      <c r="N34" s="65">
-        <v>4</v>
-      </c>
+      <c r="N34" s="65"/>
       <c r="O34" s="65"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -4035,27 +4564,33 @@
       <c r="AT34" s="66"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="83"/>
-      <c r="C35" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="90"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="94"/>
       <c r="E35" s="63" t="s">
         <v>109</v>
       </c>
       <c r="F35" s="63">
-        <v>16</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+        <v>4</v>
+      </c>
+      <c r="G35" s="41">
+        <v>4</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>125</v>
+      </c>
       <c r="I35" s="41" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="J35" s="64"/>
       <c r="K35" s="64"/>
       <c r="L35" s="64"/>
       <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
+      <c r="N35" s="65">
+        <v>4</v>
+      </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65"/>
       <c r="Q35" s="65"/>
@@ -4089,241 +4624,296 @@
       <c r="AS35" s="65"/>
       <c r="AT35" s="66"/>
     </row>
-    <row r="36" spans="2:46" ht="15.75" thickBot="1">
-      <c r="B36" s="82"/>
-      <c r="C36" s="84" t="s">
+    <row r="36" spans="2:46">
+      <c r="B36" s="85"/>
+      <c r="C36" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="63">
+        <v>16</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="66"/>
+    </row>
+    <row r="37" spans="2:46" ht="15.75" thickBot="1">
+      <c r="B37" s="84"/>
+      <c r="C37" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="67" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F37" s="35">
         <v>8</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="39"/>
-    </row>
-    <row r="37" spans="2:46" ht="15.75" hidden="1" thickBot="1">
-      <c r="B37" s="93" t="s">
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="39"/>
+    </row>
+    <row r="38" spans="2:46" ht="15.75" hidden="1" thickBot="1">
+      <c r="B38" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25">
-        <f>SUM(F3:F36)</f>
-        <v>536</v>
-      </c>
-      <c r="G37" s="25">
-        <f>SUM(G3:G35)</f>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25">
+        <f>SUM(F3:F37)</f>
+        <v>552</v>
+      </c>
+      <c r="G38" s="25">
+        <f>SUM(G3:G36)</f>
         <v>51</v>
       </c>
-      <c r="H37" s="115"/>
-      <c r="I37" s="19" t="s">
+      <c r="H38" s="117"/>
+      <c r="I38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="25">
-        <f>SUM(J3:J36)</f>
+      <c r="J38" s="25">
+        <f>SUM(J3:J37)</f>
         <v>3</v>
       </c>
-      <c r="K37" s="25">
-        <f>SUM(K3:K36)</f>
+      <c r="K38" s="25">
+        <f>SUM(K3:K37)</f>
         <v>4</v>
       </c>
-      <c r="L37" s="25">
-        <f>SUM(L3:L36)</f>
+      <c r="L38" s="25">
+        <f>SUM(L3:L37)</f>
         <v>8</v>
       </c>
-      <c r="M37" s="25">
-        <f>SUM(M3:M36)</f>
+      <c r="M38" s="25">
+        <f>SUM(M3:M37)</f>
         <v>8</v>
       </c>
-      <c r="N37" s="25">
-        <f t="shared" ref="N37" si="0">SUM(N3:N36)</f>
+      <c r="N38" s="25">
+        <f t="shared" ref="N38" si="0">SUM(N3:N37)</f>
         <v>4</v>
       </c>
-      <c r="O37" s="25">
-        <f t="shared" ref="O37" si="1">SUM(O3:O36)</f>
+      <c r="O38" s="25">
+        <f t="shared" ref="O38" si="1">SUM(O3:O37)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="25">
-        <f t="shared" ref="P37" si="2">SUM(P3:P36)</f>
+      <c r="P38" s="25">
+        <f t="shared" ref="P38" si="2">SUM(P3:P37)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="25">
-        <f t="shared" ref="Q37" si="3">SUM(Q3:Q36)</f>
+      <c r="Q38" s="25">
+        <f t="shared" ref="Q38" si="3">SUM(Q3:Q37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="25">
-        <f t="shared" ref="R37" si="4">SUM(R3:R36)</f>
+      <c r="R38" s="25">
+        <f t="shared" ref="R38" si="4">SUM(R3:R37)</f>
         <v>0</v>
       </c>
-      <c r="S37" s="25">
-        <f t="shared" ref="S37" si="5">SUM(S3:S36)</f>
+      <c r="S38" s="25">
+        <f t="shared" ref="S38" si="5">SUM(S3:S37)</f>
         <v>0</v>
       </c>
-      <c r="T37" s="25">
-        <f t="shared" ref="T37" si="6">SUM(T3:T36)</f>
+      <c r="T38" s="25">
+        <f t="shared" ref="T38" si="6">SUM(T3:T37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="25">
-        <f t="shared" ref="U37" si="7">SUM(U3:U36)</f>
+      <c r="U38" s="25">
+        <f t="shared" ref="U38" si="7">SUM(U3:U37)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="25">
-        <f t="shared" ref="V37" si="8">SUM(V3:V36)</f>
+      <c r="V38" s="25">
+        <f t="shared" ref="V38" si="8">SUM(V3:V37)</f>
         <v>0</v>
       </c>
-      <c r="W37" s="25">
-        <f t="shared" ref="W37" si="9">SUM(W3:W36)</f>
+      <c r="W38" s="25">
+        <f t="shared" ref="W38" si="9">SUM(W3:W37)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="25">
-        <f t="shared" ref="X37" si="10">SUM(X3:X36)</f>
+      <c r="X38" s="25">
+        <f t="shared" ref="X38" si="10">SUM(X3:X37)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="25">
-        <f t="shared" ref="Y37" si="11">SUM(Y3:Y36)</f>
+      <c r="Y38" s="25">
+        <f t="shared" ref="Y38" si="11">SUM(Y3:Y37)</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="25">
-        <f t="shared" ref="Z37" si="12">SUM(Z3:Z36)</f>
+      <c r="Z38" s="25">
+        <f t="shared" ref="Z38" si="12">SUM(Z3:Z37)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="25">
-        <f t="shared" ref="AA37" si="13">SUM(AA3:AA36)</f>
+      <c r="AA38" s="25">
+        <f t="shared" ref="AA38" si="13">SUM(AA3:AA37)</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="25">
-        <f t="shared" ref="AB37" si="14">SUM(AB3:AB36)</f>
+      <c r="AB38" s="25">
+        <f t="shared" ref="AB38" si="14">SUM(AB3:AB37)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="25">
-        <f t="shared" ref="AC37" si="15">SUM(AC3:AC36)</f>
+      <c r="AC38" s="25">
+        <f t="shared" ref="AC38" si="15">SUM(AC3:AC37)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="25">
-        <f t="shared" ref="AD37" si="16">SUM(AD3:AD36)</f>
+      <c r="AD38" s="25">
+        <f t="shared" ref="AD38" si="16">SUM(AD3:AD37)</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="25">
-        <f t="shared" ref="AE37" si="17">SUM(AE3:AE36)</f>
+      <c r="AE38" s="25">
+        <f t="shared" ref="AE38" si="17">SUM(AE3:AE37)</f>
         <v>0</v>
       </c>
-      <c r="AF37" s="25">
-        <f t="shared" ref="AF37" si="18">SUM(AF3:AF36)</f>
+      <c r="AF38" s="25">
+        <f t="shared" ref="AF38" si="18">SUM(AF3:AF37)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="25">
-        <f t="shared" ref="AG37" si="19">SUM(AG3:AG36)</f>
+      <c r="AG38" s="25">
+        <f t="shared" ref="AG38" si="19">SUM(AG3:AG37)</f>
         <v>0</v>
       </c>
-      <c r="AH37" s="25">
-        <f t="shared" ref="AH37" si="20">SUM(AH3:AH36)</f>
+      <c r="AH38" s="25">
+        <f t="shared" ref="AH38" si="20">SUM(AH3:AH37)</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="25">
-        <f t="shared" ref="AI37" si="21">SUM(AI3:AI36)</f>
+      <c r="AI38" s="25">
+        <f t="shared" ref="AI38" si="21">SUM(AI3:AI37)</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="25">
-        <f t="shared" ref="AJ37" si="22">SUM(AJ3:AJ36)</f>
+      <c r="AJ38" s="25">
+        <f t="shared" ref="AJ38" si="22">SUM(AJ3:AJ37)</f>
         <v>0</v>
       </c>
-      <c r="AK37" s="25">
-        <f t="shared" ref="AK37" si="23">SUM(AK3:AK36)</f>
+      <c r="AK38" s="25">
+        <f t="shared" ref="AK38" si="23">SUM(AK3:AK37)</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="25">
-        <f t="shared" ref="AL37" si="24">SUM(AL3:AL36)</f>
+      <c r="AL38" s="25">
+        <f t="shared" ref="AL38" si="24">SUM(AL3:AL37)</f>
         <v>0</v>
       </c>
-      <c r="AM37" s="25">
-        <f t="shared" ref="AM37" si="25">SUM(AM3:AM36)</f>
+      <c r="AM38" s="25">
+        <f t="shared" ref="AM38" si="25">SUM(AM3:AM37)</f>
         <v>0</v>
       </c>
-      <c r="AN37" s="25">
-        <f t="shared" ref="AN37" si="26">SUM(AN3:AN36)</f>
+      <c r="AN38" s="25">
+        <f t="shared" ref="AN38" si="26">SUM(AN3:AN37)</f>
         <v>0</v>
       </c>
-      <c r="AO37" s="25">
-        <f t="shared" ref="AO37:AT37" si="27">SUM(AO3:AO36)</f>
+      <c r="AO38" s="25">
+        <f t="shared" ref="AO38:AT38" si="27">SUM(AO3:AO37)</f>
         <v>0</v>
       </c>
-      <c r="AP37" s="25">
+      <c r="AP38" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ37" s="25">
+      <c r="AQ38" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AR37" s="25">
+      <c r="AR38" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS37" s="25">
+      <c r="AS38" s="25">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AT37" s="26">
+      <c r="AT38" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:46">
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="41" spans="2:46">
       <c r="C41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:46">
+      <c r="C42" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AU37">
+  <autoFilter ref="A2:AU38">
     <filterColumn colId="4">
       <filters>
         <filter val="P1"/>
@@ -4333,10 +4923,10 @@
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AU37">
+      <autoFilter ref="A2:AU38">
         <filterColumn colId="4">
           <filters>
             <filter val="P1"/>
@@ -4347,29 +4937,29 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B5:B26"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B5:B27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I37">
+  <conditionalFormatting sqref="I3:I38">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -4377,13 +4967,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I37">
+  <conditionalFormatting sqref="I3:I38">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I38">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4394,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4419,7 +5009,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4427,47 +5017,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="107"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="107"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="107"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="107"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="107"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="108"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4475,17 +5065,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="107"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="107"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="114" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -4493,7 +5083,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="113"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -4511,11 +5101,11 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="114"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="108" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4523,178 +5113,166 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="107"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="107"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="107"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="107"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="108"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="70"/>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="70"/>
+      <c r="C25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="70"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="1" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="109"/>
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="1" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="109"/>
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="1" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" s="109"/>
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="1" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" s="109"/>
+      <c r="C31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="107"/>
-      <c r="C28" s="1" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="109"/>
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="106" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="109"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="107"/>
-      <c r="C31" s="1" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="109"/>
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="107"/>
-      <c r="C32" s="1" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="109"/>
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="107"/>
-      <c r="C33" s="1" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="109"/>
+      <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="108"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="109" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" s="110"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D39" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E39" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F39" s="68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="110"/>
-      <c r="C36" s="28" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="112"/>
+      <c r="C40" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="111"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="110"/>
-      <c r="C39" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="111"/>
-      <c r="C40" s="28"/>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
       <c r="F40" s="68"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>38</v>
-      </c>
+      <c r="B41" s="113"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
       <c r="F41" s="68"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="110"/>
+      <c r="B42" s="111" t="s">
+        <v>59</v>
+      </c>
       <c r="C42" s="28" t="s">
         <v>60</v>
       </c>
@@ -4703,46 +5281,82 @@
       <c r="F42" s="68"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="110"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="110"/>
-      <c r="C44" s="28" t="s">
-        <v>63</v>
-      </c>
+      <c r="B44" s="113"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="68"/>
       <c r="E44" s="68"/>
       <c r="F44" s="68"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="111"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
     </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="112"/>
+      <c r="C46" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="112"/>
+      <c r="C47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="112"/>
+      <c r="C48" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="113"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C18" sqref="C18:C21"/>
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B49"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B27:B33"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -10,17 +10,20 @@
     <sheet name="Breakdown function" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Estimation" sheetId="2" r:id="rId2"/>
     <sheet name="DB Relationship" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Common Css" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$2:$AT$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$38</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$38</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$O</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$38</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$38</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$38</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$P</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$39</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
   <si>
     <t>User login</t>
   </si>
@@ -433,6 +436,40 @@
   </si>
   <si>
     <t>tbl_Color</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>table table-striped table-bordered table-responsive table-condensed table-hover</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>form-control</t>
+  </si>
+  <si>
+    <t>Dropdownlist</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>btn btn-success</t>
+  </si>
+  <si>
+    <t>Resolve the issue related to:
+- Github</t>
+  </si>
+  <si>
+    <t>WorkingHoursID</t>
+  </si>
+  <si>
+    <t>tbl_TitleAllocation</t>
+  </si>
+  <si>
+    <t>tbl_WorkingHours</t>
   </si>
 </sst>
 </file>
@@ -442,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +507,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -573,11 +618,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -665,6 +736,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -701,11 +796,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +838,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,33 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,441 +900,104 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{2642045E-FA13-4015-86C0-A6F2F99891F7}" diskRevisions="1" revisionId="196" version="60">
-  <header guid="{935471E8-FCED-47C5-9F32-F5A3DD6E0D2D}" dateTime="2016-01-13T09:07:08" maxSheetId="4" userName="thai.pham" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F960DFDC-1629-4E52-9765-DDF92B80D663}" dateTime="2016-01-13T09:07:25" maxSheetId="4" userName="thai.pham" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D186AC19-2D18-458B-AACE-7AC97D6BA23E}" dateTime="2016-01-13T09:09:01" maxSheetId="4" userName="thai.pham" r:id="rId3" minRId="3" maxRId="7">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9B54EB4D-82E4-4841-BA57-AC564E373789}" dateTime="2016-01-13T09:09:30" maxSheetId="4" userName="thai.pham" r:id="rId4" minRId="10" maxRId="11">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1A9A02A1-5246-4E10-B467-0048DFD2C37D}" dateTime="2016-01-13T09:09:57" maxSheetId="4" userName="thai.pham" r:id="rId5" minRId="14">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{24C00A87-75A5-4284-9E69-9FD75EACA28E}" dateTime="2016-01-13T09:10:24" maxSheetId="4" userName="thai.pham" r:id="rId6">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ABDC2168-5E4E-49E5-976E-3FDD966F3AC7}" dateTime="2016-01-13T09:13:35" maxSheetId="4" userName="thai.pham" r:id="rId7">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{75287A7A-BD82-446A-86C8-FFB1C0DE3B1D}" dateTime="2016-01-13T09:14:20" maxSheetId="4" userName="thai.pham" r:id="rId8">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D4C8B3B7-8408-4B0E-9817-2DD8647280E7}" dateTime="2016-01-13T10:02:53" maxSheetId="4" userName="thai.pham" r:id="rId9" minRId="23" maxRId="24">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{81B87C81-77B0-41C3-8D15-E34BFAF06852}" dateTime="2016-01-13T10:20:46" maxSheetId="4" userName="thai.pham" r:id="rId10" minRId="27" maxRId="42">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F1FFBD20-86CD-4602-92C4-BD0FAF7EB038}" dateTime="2016-01-13T10:20:57" maxSheetId="4" userName="thai.pham" r:id="rId11" minRId="45">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FEEAFC66-2BC3-4854-AD87-F3530FF59C6E}" dateTime="2016-01-13T10:22:57" maxSheetId="4" userName="thai.pham" r:id="rId12" minRId="48">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB095325-C960-4181-BC73-AC797A1EBCCD}" dateTime="2016-01-13T10:23:10" maxSheetId="4" userName="thai.pham" r:id="rId13" minRId="51">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9F9DADFA-D3D2-4265-9FFF-EFD0FD14EEE7}" dateTime="2016-01-13T10:23:20" maxSheetId="4" userName="thai.pham" r:id="rId14">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B7B7C03F-DC42-4AB1-8E67-B11EA55BDF80}" dateTime="2016-01-13T10:23:37" maxSheetId="4" userName="thai.pham" r:id="rId15" minRId="56" maxRId="57">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{852A1889-A145-4020-BABA-D4B0E0E8FC65}" dateTime="2016-01-13T10:23:48" maxSheetId="4" userName="thai.pham" r:id="rId16" minRId="60" maxRId="62">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D624173A-6045-4AAD-B730-5F846CCA4E89}" dateTime="2016-01-13T10:23:52" maxSheetId="4" userName="thai.pham" r:id="rId17" minRId="65">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A3690655-A9FC-47F3-9958-35BA5C641035}" dateTime="2016-01-13T10:23:58" maxSheetId="4" userName="thai.pham" r:id="rId18">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F68139DF-05EE-4B49-95E9-058A900107CE}" dateTime="2016-01-13T10:29:19" maxSheetId="4" userName="thai.pham" r:id="rId19">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{16DD0B4B-370A-48D7-A2FD-C29704A19BA6}" dateTime="2016-01-13T14:07:47" maxSheetId="4" userName="thai.pham" r:id="rId20">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D7A277A7-0CE2-4174-A8CB-C232CCAF1ADF}" dateTime="2016-01-13T15:03:06" maxSheetId="4" userName="thai.pham" r:id="rId21">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{848597CB-703B-4655-908B-5651FC40757E}" dateTime="2016-01-13T15:09:25" maxSheetId="4" userName="thai.pham" r:id="rId22" minRId="76">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7BDF4750-528D-4847-912E-9435FE999087}" dateTime="2016-01-13T15:09:28" maxSheetId="4" userName="thai.pham" r:id="rId23" minRId="79">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E7620AE7-C767-4B41-80FD-CD386ADCF0EB}" dateTime="2016-01-13T15:09:38" maxSheetId="4" userName="thai.pham" r:id="rId24">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1AEDCDE0-2332-4B54-AB3C-22AE097CEBBF}" dateTime="2016-01-13T15:11:13" maxSheetId="4" userName="thai.pham" r:id="rId25" minRId="84" maxRId="87">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F31C3FE3-D0F2-4583-B5E3-6A338416E90B}" dateTime="2016-01-13T15:12:02" maxSheetId="4" userName="thai.pham" r:id="rId26">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7CFD7507-AEF4-46AA-8A7E-3E9D1C6E8704}" dateTime="2016-01-13T15:12:27" maxSheetId="4" userName="tan.thanh.vo" r:id="rId27">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F5485F28-5667-435E-A75D-7F113DBBBF33}" dateTime="2016-01-13T15:12:48" maxSheetId="4" userName="tan.thanh.vo" r:id="rId28" minRId="94">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{34A219FD-64B5-4CE8-85C2-F5335CE3D6A0}" dateTime="2016-01-13T15:13:13" maxSheetId="4" userName="tan.thanh.vo" r:id="rId29" minRId="97">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5F8B05A4-CCBD-47D6-8747-595D277D516E}" dateTime="2016-01-13T15:27:34" maxSheetId="4" userName="tan.thanh.vo" r:id="rId30" minRId="100" maxRId="104">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9D9A83B7-0494-44E0-8AB4-C9636CD6BB72}" dateTime="2016-01-13T15:27:42" maxSheetId="4" userName="tan.thanh.vo" r:id="rId31" minRId="107">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4D0E23F7-1444-44CF-BB4B-E0207060C83E}" dateTime="2016-01-13T15:28:21" maxSheetId="4" userName="tan.thanh.vo" r:id="rId32" minRId="110">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0D73D605-AFCD-44CB-B13F-469192205568}" dateTime="2016-01-13T15:31:16" maxSheetId="4" userName="tan.thanh.vo" r:id="rId33">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BD04DE95-109D-4D7F-8246-F873E488C28B}" dateTime="2016-01-13T15:39:39" maxSheetId="4" userName="tan.thanh.vo" r:id="rId34">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{32E2DEC2-184F-4CAD-BA79-9AB6CF17449B}" dateTime="2016-01-13T16:01:21" maxSheetId="4" userName="tan.thanh.vo" r:id="rId35" minRId="117">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C339183F-F2F5-45E5-86D5-57FBD93AB6F4}" dateTime="2016-01-13T16:26:16" maxSheetId="4" userName="thai.pham" r:id="rId36" minRId="120">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C12227EC-F5BA-497B-BC66-98496A68FF6D}" dateTime="2016-01-13T16:26:20" maxSheetId="4" userName="thai.pham" r:id="rId37">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{58C35900-DBB6-457F-A36A-58289B867038}" dateTime="2016-01-13T16:26:46" maxSheetId="4" userName="thai.pham" r:id="rId38">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6DA92FEE-DF53-4292-9EAE-77F7D2BEC779}" dateTime="2016-01-13T16:27:00" maxSheetId="4" userName="thai.pham" r:id="rId39">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{65DB929E-41C0-4600-8C81-2BF4E510731E}" dateTime="2016-01-13T17:13:43" maxSheetId="4" userName="tan.thanh.vo" r:id="rId40" minRId="129" maxRId="130">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{67DA60AD-7172-404F-B22B-4122F07EB5CE}" dateTime="2016-01-13T17:14:40" maxSheetId="4" userName="thai.pham" r:id="rId41">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B7803E39-3FF2-40C3-91F4-31FB9313CA88}" dateTime="2016-01-13T17:14:48" maxSheetId="4" userName="thai.pham" r:id="rId42">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2046590E-E244-4AB7-888D-989D58419A26}" dateTime="2016-01-13T17:59:17" maxSheetId="4" userName="thai.pham" r:id="rId43" minRId="137">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{40A710B9-3D67-4C68-86D6-21858A2DA691}" dateTime="2016-01-13T17:59:25" maxSheetId="4" userName="thai.pham" r:id="rId44">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EC85E3AC-68B3-46A8-9C1D-4A76B897F8E5}" dateTime="2016-01-13T17:59:40" maxSheetId="5" userName="thai.pham" r:id="rId45" minRId="142" maxRId="143">
-    <sheetIdMap count="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3282E612-26FD-4C45-8EBA-A08FCD910B8C}" diskRevisions="1" revisionId="23" version="11">
+  <header guid="{8CCB0A45-92E1-43C3-AD5A-40E9BC7997AC}" dateTime="2016-01-18T16:26:54" maxSheetId="6" userName="thai.pham" r:id="rId1">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{ED381AC5-1AFB-4FC4-87E7-CC4A7F1476C2}" dateTime="2016-01-13T17:59:43" maxSheetId="5" userName="thai.pham" r:id="rId46">
-    <sheetIdMap count="4">
+  <header guid="{7A6BB5F6-BCB4-4EFD-A6EF-226F4FC16791}" dateTime="2016-01-18T16:28:13" maxSheetId="6" userName="thai.pham" r:id="rId2">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A3380532-34F6-49AB-819D-6955C3F58BCA}" dateTime="2016-01-13T18:03:15" maxSheetId="5" userName="thai.pham" r:id="rId47">
-    <sheetIdMap count="4">
+  <header guid="{9EF7169A-EC1D-46C4-BECE-FB7E40D4BE2F}" dateTime="2016-01-18T17:35:19" maxSheetId="6" userName="thai.pham" r:id="rId3">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{D8F31F32-D57C-4680-9A42-9BA617A5BEE0}" dateTime="2016-01-13T18:03:50" maxSheetId="5" userName="thai.pham" r:id="rId48">
-    <sheetIdMap count="4">
+  <header guid="{A9967D44-088B-4FD0-A0E5-0D113CDE5E82}" dateTime="2016-01-18T17:35:27" maxSheetId="6" userName="thai.pham" r:id="rId4">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A232E4B1-D256-40BD-8590-90D0FEF5BB10}" dateTime="2016-01-14T17:18:38" maxSheetId="5" userName="thai.pham" r:id="rId49" minRId="152" maxRId="153">
-    <sheetIdMap count="4">
+  <header guid="{12FD6680-0CDA-49C0-A5FE-AF85444CAD02}" dateTime="2016-01-18T17:35:54" maxSheetId="6" userName="thai.pham" r:id="rId5">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{75E42BEB-AAFE-4B37-9334-025578FA1B8A}" dateTime="2016-01-14T17:19:01" maxSheetId="5" userName="thai.pham" r:id="rId50">
-    <sheetIdMap count="4">
+  <header guid="{D1256597-1273-46AB-8D7F-8DE944C5438B}" dateTime="2016-01-18T17:36:05" maxSheetId="6" userName="thai.pham" r:id="rId6" minRId="9" maxRId="10">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{E0032BB0-ACA6-438D-9082-18B8F1F849CF}" dateTime="2016-01-14T17:19:32" maxSheetId="5" userName="thai.pham" r:id="rId51" minRId="158">
-    <sheetIdMap count="4">
+  <header guid="{B4D123ED-3036-4543-AB20-FC5E8A6E87A0}" dateTime="2016-01-18T17:36:05" maxSheetId="6" userName="tan.thanh.vo" r:id="rId7" minRId="13">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{72188D17-2746-4AA5-B1D1-2742E209556D}" dateTime="2016-01-14T17:20:23" maxSheetId="5" userName="tan.thanh.vo" r:id="rId52" minRId="161">
-    <sheetIdMap count="4">
+  <header guid="{E39A1798-4525-4DEC-A50E-CC553B1EF64A}" dateTime="2016-01-18T17:36:18" maxSheetId="6" userName="thai.pham" r:id="rId8">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{F3FE7D91-E385-428E-A464-2C0AFB4FDE4B}" dateTime="2016-01-14T17:20:28" maxSheetId="5" userName="tan.thanh.vo" r:id="rId53">
-    <sheetIdMap count="4">
+  <header guid="{D6990EE5-7E49-492E-A55B-975086B3861C}" dateTime="2016-01-18T17:36:40" maxSheetId="6" userName="thai.pham" r:id="rId9">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{E5E226D6-BB8E-4A77-BDBB-1400BBC130A5}" dateTime="2016-01-14T17:20:38" maxSheetId="5" userName="tan.thanh.vo" r:id="rId54" minRId="166" maxRId="167">
-    <sheetIdMap count="4">
+  <header guid="{70325593-5B19-4EF7-9875-41004F4313BC}" dateTime="2016-01-18T17:37:06" maxSheetId="6" userName="thai.pham" r:id="rId10">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A64745E8-7D85-4D83-A55C-58980DA28264}" dateTime="2016-01-14T17:20:39" maxSheetId="5" userName="tan.thanh.vo" r:id="rId55">
-    <sheetIdMap count="4">
+  <header guid="{3282E612-26FD-4C45-8EBA-A08FCD910B8C}" dateTime="2016-01-18T17:46:28" maxSheetId="6" userName="thai.pham" r:id="rId11">
+    <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4DFA3F72-CEC8-4254-A4DB-D9AFFFAA425A}" dateTime="2016-01-14T17:20:42" maxSheetId="5" userName="tan.thanh.vo" r:id="rId56">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DE34E086-9C02-4767-8AD2-A5566E019703}" dateTime="2016-01-14T17:20:46" maxSheetId="5" userName="thai.pham" r:id="rId57" minRId="174" maxRId="188">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6B69E016-37D3-4B0E-A8CE-4B91563B5A6A}" dateTime="2016-01-14T17:21:01" maxSheetId="5" userName="thai.pham" r:id="rId58">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CC501124-D334-479B-AD18-4BE565607A0D}" dateTime="2016-01-14T17:21:08" maxSheetId="5" userName="thai.pham" r:id="rId59">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2642045E-FA13-4015-86C0-A6F2F99891F7}" dateTime="2016-01-14T17:21:11" maxSheetId="5" userName="thai.pham" r:id="rId60">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
+      <sheetId val="5"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1255,12 +1007,12 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$O</formula>
-    <oldFormula>Estimation!$J:$O</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1270,71 +1022,12 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <ris rId="142" sheetId="4" name="[LFCRM.xlsx]Sheet1" sheetPosition="3"/>
-  <rm rId="143" sheetId="4" source="C41:C43" destination="B2:B4" sourceSheetId="2"/>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1101.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11011.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="137" sId="2">
-    <oc r="H34" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </oc>
-    <nc r="H34" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1344,11 +1037,12 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$O</formula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1356,16 +1050,16 @@
 
 <file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rrc rId="1" sId="2" ref="H1:H1048576" action="insertCol">
-    <undo index="0" exp="area" ref3D="1" dr="$I$1:$K$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
-  </rrc>
-  <rcc rId="2" sId="2">
-    <nc r="H2" t="inlineStr">
-      <is>
-        <t>Developer</t>
-      </is>
-    </nc>
-  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -1373,468 +1067,10 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/revisions/revisionLog1112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="174" sId="2">
-    <oc r="G4">
-      <f>SUM(J4:BP4)</f>
-    </oc>
-    <nc r="G4">
-      <f>SUM(J4:BP4)</f>
-    </nc>
-  </rcc>
-  <rcc rId="175" sId="2" odxf="1" dxf="1">
-    <nc r="G5">
-      <f>SUM(J5:BP5)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="2" sqref="G6" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="G8" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="176" sId="2" odxf="1" dxf="1">
-    <nc r="G9">
-      <f>SUM(J9:BP9)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="177" sId="2" odxf="1" dxf="1">
-    <nc r="G15">
-      <f>SUM(J15:BP15)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="178" sId="2" odxf="1" dxf="1">
-    <nc r="G16">
-      <f>SUM(J16:BP16)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="179" sId="2" odxf="1" dxf="1">
-    <nc r="G17">
-      <f>SUM(J17:BP17)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="180" sId="2" odxf="1" dxf="1">
-    <nc r="G18">
-      <f>SUM(J18:BP18)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="181" sId="2" odxf="1" dxf="1">
-    <nc r="G19">
-      <f>SUM(J19:BP19)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="2" sqref="G33" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="182" sId="2" odxf="1" dxf="1">
-    <oc r="G34">
-      <f>SUM(J34:BP34)+12</f>
-    </oc>
-    <nc r="G34">
-      <f>SUM(J34:BP34)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="183" sId="2" odxf="1" dxf="1">
-    <oc r="G35">
-      <v>4</v>
-    </oc>
-    <nc r="G35">
-      <f>SUM(J35:BP35)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="184" sId="2" odxf="1" dxf="1">
-    <nc r="G36">
-      <f>SUM(J36:BP36)</f>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="185" sId="2">
-    <nc r="G37">
-      <f>SUM(J37:BP37)</f>
-    </nc>
-  </rcc>
-  <rcc rId="186" sId="2">
-    <oc r="G33">
-      <f>SUM(J33:BP33)+4</f>
-    </oc>
-    <nc r="G33">
-      <f>SUM(J33:BP33)</f>
-    </nc>
-  </rcc>
-  <rcc rId="187" sId="2">
-    <nc r="G6">
-      <f>SUM(J6:BP6)</f>
-    </nc>
-  </rcc>
-  <rcc rId="188" sId="2">
-    <nc r="G8">
-      <f>SUM(J8:BP8)</f>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="G9" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B2:B38" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B2:AT2" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="AT2:AT38" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B38:AT38" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B2:AT38">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="3" sId="2">
-    <nc r="H3" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="2">
-    <nc r="H4" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="2">
-    <nc r="H32" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="2">
-    <nc r="H33" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="2">
-    <nc r="H34" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$L</formula>
-    <oldFormula>Estimation!$J:$L</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="152" sId="2" numFmtId="19">
-    <nc r="P2">
-      <v>42383</v>
-    </nc>
-  </rcc>
-  <rcc rId="153" sId="2">
-    <nc r="P6">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="161" sId="2">
-    <nc r="P8">
+  <rcc rId="13" sId="2">
+    <nc r="R8">
       <v>8</v>
     </nc>
   </rcc>
@@ -1844,88 +1080,33 @@
     <oldFormula>Estimation!$J:$N</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="158" sId="2">
-    <oc r="H33" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </oc>
-    <nc r="H33" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
+  <rcc rId="9" sId="2" numFmtId="19">
+    <nc r="R2">
+      <v>42387</v>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="2">
+    <nc r="R6">
+      <v>8</v>
     </nc>
   </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rrc rId="51" sId="3" ref="A26:XFD26" action="insertRow"/>
-  <rfmt sheetId="3" sqref="B25" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1935,12 +1116,12 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1948,48 +1129,14 @@
 
 <file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="14" sId="2" numFmtId="19">
-    <nc r="O2">
-      <v>42382</v>
-    </nc>
-  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$L</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="10" sId="2">
-    <nc r="H8" t="inlineStr">
-      <is>
-        <t>Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="2">
-    <nc r="H5" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$L</formula>
-    <oldFormula>Estimation!$J:$L</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1999,12 +1146,12 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -2012,1195 +1159,21 @@
 
 <file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="48" sId="3">
-    <nc r="C25" t="inlineStr">
-      <is>
-        <t>Color</t>
-      </is>
-    </nc>
-  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
+    <formula>Estimation!$B$2:$AT$39</formula>
+    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="45" sId="3">
-    <oc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_Title</t>
-      </is>
-    </oc>
-    <nc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_TitleCategory</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rrc rId="27" sId="3" ref="A23:XFD23" action="insertRow"/>
-  <rrc rId="28" sId="3" ref="A23:XFD23" action="insertRow"/>
-  <rrc rId="29" sId="3" ref="A24:XFD24" action="insertRow"/>
-  <rrc rId="30" sId="3" ref="A24:XFD24" action="insertRow"/>
-  <rrc rId="31" sId="3" ref="A24:XFD26" action="insertRow"/>
-  <rcc rId="32" sId="3" odxf="1" dxf="1">
-    <nc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_Title</t>
-      </is>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <top/>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="33" sId="3">
-    <nc r="C24" t="inlineStr">
-      <is>
-        <t>Category</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="3">
-    <nc r="C25" t="inlineStr">
-      <is>
-        <t>TOCKCode</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="3">
-    <nc r="C26" t="inlineStr">
-      <is>
-        <t>TitleName</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="3">
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>TitleColor</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="3" sqref="B28" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="37" sId="3" ref="A29:XFD29" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A29:XFD29" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B29" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="3" sqref="C29" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rcc rId="38" sId="3">
-    <nc r="C23" t="inlineStr">
-      <is>
-        <t>TitleCategoryID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="3">
-    <oc r="C18" t="inlineStr">
-      <is>
-        <t>Category</t>
-      </is>
-    </oc>
-    <nc r="C18" t="inlineStr">
-      <is>
-        <t>TitleCategoryID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="40" sId="3" ref="A25:XFD25" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B25" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="C25" t="inlineStr">
-        <is>
-          <t>TOCKCode</t>
-        </is>
-      </nc>
-      <ndxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="41" sId="3" ref="A25:XFD25" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B25" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="C25" t="inlineStr">
-        <is>
-          <t>TitleName</t>
-        </is>
-      </nc>
-      <ndxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="42" sId="3" ref="A25:XFD25" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A25:XFD25" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B25" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="C25" t="inlineStr">
-        <is>
-          <t>TitleColor</t>
-        </is>
-      </nc>
-      <ndxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="23" sId="2">
-    <oc r="H5" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </oc>
-    <nc r="H5"/>
-  </rcc>
-  <rcc rId="24" sId="2">
-    <nc r="H6" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="65" sId="2">
-    <nc r="I9" t="inlineStr">
-      <is>
-        <t>Not start yet</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="60" sId="2">
-    <nc r="E9" t="inlineStr">
-      <is>
-        <t>P1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2">
-    <nc r="F9">
-      <v>16</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="2">
-    <nc r="H9" t="inlineStr">
-      <is>
-        <t>Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rrc rId="56" sId="2" ref="A9:XFD9" action="insertRow">
-    <undo index="0" exp="area" ref3D="1" dr="$J$1:$N$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
-  </rrc>
-  <rcc rId="57" sId="2">
-    <nc r="D9" t="inlineStr">
-      <is>
-        <t>Add/Edit/Remove title category</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1411111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$37</formula>
-    <oldFormula>Estimation!$A$2:$AU$37</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="84" sId="3">
-    <nc r="D14" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="3">
-    <nc r="D11" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="86" sId="3">
-    <nc r="D17" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="87" sId="3">
-    <nc r="D23" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="97" sId="2">
-    <nc r="O8">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog161111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="79" sId="2" odxf="1" dxf="1">
-    <oc r="I6" t="inlineStr">
-      <is>
-        <t>Not start yet</t>
-      </is>
-    </oc>
-    <nc r="I6" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
-    </nc>
-    <odxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </odxf>
-    <ndxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1611111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="76" sId="2">
-    <nc r="O6">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="3" sqref="B25" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="110" sId="3">
-    <oc r="C27" t="inlineStr">
-      <is>
-        <t>Color</t>
-      </is>
-    </oc>
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>ColorID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="94" sId="2">
-    <oc r="I8" t="inlineStr">
-      <is>
-        <t>Not start yet</t>
-      </is>
-    </oc>
-    <nc r="I8" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog171111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="3" sqref="B23" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog181111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="120" sId="3">
-    <nc r="C16" t="inlineStr">
-      <is>
-        <t>Abbreviation</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$A$2:$AU$38</formula>
-    <oldFormula>Estimation!$A$2:$AU$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1811111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="107" sId="3">
-    <oc r="C21" t="inlineStr">
-      <is>
-        <t>TitleColor</t>
-      </is>
-    </oc>
-    <nc r="C21" t="inlineStr">
-      <is>
-        <t>ColorID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18111111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rrc rId="100" sId="3" ref="A23:XFD23" action="insertRow"/>
-  <rrc rId="101" sId="3" ref="A23:XFD23" action="insertRow"/>
-  <rfmt sheetId="3" sqref="B23:B25" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B25" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B25" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B25" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B25" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B24" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B24" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B24" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B24">
-    <dxf>
-      <border>
-        <top/>
-        <bottom/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B24" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B23:B24" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="B24" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="102" sId="3">
-    <nc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_color</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="103" sId="3">
-    <nc r="C23" t="inlineStr">
-      <is>
-        <t>ColorID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="104" sId="3">
-    <nc r="C24" t="inlineStr">
-      <is>
-        <t>ColorCode</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$O</formula>
-    <oldFormula>Estimation!$J:$O</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="166" sId="2">
-    <nc r="P3">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="167" sId="2">
-    <oc r="P8">
-      <v>8</v>
-    </oc>
-    <nc r="P8">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1911.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="129" sId="2">
-    <oc r="O8">
-      <v>8</v>
-    </oc>
-    <nc r="O8">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="130" sId="2">
-    <nc r="O34">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="117" sId="3">
-    <oc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_color</t>
-      </is>
-    </oc>
-    <nc r="B23" t="inlineStr">
-      <is>
-        <t>tbl_Color</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$38</formula>
-    <oldFormula>Estimation!$B$2:$AT$38</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
-  <userInfo guid="{2642045E-FA13-4015-86C0-A6F2F99891F7}" name="thai.pham" id="-598478853" dateTime="2016-01-14T17:18:24"/>
-  <userInfo guid="{4DFA3F72-CEC8-4254-A4DB-D9AFFFAA425A}" name="tan.thanh.vo" id="-1397677988" dateTime="2016-01-14T17:19:30"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3521,13 +1494,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3536,28 +1509,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="44"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -3565,56 +1538,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="44"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3623,35 +1596,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="44"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="44"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="44"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="44"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -3659,8 +1632,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="44"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -3668,15 +1641,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="44"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="44"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -3686,8 +1659,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="44"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -3695,7 +1668,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="44"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -3704,10 +1677,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3717,8 +1690,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -3726,7 +1699,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="41"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3735,7 +1708,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="40"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -3774,7 +1747,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:AT38"/>
+  <dimension ref="B2:AT39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3790,97 +1763,101 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="16" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:46" ht="55.5" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="35">
         <v>42291</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="35">
         <v>42292</v>
       </c>
-      <c r="L2" s="58">
+      <c r="L2" s="35">
         <v>42377</v>
       </c>
-      <c r="M2" s="58">
+      <c r="M2" s="35">
         <v>42380</v>
       </c>
-      <c r="N2" s="58">
+      <c r="N2" s="35">
         <v>42381</v>
       </c>
-      <c r="O2" s="58">
+      <c r="O2" s="35">
         <v>42382</v>
       </c>
-      <c r="P2" s="58">
+      <c r="P2" s="35">
         <v>42383</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
+      <c r="Q2" s="35">
+        <v>42384</v>
+      </c>
+      <c r="R2" s="35">
+        <v>42387</v>
+      </c>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
     </row>
     <row r="3" spans="2:46">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="25" t="s">
         <v>108</v>
       </c>
@@ -3940,11 +1917,11 @@
       <c r="AT3" s="26"/>
     </row>
     <row r="4" spans="2:46">
-      <c r="B4" s="59"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="25" t="s">
         <v>108</v>
       </c>
@@ -4008,10 +1985,10 @@
       <c r="AT4" s="26"/>
     </row>
     <row r="5" spans="2:46">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -4024,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G6" si="0">SUM(J5:BP5)</f>
+        <f t="shared" ref="G5" si="0">SUM(J5:BP5)</f>
         <v>0</v>
       </c>
       <c r="H5" s="21"/>
@@ -4070,8 +2047,8 @@
       <c r="AT5" s="21"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="22" t="s">
         <v>105</v>
       </c>
@@ -4083,7 +2060,7 @@
       </c>
       <c r="G6" s="21">
         <f>SUM(J6:BP6)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>123</v>
@@ -4102,8 +2079,12 @@
       <c r="P6" s="21">
         <v>8</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="Q6" s="21">
+        <v>3</v>
+      </c>
+      <c r="R6" s="21">
+        <v>8</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -4134,8 +2115,8 @@
       <c r="AT6" s="21"/>
     </row>
     <row r="7" spans="2:46" hidden="1">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="22" t="s">
         <v>106</v>
       </c>
@@ -4189,8 +2170,8 @@
       <c r="AT7" s="21"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -4204,7 +2185,7 @@
       </c>
       <c r="G8" s="21">
         <f>SUM(J8:BP8)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>125</v>
@@ -4223,8 +2204,12 @@
       <c r="P8" s="21">
         <v>6</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="21">
+        <v>8</v>
+      </c>
+      <c r="R8" s="21">
+        <v>8</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -4255,8 +2240,8 @@
       <c r="AT8" s="21"/>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="23" t="s">
         <v>128</v>
       </c>
@@ -4267,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" ref="G8:G9" si="1">SUM(J9:BP9)</f>
+        <f t="shared" ref="G9" si="1">SUM(J9:BP9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -4315,8 +2300,8 @@
       <c r="AT9" s="21"/>
     </row>
     <row r="10" spans="2:46" hidden="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
@@ -4370,8 +2355,8 @@
       <c r="AT10" s="21"/>
     </row>
     <row r="11" spans="2:46" hidden="1">
-      <c r="B11" s="60"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -4427,8 +2412,8 @@
       <c r="AT11" s="21"/>
     </row>
     <row r="12" spans="2:46" hidden="1">
-      <c r="B12" s="60"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="23" t="s">
         <v>71</v>
       </c>
@@ -4482,8 +2467,8 @@
       <c r="AT12" s="24"/>
     </row>
     <row r="13" spans="2:46" hidden="1">
-      <c r="B13" s="60"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
@@ -4537,8 +2522,8 @@
       <c r="AT13" s="24"/>
     </row>
     <row r="14" spans="2:46" hidden="1">
-      <c r="B14" s="60"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="23" t="s">
         <v>72</v>
       </c>
@@ -4592,8 +2577,8 @@
       <c r="AT14" s="24"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="60"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
@@ -4652,8 +2637,8 @@
       <c r="AT15" s="24"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="B16" s="60"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
@@ -4710,8 +2695,8 @@
       <c r="AT16" s="24"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="23" t="s">
         <v>92</v>
       </c>
@@ -4768,8 +2753,8 @@
       <c r="AT17" s="24"/>
     </row>
     <row r="18" spans="2:46">
-      <c r="B18" s="60"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="23" t="s">
         <v>91</v>
       </c>
@@ -4826,8 +2811,8 @@
       <c r="AT18" s="24"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="B19" s="60"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="23" t="s">
         <v>93</v>
       </c>
@@ -4884,8 +2869,8 @@
       <c r="AT19" s="24"/>
     </row>
     <row r="20" spans="2:46" hidden="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -4941,8 +2926,8 @@
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:46" hidden="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="23" t="s">
         <v>75</v>
       </c>
@@ -4996,8 +2981,8 @@
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:46" hidden="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="57" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -5053,8 +3038,8 @@
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:46" hidden="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="46"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="23" t="s">
         <v>90</v>
       </c>
@@ -5108,8 +3093,8 @@
       <c r="AT23" s="24"/>
     </row>
     <row r="24" spans="2:46" hidden="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -5165,8 +3150,8 @@
       <c r="AT24" s="24"/>
     </row>
     <row r="25" spans="2:46" hidden="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="23" t="s">
         <v>96</v>
       </c>
@@ -5220,8 +3205,8 @@
       <c r="AT25" s="24"/>
     </row>
     <row r="26" spans="2:46" hidden="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="57" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -5277,8 +3262,8 @@
       <c r="AT26" s="24"/>
     </row>
     <row r="27" spans="2:46" hidden="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23" t="s">
         <v>100</v>
       </c>
@@ -5332,7 +3317,7 @@
       <c r="AT27" s="24"/>
     </row>
     <row r="28" spans="2:46" hidden="1">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="53" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -5391,8 +3376,8 @@
       <c r="AT28" s="24"/>
     </row>
     <row r="29" spans="2:46" hidden="1">
-      <c r="B29" s="59"/>
-      <c r="C29" s="61" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="23" t="s">
@@ -5448,8 +3433,8 @@
       <c r="AT29" s="24"/>
     </row>
     <row r="30" spans="2:46" hidden="1">
-      <c r="B30" s="59"/>
-      <c r="C30" s="61"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23" t="s">
         <v>75</v>
       </c>
@@ -5503,7 +3488,7 @@
       <c r="AT30" s="24"/>
     </row>
     <row r="31" spans="2:46" hidden="1">
-      <c r="B31" s="59"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="32" t="s">
         <v>97</v>
       </c>
@@ -5560,7 +3545,7 @@
       <c r="AT31" s="24"/>
     </row>
     <row r="32" spans="2:46" hidden="1">
-      <c r="B32" s="59"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="32" t="s">
         <v>98</v>
       </c>
@@ -5617,13 +3602,13 @@
       <c r="AT32" s="24"/>
     </row>
     <row r="33" spans="2:46">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="25" t="s">
         <v>108</v>
       </c>
@@ -5679,11 +3664,11 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="2:46">
-      <c r="B34" s="59"/>
-      <c r="C34" s="45" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="25" t="s">
         <v>108</v>
       </c>
@@ -5691,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" ref="G33:G37" si="3">SUM(J34:BP34)</f>
+        <f t="shared" ref="G34:G38" si="3">SUM(J34:BP34)</f>
         <v>4</v>
       </c>
       <c r="H34" s="21" t="s">
@@ -5745,11 +3730,11 @@
       <c r="AT34" s="26"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="59"/>
-      <c r="C35" s="45" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="25" t="s">
         <v>108</v>
       </c>
@@ -5806,25 +3791,26 @@
       <c r="AS35" s="26"/>
       <c r="AT35" s="26"/>
     </row>
-    <row r="36" spans="2:46">
-      <c r="B36" s="59"/>
-      <c r="C36" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="45"/>
+    <row r="36" spans="2:46" ht="37.5" customHeight="1">
+      <c r="B36" s="53"/>
+      <c r="C36" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="60"/>
       <c r="E36" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F36" s="25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="I36" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
@@ -5833,7 +3819,9 @@
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
+      <c r="Q36" s="26">
+        <v>5</v>
+      </c>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
@@ -5865,16 +3853,16 @@
       <c r="AT36" s="26"/>
     </row>
     <row r="37" spans="2:46">
-      <c r="B37" s="59"/>
-      <c r="C37" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="45"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="54"/>
       <c r="E37" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F37" s="25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="3"/>
@@ -5922,176 +3910,234 @@
       <c r="AS37" s="26"/>
       <c r="AT37" s="26"/>
     </row>
-    <row r="38" spans="2:46" hidden="1">
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="2:46">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="25">
+        <v>8</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+    </row>
+    <row r="39" spans="2:46" hidden="1">
+      <c r="B39" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="63">
-        <f>SUM(F3:F37)</f>
-        <v>552</v>
-      </c>
-      <c r="G38" s="63">
-        <f>SUM(G3:G36)</f>
-        <v>67</v>
-      </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="36">
+        <f>SUM(F3:F38)</f>
+        <v>557</v>
+      </c>
+      <c r="G39" s="36">
+        <f>SUM(G3:G37)</f>
+        <v>99</v>
+      </c>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="63">
-        <f>SUM(J3:J37)</f>
+      <c r="J39" s="36">
+        <f>SUM(J3:J38)</f>
         <v>3</v>
       </c>
-      <c r="K38" s="63">
-        <f>SUM(K3:K37)</f>
+      <c r="K39" s="36">
+        <f>SUM(K3:K38)</f>
         <v>4</v>
       </c>
-      <c r="L38" s="63">
-        <f>SUM(L3:L37)</f>
+      <c r="L39" s="36">
+        <f>SUM(L3:L38)</f>
         <v>8</v>
       </c>
-      <c r="M38" s="63">
-        <f>SUM(M3:M37)</f>
+      <c r="M39" s="36">
+        <f>SUM(M3:M38)</f>
         <v>8</v>
       </c>
-      <c r="N38" s="63">
-        <f t="shared" ref="N38" si="4">SUM(N3:N37)</f>
+      <c r="N39" s="36">
+        <f t="shared" ref="N39" si="4">SUM(N3:N38)</f>
         <v>4</v>
       </c>
-      <c r="O38" s="63">
-        <f t="shared" ref="O38" si="5">SUM(O3:O37)</f>
+      <c r="O39" s="36">
+        <f t="shared" ref="O39" si="5">SUM(O3:O38)</f>
         <v>16</v>
       </c>
-      <c r="P38" s="63">
-        <f t="shared" ref="P38" si="6">SUM(P3:P37)</f>
+      <c r="P39" s="36">
+        <f t="shared" ref="P39" si="6">SUM(P3:P38)</f>
         <v>16</v>
       </c>
-      <c r="Q38" s="63">
-        <f t="shared" ref="Q38" si="7">SUM(Q3:Q37)</f>
+      <c r="Q39" s="36">
+        <f t="shared" ref="Q39" si="7">SUM(Q3:Q38)</f>
+        <v>16</v>
+      </c>
+      <c r="R39" s="36">
+        <f t="shared" ref="R39" si="8">SUM(R3:R38)</f>
+        <v>16</v>
+      </c>
+      <c r="S39" s="36">
+        <f t="shared" ref="S39" si="9">SUM(S3:S38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="63">
-        <f t="shared" ref="R38" si="8">SUM(R3:R37)</f>
+      <c r="T39" s="36">
+        <f t="shared" ref="T39" si="10">SUM(T3:T38)</f>
         <v>0</v>
       </c>
-      <c r="S38" s="63">
-        <f t="shared" ref="S38" si="9">SUM(S3:S37)</f>
+      <c r="U39" s="36">
+        <f t="shared" ref="U39" si="11">SUM(U3:U38)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="63">
-        <f t="shared" ref="T38" si="10">SUM(T3:T37)</f>
+      <c r="V39" s="36">
+        <f t="shared" ref="V39" si="12">SUM(V3:V38)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="63">
-        <f t="shared" ref="U38" si="11">SUM(U3:U37)</f>
+      <c r="W39" s="36">
+        <f t="shared" ref="W39" si="13">SUM(W3:W38)</f>
         <v>0</v>
       </c>
-      <c r="V38" s="63">
-        <f t="shared" ref="V38" si="12">SUM(V3:V37)</f>
+      <c r="X39" s="36">
+        <f t="shared" ref="X39" si="14">SUM(X3:X38)</f>
         <v>0</v>
       </c>
-      <c r="W38" s="63">
-        <f t="shared" ref="W38" si="13">SUM(W3:W37)</f>
+      <c r="Y39" s="36">
+        <f t="shared" ref="Y39" si="15">SUM(Y3:Y38)</f>
         <v>0</v>
       </c>
-      <c r="X38" s="63">
-        <f t="shared" ref="X38" si="14">SUM(X3:X37)</f>
+      <c r="Z39" s="36">
+        <f t="shared" ref="Z39" si="16">SUM(Z3:Z38)</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="63">
-        <f t="shared" ref="Y38" si="15">SUM(Y3:Y37)</f>
+      <c r="AA39" s="36">
+        <f t="shared" ref="AA39" si="17">SUM(AA3:AA38)</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="63">
-        <f t="shared" ref="Z38" si="16">SUM(Z3:Z37)</f>
+      <c r="AB39" s="36">
+        <f t="shared" ref="AB39" si="18">SUM(AB3:AB38)</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="63">
-        <f t="shared" ref="AA38" si="17">SUM(AA3:AA37)</f>
+      <c r="AC39" s="36">
+        <f t="shared" ref="AC39" si="19">SUM(AC3:AC38)</f>
         <v>0</v>
       </c>
-      <c r="AB38" s="63">
-        <f t="shared" ref="AB38" si="18">SUM(AB3:AB37)</f>
+      <c r="AD39" s="36">
+        <f t="shared" ref="AD39" si="20">SUM(AD3:AD38)</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="63">
-        <f t="shared" ref="AC38" si="19">SUM(AC3:AC37)</f>
+      <c r="AE39" s="36">
+        <f t="shared" ref="AE39" si="21">SUM(AE3:AE38)</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="63">
-        <f t="shared" ref="AD38" si="20">SUM(AD3:AD37)</f>
+      <c r="AF39" s="36">
+        <f t="shared" ref="AF39" si="22">SUM(AF3:AF38)</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="63">
-        <f t="shared" ref="AE38" si="21">SUM(AE3:AE37)</f>
+      <c r="AG39" s="36">
+        <f t="shared" ref="AG39" si="23">SUM(AG3:AG38)</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="63">
-        <f t="shared" ref="AF38" si="22">SUM(AF3:AF37)</f>
+      <c r="AH39" s="36">
+        <f t="shared" ref="AH39" si="24">SUM(AH3:AH38)</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="63">
-        <f t="shared" ref="AG38" si="23">SUM(AG3:AG37)</f>
+      <c r="AI39" s="36">
+        <f t="shared" ref="AI39" si="25">SUM(AI3:AI38)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="63">
-        <f t="shared" ref="AH38" si="24">SUM(AH3:AH37)</f>
+      <c r="AJ39" s="36">
+        <f t="shared" ref="AJ39" si="26">SUM(AJ3:AJ38)</f>
         <v>0</v>
       </c>
-      <c r="AI38" s="63">
-        <f t="shared" ref="AI38" si="25">SUM(AI3:AI37)</f>
+      <c r="AK39" s="36">
+        <f t="shared" ref="AK39" si="27">SUM(AK3:AK38)</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="63">
-        <f t="shared" ref="AJ38" si="26">SUM(AJ3:AJ37)</f>
+      <c r="AL39" s="36">
+        <f t="shared" ref="AL39" si="28">SUM(AL3:AL38)</f>
         <v>0</v>
       </c>
-      <c r="AK38" s="63">
-        <f t="shared" ref="AK38" si="27">SUM(AK3:AK37)</f>
+      <c r="AM39" s="36">
+        <f t="shared" ref="AM39" si="29">SUM(AM3:AM38)</f>
         <v>0</v>
       </c>
-      <c r="AL38" s="63">
-        <f t="shared" ref="AL38" si="28">SUM(AL3:AL37)</f>
+      <c r="AN39" s="36">
+        <f t="shared" ref="AN39" si="30">SUM(AN3:AN38)</f>
         <v>0</v>
       </c>
-      <c r="AM38" s="63">
-        <f t="shared" ref="AM38" si="29">SUM(AM3:AM37)</f>
+      <c r="AO39" s="36">
+        <f t="shared" ref="AO39:AT39" si="31">SUM(AO3:AO38)</f>
         <v>0</v>
       </c>
-      <c r="AN38" s="63">
-        <f t="shared" ref="AN38" si="30">SUM(AN3:AN37)</f>
-        <v>0</v>
-      </c>
-      <c r="AO38" s="63">
-        <f t="shared" ref="AO38:AT38" si="31">SUM(AO3:AO37)</f>
-        <v>0</v>
-      </c>
-      <c r="AP38" s="63">
+      <c r="AP39" s="36">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="63">
+      <c r="AQ39" s="36">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AR38" s="63">
+      <c r="AR39" s="36">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AS38" s="63">
+      <c r="AS39" s="36">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AT38" s="63">
+      <c r="AT39" s="36">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AT38">
+  <autoFilter ref="B2:AT39">
     <filterColumn colId="3">
       <filters>
         <filter val="P1"/>
@@ -6102,7 +4148,7 @@
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:AT38">
+      <autoFilter ref="B2:AT39">
         <filterColumn colId="3">
           <filters>
             <filter val="P1"/>
@@ -6111,26 +4157,17 @@
       </autoFilter>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="R9" sqref="R9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B2:AT38"/>
+      <autoFilter ref="B2:AT39"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="21">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B38:D38"/>
+  <mergeCells count="22">
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B5:B27"/>
@@ -6139,8 +4176,18 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I38">
+  <conditionalFormatting sqref="I3:I39">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -6148,13 +4195,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I38">
+  <conditionalFormatting sqref="I3:I39">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I39">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6165,10 +4212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6190,7 +4237,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6198,47 +4245,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="48"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="48"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="48"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="48"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="48"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="48"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="49"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="61" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6249,17 +4296,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="48"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="48"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -6270,7 +4317,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="54"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -6288,13 +4335,13 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="55"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6305,31 +4352,31 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="48"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="48"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="48"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="48"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="49"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:4">
@@ -6374,7 +4421,7 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="67" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6382,178 +4429,220 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="48"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="48"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="48"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="48"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="67"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="62"/>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="62"/>
+      <c r="C37" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="48"/>
-      <c r="C34" s="1" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" s="62"/>
+      <c r="C38" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="48"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="47" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="63"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="62"/>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="63"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="48"/>
-      <c r="C37" s="1" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="62"/>
+      <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="48"/>
-      <c r="C38" s="1" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="62"/>
+      <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="48"/>
-      <c r="C39" s="1" t="s">
+    <row r="46" spans="2:6">
+      <c r="B46" s="62"/>
+      <c r="C46" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="49"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="50" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="63"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D48" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F48" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="51"/>
-      <c r="C42" s="19" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="65"/>
+      <c r="C49" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="52"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="51"/>
-      <c r="C45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="52"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="51"/>
-      <c r="C48" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="51"/>
-      <c r="C49" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="51"/>
-      <c r="C50" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="52"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="65"/>
+      <c r="C52" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="66"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="65"/>
+      <c r="C55" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="65"/>
+      <c r="C56" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="65"/>
+      <c r="C57" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="66"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A10">
-      <selection activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A13">
+      <selection activeCell="B3" sqref="B3:B47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
@@ -6561,22 +4650,132 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B58"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B29:B34"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="39"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="39"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="39"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="39"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="39"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C38" sqref="C38"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C38" sqref="C38"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B3"/>
   <sheetViews>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -14,21 +14,22 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$P</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
-    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
-    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$39</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$39</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$40</definedName>
+    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
     <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -177,9 +178,6 @@
     <t>tbl_Title</t>
   </si>
   <si>
-    <t>TitleID</t>
-  </si>
-  <si>
     <t>TOCKCode</t>
   </si>
   <si>
@@ -429,13 +427,7 @@
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>ColorID</t>
-  </si>
-  <si>
     <t>ColorCode</t>
-  </si>
-  <si>
-    <t>tbl_Color</t>
   </si>
   <si>
     <t>Type</t>
@@ -470,6 +462,15 @@
   </si>
   <si>
     <t>tbl_WorkingHours</t>
+  </si>
+  <si>
+    <t>Update DB</t>
+  </si>
+  <si>
+    <t>3LD</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
   </si>
 </sst>
 </file>
@@ -520,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,15 +728,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -760,6 +761,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -796,20 +804,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,8 +908,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3282E612-26FD-4C45-8EBA-A08FCD910B8C}" diskRevisions="1" revisionId="23" version="11">
-  <header guid="{8CCB0A45-92E1-43C3-AD5A-40E9BC7997AC}" dateTime="2016-01-18T16:26:54" maxSheetId="6" userName="thai.pham" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" diskRevisions="1" revisionId="70" version="23">
+  <header guid="{16049E48-C534-4B51-A298-89753A2E38E1}" dateTime="2016-01-19T17:44:40" maxSheetId="6" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -910,7 +918,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{7A6BB5F6-BCB4-4EFD-A6EF-226F4FC16791}" dateTime="2016-01-18T16:28:13" maxSheetId="6" userName="thai.pham" r:id="rId2">
+  <header guid="{40097DFB-02C4-41FC-9FDE-7F4465D8A5B0}" dateTime="2016-01-19T17:44:43" maxSheetId="6" userName="thai.pham" r:id="rId2">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -919,7 +927,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{9EF7169A-EC1D-46C4-BECE-FB7E40D4BE2F}" dateTime="2016-01-18T17:35:19" maxSheetId="6" userName="thai.pham" r:id="rId3">
+  <header guid="{9A50EBAA-F9B2-41F0-BEAB-3C56705F2BA8}" dateTime="2016-01-19T17:44:46" maxSheetId="6" userName="thai.pham" r:id="rId3">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -928,7 +936,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A9967D44-088B-4FD0-A0E5-0D113CDE5E82}" dateTime="2016-01-18T17:35:27" maxSheetId="6" userName="thai.pham" r:id="rId4">
+  <header guid="{E3656A5D-D161-4C17-AE15-84AC9561A02B}" dateTime="2016-01-19T17:46:34" maxSheetId="6" userName="tan.thanh.vo" r:id="rId4" minRId="5" maxRId="14">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -937,7 +945,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{12FD6680-0CDA-49C0-A5FE-AF85444CAD02}" dateTime="2016-01-18T17:35:54" maxSheetId="6" userName="thai.pham" r:id="rId5">
+  <header guid="{27734030-3301-4C1A-8C43-4A728A26D003}" dateTime="2016-01-19T17:46:39" maxSheetId="6" userName="tan.thanh.vo" r:id="rId5" minRId="17" maxRId="18">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -946,7 +954,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{D1256597-1273-46AB-8D7F-8DE944C5438B}" dateTime="2016-01-18T17:36:05" maxSheetId="6" userName="thai.pham" r:id="rId6" minRId="9" maxRId="10">
+  <header guid="{5EC49847-ECB1-4B73-A38A-32F75A189C66}" dateTime="2016-01-19T17:48:12" maxSheetId="6" userName="thai.pham" r:id="rId6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -955,7 +963,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{B4D123ED-3036-4543-AB20-FC5E8A6E87A0}" dateTime="2016-01-18T17:36:05" maxSheetId="6" userName="tan.thanh.vo" r:id="rId7" minRId="13">
+  <header guid="{032E71AB-6457-48BA-AABA-CEBA72EEA807}" dateTime="2016-01-19T17:48:51" maxSheetId="6" userName="thai.pham" r:id="rId7" minRId="23">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -964,7 +972,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{E39A1798-4525-4DEC-A50E-CC553B1EF64A}" dateTime="2016-01-18T17:36:18" maxSheetId="6" userName="thai.pham" r:id="rId8">
+  <header guid="{D1744B7D-1963-4AA5-969F-F9F2683D58CF}" dateTime="2016-01-19T17:49:02" maxSheetId="6" userName="thai.pham" r:id="rId8">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -973,7 +981,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{D6990EE5-7E49-492E-A55B-975086B3861C}" dateTime="2016-01-18T17:36:40" maxSheetId="6" userName="thai.pham" r:id="rId9">
+  <header guid="{D336A924-7E8B-410C-A0B7-6C1016121D93}" dateTime="2016-01-19T17:58:28" maxSheetId="6" userName="tan.thanh.vo" r:id="rId9" minRId="28" maxRId="31">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -982,7 +990,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{70325593-5B19-4EF7-9875-41004F4313BC}" dateTime="2016-01-18T17:37:06" maxSheetId="6" userName="thai.pham" r:id="rId10">
+  <header guid="{51EB696C-295E-4BD0-B24F-BFBB4664B709}" dateTime="2016-01-19T18:17:20" maxSheetId="6" userName="thai.pham" r:id="rId10">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -991,7 +999,115 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{3282E612-26FD-4C45-8EBA-A08FCD910B8C}" dateTime="2016-01-18T17:46:28" maxSheetId="6" userName="thai.pham" r:id="rId11">
+  <header guid="{9EA70678-28E8-466C-9D4D-668A6F75764E}" dateTime="2016-01-20T10:42:56" maxSheetId="6" userName="thai.pham" r:id="rId11">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0E2C444F-035D-4733-9E89-498573329683}" dateTime="2016-01-20T10:48:34" maxSheetId="6" userName="thai.pham" r:id="rId12" minRId="38">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4604D663-40A4-4FF2-B979-F6D782B6ADA2}" dateTime="2016-01-20T10:49:57" maxSheetId="6" userName="thai.pham" r:id="rId13">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{819BB48F-84A7-4462-9E58-4977763C38B8}" dateTime="2016-01-20T10:50:22" maxSheetId="6" userName="thai.pham" r:id="rId14">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E4E22D9D-DBCA-4FAB-AFA1-48956617723A}" dateTime="2016-01-20T10:52:44" maxSheetId="6" userName="thai.pham" r:id="rId15">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{97120DEB-3DCC-45BC-B8AB-1AF57D390397}" dateTime="2016-01-20T10:52:52" maxSheetId="6" userName="thai.pham" r:id="rId16" minRId="47" maxRId="49">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7508C1B-3FB6-4565-AEE4-65E23CF32E2B}" dateTime="2016-01-20T10:52:54" maxSheetId="6" userName="thai.pham" r:id="rId17">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5DE69647-3EC4-4FD9-8730-4829819DEDAB}" dateTime="2016-01-20T10:54:31" maxSheetId="6" userName="thai.pham" r:id="rId18" minRId="54" maxRId="55">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A5B82ED2-961E-456E-A9AE-87977801F760}" dateTime="2016-01-20T10:54:37" maxSheetId="6" userName="thai.pham" r:id="rId19" minRId="58">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1EDE330B-3186-44F3-8765-8093AFCC465A}" dateTime="2016-01-20T10:54:59" maxSheetId="6" userName="thai.pham" r:id="rId20">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EEFC087B-9CD1-43DD-B972-60F1987720AE}" dateTime="2016-01-20T10:56:48" maxSheetId="6" userName="thai.pham" r:id="rId21">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{178BF978-FE72-4AE6-B2B5-95AB3EBDD754}" dateTime="2016-01-20T17:51:16" maxSheetId="6" userName="tan.thanh.vo" r:id="rId22">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" dateTime="2016-01-20T17:51:29" maxSheetId="6" userName="tan.thanh.vo" r:id="rId23" minRId="67" maxRId="68">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1005,16 +1121,26 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
+  <rcc rId="67" sId="2" numFmtId="19">
+    <nc r="T2">
+      <v>42389</v>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="2">
+    <nc r="T8">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
@@ -1026,8 +1152,8 @@
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1069,34 +1195,31 @@
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="13" sId="2">
-    <nc r="R8">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="9" sId="2" numFmtId="19">
-    <nc r="R2">
-      <v>42387</v>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="2">
-    <nc r="R6">
-      <v>8</v>
+  <rcc rId="23" sId="2">
+    <oc r="E37" t="inlineStr">
+      <is>
+        <t>P2</t>
+      </is>
+    </oc>
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>P1</t>
+      </is>
     </nc>
   </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
@@ -1105,8 +1228,8 @@
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1120,8 +1243,8 @@
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1129,20 +1252,166 @@
 
 <file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="17" sId="2">
+    <oc r="I37" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I37" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="2">
+    <oc r="F37">
+      <v>5</v>
+    </oc>
+    <nc r="F37">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="5" sId="2" numFmtId="19">
+    <nc r="S2">
+      <v>42388</v>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="2">
+    <nc r="S8">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rrc rId="7" sId="2" ref="A37:XFD37" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$P$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$N$1048576" dn="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" sId="2"/>
+  </rrc>
+  <rcc rId="8" sId="2">
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t>Update DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="2">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>P2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="2">
+    <nc r="F37">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <oc r="G3">
+      <f>SUM(J3:BP3)+8</f>
+    </oc>
+    <nc r="G3">
+      <f>SUM(J3:BP3)+8</f>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="2">
+    <nc r="S37">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="2">
+    <nc r="G37">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="2">
+    <nc r="I37" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="54" sId="3">
+    <oc r="D17" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </oc>
+    <nc r="D17"/>
+  </rcc>
+  <rcc rId="55" sId="3">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </oc>
+    <nc r="D23"/>
+  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$P</formula>
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="38" sId="3">
+    <nc r="D38" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -1150,14 +1419,14 @@
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -1165,15 +1434,337 @@
     <oldFormula>Estimation!$J:$P</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="28" sId="3">
+    <oc r="C21" t="inlineStr">
+      <is>
+        <t>ColorID</t>
+      </is>
+    </oc>
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>ColorCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="3">
+    <oc r="C27" t="inlineStr">
+      <is>
+        <t>ColorID</t>
+      </is>
+    </oc>
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>ColorCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="30" sId="3" ref="A23:XFD23" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A23:XFD23" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="B23" t="inlineStr">
+        <is>
+          <t>tbl_Color</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>ColorID</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="31" sId="3" ref="A23:XFD23" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A23:XFD23" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B23" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C23" t="inlineStr">
+        <is>
+          <t>ColorCode</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="47" sId="3">
+    <oc r="C17" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </oc>
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>3LD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="3">
+    <oc r="C30" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </oc>
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>3LD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="3">
+    <oc r="C34" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </oc>
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>3LD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="C17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="58" sId="3">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>nvarchar(50)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <userInfo guid="{D1744B7D-1963-4AA5-969F-F9F2683D58CF}" name="thai.pham" id="-598511050" dateTime="2016-01-19T17:44:40"/>
+  <userInfo guid="{EEFC087B-9CD1-43DD-B972-60F1987720AE}" name="thai.pham" id="-598521730" dateTime="2016-01-20T10:42:31"/>
+  <userInfo guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" name="tan.thanh.vo" id="-1397634809" dateTime="2016-01-20T10:50:48"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,13 +2085,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -1509,28 +2100,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="52"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="52"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="52"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1538,56 +2129,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="52"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="52"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="52"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="52"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1596,35 +2187,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="52"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="52"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="52"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="52"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1632,8 +2223,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="52"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -1641,15 +2232,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="52"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="52"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1659,8 +2250,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="52"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1668,7 +2259,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1677,10 +2268,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1690,8 +2281,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +2290,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +2299,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -1716,12 +2307,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1746,10 +2337,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:AT39"/>
+  <dimension ref="B2:AT40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1763,103 +2355,107 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:46" ht="55.5" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="G2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="33">
+        <v>42291</v>
+      </c>
+      <c r="K2" s="33">
+        <v>42292</v>
+      </c>
+      <c r="L2" s="33">
+        <v>42377</v>
+      </c>
+      <c r="M2" s="33">
+        <v>42380</v>
+      </c>
+      <c r="N2" s="33">
+        <v>42381</v>
+      </c>
+      <c r="O2" s="33">
+        <v>42382</v>
+      </c>
+      <c r="P2" s="33">
+        <v>42383</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>42384</v>
+      </c>
+      <c r="R2" s="33">
+        <v>42387</v>
+      </c>
+      <c r="S2" s="33">
+        <v>42388</v>
+      </c>
+      <c r="T2" s="33">
+        <v>42389</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+    </row>
+    <row r="3" spans="2:46">
+      <c r="B3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="35">
-        <v>42291</v>
-      </c>
-      <c r="K2" s="35">
-        <v>42292</v>
-      </c>
-      <c r="L2" s="35">
-        <v>42377</v>
-      </c>
-      <c r="M2" s="35">
-        <v>42380</v>
-      </c>
-      <c r="N2" s="35">
-        <v>42381</v>
-      </c>
-      <c r="O2" s="35">
-        <v>42382</v>
-      </c>
-      <c r="P2" s="35">
-        <v>42383</v>
-      </c>
-      <c r="Q2" s="35">
-        <v>42384</v>
-      </c>
-      <c r="R2" s="35">
-        <v>42387</v>
-      </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-    </row>
-    <row r="3" spans="2:46">
-      <c r="B3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="25">
         <v>24</v>
@@ -1869,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -1917,13 +2513,13 @@
       <c r="AT3" s="26"/>
     </row>
     <row r="4" spans="2:46">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="57"/>
       <c r="E4" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="25">
         <v>16</v>
@@ -1933,10 +2529,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="26">
         <v>2</v>
@@ -1985,17 +2581,17 @@
       <c r="AT4" s="26"/>
     </row>
     <row r="5" spans="2:46">
-      <c r="B5" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="21">
         <v>16</v>
@@ -2006,7 +2602,7 @@
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -2047,26 +2643,26 @@
       <c r="AT5" s="21"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="21">
         <v>24</v>
       </c>
       <c r="G6" s="21">
         <f>SUM(J6:BP6)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -2085,7 +2681,9 @@
       <c r="R6" s="21">
         <v>8</v>
       </c>
-      <c r="S6" s="21"/>
+      <c r="S6" s="21">
+        <v>8</v>
+      </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
@@ -2114,14 +2712,14 @@
       <c r="AS6" s="21"/>
       <c r="AT6" s="21"/>
     </row>
-    <row r="7" spans="2:46" hidden="1">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
+    <row r="7" spans="2:46">
+      <c r="B7" s="59"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="21">
         <v>24</v>
@@ -2129,7 +2727,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -2170,28 +2768,28 @@
       <c r="AT7" s="21"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="21">
         <v>16</v>
       </c>
       <c r="G8" s="21">
         <f>SUM(J8:BP8)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -2210,8 +2808,12 @@
       <c r="R8" s="21">
         <v>8</v>
       </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="S8" s="21">
+        <v>7</v>
+      </c>
+      <c r="T8" s="21">
+        <v>8</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
@@ -2240,13 +2842,13 @@
       <c r="AT8" s="21"/>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="21">
         <v>16</v>
@@ -2256,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -2299,14 +2901,14 @@
       <c r="AS9" s="21"/>
       <c r="AT9" s="21"/>
     </row>
-    <row r="10" spans="2:46" hidden="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
+    <row r="10" spans="2:46">
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="21">
         <v>24</v>
@@ -2314,7 +2916,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -2354,16 +2956,16 @@
       <c r="AS10" s="21"/>
       <c r="AT10" s="21"/>
     </row>
-    <row r="11" spans="2:46" hidden="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="2:46">
+      <c r="B11" s="59"/>
+      <c r="C11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="21">
         <v>24</v>
@@ -2371,7 +2973,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -2411,14 +3013,14 @@
       <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
     </row>
-    <row r="12" spans="2:46" hidden="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="57"/>
+    <row r="12" spans="2:46">
+      <c r="B12" s="59"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="21">
         <v>16</v>
@@ -2426,7 +3028,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -2466,14 +3068,14 @@
       <c r="AS12" s="24"/>
       <c r="AT12" s="24"/>
     </row>
-    <row r="13" spans="2:46" hidden="1">
-      <c r="B13" s="58"/>
-      <c r="C13" s="57"/>
+    <row r="13" spans="2:46">
+      <c r="B13" s="59"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="21">
         <v>8</v>
@@ -2481,7 +3083,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -2521,14 +3123,14 @@
       <c r="AS13" s="24"/>
       <c r="AT13" s="24"/>
     </row>
-    <row r="14" spans="2:46" hidden="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="57"/>
+    <row r="14" spans="2:46">
+      <c r="B14" s="59"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="21">
         <v>8</v>
@@ -2536,7 +3138,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -2577,15 +3179,15 @@
       <c r="AT14" s="24"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="58"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="21">
         <v>24</v>
@@ -2596,7 +3198,7 @@
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -2637,13 +3239,13 @@
       <c r="AT15" s="24"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="21">
         <v>24</v>
@@ -2654,7 +3256,7 @@
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -2695,13 +3297,13 @@
       <c r="AT16" s="24"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="21">
         <v>24</v>
@@ -2712,7 +3314,7 @@
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -2753,13 +3355,13 @@
       <c r="AT17" s="24"/>
     </row>
     <row r="18" spans="2:46">
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="21">
         <v>24</v>
@@ -2770,7 +3372,7 @@
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -2811,13 +3413,13 @@
       <c r="AT18" s="24"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="B19" s="58"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="21">
         <v>24</v>
@@ -2828,7 +3430,7 @@
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2868,16 +3470,16 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46" hidden="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="57" t="s">
+    <row r="20" spans="2:46">
+      <c r="B20" s="59"/>
+      <c r="C20" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="21">
         <v>16</v>
@@ -2885,7 +3487,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -2925,14 +3527,14 @@
       <c r="AS20" s="24"/>
       <c r="AT20" s="24"/>
     </row>
-    <row r="21" spans="2:46" hidden="1">
-      <c r="B21" s="58"/>
-      <c r="C21" s="57"/>
+    <row r="21" spans="2:46">
+      <c r="B21" s="59"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="21">
         <v>16</v>
@@ -2940,7 +3542,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -2980,16 +3582,16 @@
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
     </row>
-    <row r="22" spans="2:46" hidden="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="57" t="s">
-        <v>97</v>
+    <row r="22" spans="2:46">
+      <c r="B22" s="59"/>
+      <c r="C22" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="21">
         <v>8</v>
@@ -2997,7 +3599,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -3037,14 +3639,14 @@
       <c r="AS22" s="24"/>
       <c r="AT22" s="24"/>
     </row>
-    <row r="23" spans="2:46" hidden="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="57"/>
+    <row r="23" spans="2:46">
+      <c r="B23" s="59"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="21">
         <v>16</v>
@@ -3052,7 +3654,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -3092,16 +3694,16 @@
       <c r="AS23" s="24"/>
       <c r="AT23" s="24"/>
     </row>
-    <row r="24" spans="2:46" hidden="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="57" t="s">
+    <row r="24" spans="2:46">
+      <c r="B24" s="59"/>
+      <c r="C24" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="E24" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="21">
         <v>24</v>
@@ -3109,7 +3711,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -3149,14 +3751,14 @@
       <c r="AS24" s="24"/>
       <c r="AT24" s="24"/>
     </row>
-    <row r="25" spans="2:46" hidden="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="57"/>
+    <row r="25" spans="2:46">
+      <c r="B25" s="59"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="21">
         <v>24</v>
@@ -3164,7 +3766,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -3204,16 +3806,16 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46" hidden="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="57" t="s">
+    <row r="26" spans="2:46">
+      <c r="B26" s="59"/>
+      <c r="C26" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="E26" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="21">
         <v>8</v>
@@ -3221,7 +3823,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -3261,14 +3863,14 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46" hidden="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="57"/>
+    <row r="27" spans="2:46">
+      <c r="B27" s="59"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="21">
         <v>16</v>
@@ -3276,7 +3878,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -3316,18 +3918,18 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46" hidden="1">
-      <c r="B28" s="53" t="s">
+    <row r="28" spans="2:46">
+      <c r="B28" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="E28" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="21">
         <v>8</v>
@@ -3335,7 +3937,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -3375,16 +3977,16 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46" hidden="1">
-      <c r="B29" s="53"/>
-      <c r="C29" s="55" t="s">
-        <v>73</v>
+    <row r="29" spans="2:46">
+      <c r="B29" s="58"/>
+      <c r="C29" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="21">
         <v>8</v>
@@ -3392,7 +3994,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -3432,14 +4034,14 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46" hidden="1">
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
+    <row r="30" spans="2:46">
+      <c r="B30" s="58"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="21">
         <v>8</v>
@@ -3447,7 +4049,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -3487,16 +4089,16 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46" hidden="1">
-      <c r="B31" s="53"/>
-      <c r="C31" s="32" t="s">
-        <v>97</v>
+    <row r="31" spans="2:46">
+      <c r="B31" s="58"/>
+      <c r="C31" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="21">
         <v>8</v>
@@ -3504,7 +4106,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -3544,16 +4146,16 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46" hidden="1">
-      <c r="B32" s="53"/>
-      <c r="C32" s="32" t="s">
+    <row r="32" spans="2:46">
+      <c r="B32" s="58"/>
+      <c r="C32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21">
         <v>8</v>
@@ -3561,7 +4163,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -3602,15 +4204,15 @@
       <c r="AT32" s="24"/>
     </row>
     <row r="33" spans="2:46">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="25">
         <v>4</v>
@@ -3620,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -3664,26 +4266,26 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="2:46">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="54"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="57"/>
       <c r="E34" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="25">
         <v>16</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" ref="G34:G38" si="3">SUM(J34:BP34)</f>
+        <f t="shared" ref="G34:G39" si="3">SUM(J34:BP34)</f>
         <v>4</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="26">
         <v>1</v>
@@ -3730,13 +4332,13 @@
       <c r="AT34" s="26"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="54"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="57"/>
       <c r="E35" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="25">
         <v>4</v>
@@ -3746,10 +4348,10 @@
         <v>4</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
@@ -3792,13 +4394,13 @@
       <c r="AT35" s="26"/>
     </row>
     <row r="36" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B36" s="53"/>
-      <c r="C36" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="60"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="61"/>
       <c r="E36" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="25">
         <v>5</v>
@@ -3807,10 +4409,10 @@
         <v>5</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
@@ -3852,25 +4454,24 @@
       <c r="AS36" s="26"/>
       <c r="AT36" s="26"/>
     </row>
-    <row r="37" spans="2:46">
-      <c r="B37" s="53"/>
-      <c r="C37" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="54"/>
+    <row r="37" spans="2:46" ht="37.5" customHeight="1">
+      <c r="B37" s="58"/>
+      <c r="C37" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="40"/>
       <c r="E37" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="25">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -3881,7 +4482,9 @@
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
+      <c r="S37" s="26">
+        <v>1</v>
+      </c>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
@@ -3911,16 +4514,16 @@
       <c r="AT37" s="26"/>
     </row>
     <row r="38" spans="2:46">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="54"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="57"/>
       <c r="E38" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38" s="21">
         <f t="shared" si="3"/>
@@ -3928,7 +4531,7 @@
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -3968,187 +4571,246 @@
       <c r="AS38" s="26"/>
       <c r="AT38" s="26"/>
     </row>
-    <row r="39" spans="2:46" hidden="1">
-      <c r="B39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="36">
-        <f>SUM(F3:F38)</f>
-        <v>557</v>
-      </c>
-      <c r="G39" s="36">
-        <f>SUM(G3:G37)</f>
-        <v>99</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" s="36">
-        <f>SUM(J3:J38)</f>
+    <row r="39" spans="2:46">
+      <c r="B39" s="58"/>
+      <c r="C39" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="25">
+        <v>8</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+    </row>
+    <row r="40" spans="2:46">
+      <c r="B40" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="34">
+        <f>SUM(F3:F39)</f>
+        <v>559</v>
+      </c>
+      <c r="G40" s="34">
+        <f>SUM(G3:G38)</f>
+        <v>123</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="34">
+        <f>SUM(J3:J39)</f>
         <v>3</v>
       </c>
-      <c r="K39" s="36">
-        <f>SUM(K3:K38)</f>
+      <c r="K40" s="34">
+        <f>SUM(K3:K39)</f>
         <v>4</v>
       </c>
-      <c r="L39" s="36">
-        <f>SUM(L3:L38)</f>
+      <c r="L40" s="34">
+        <f>SUM(L3:L39)</f>
         <v>8</v>
       </c>
-      <c r="M39" s="36">
-        <f>SUM(M3:M38)</f>
+      <c r="M40" s="34">
+        <f>SUM(M3:M39)</f>
         <v>8</v>
       </c>
-      <c r="N39" s="36">
-        <f t="shared" ref="N39" si="4">SUM(N3:N38)</f>
+      <c r="N40" s="34">
+        <f t="shared" ref="N40" si="4">SUM(N3:N39)</f>
         <v>4</v>
       </c>
-      <c r="O39" s="36">
-        <f t="shared" ref="O39" si="5">SUM(O3:O38)</f>
+      <c r="O40" s="34">
+        <f t="shared" ref="O40" si="5">SUM(O3:O39)</f>
         <v>16</v>
       </c>
-      <c r="P39" s="36">
-        <f t="shared" ref="P39" si="6">SUM(P3:P38)</f>
+      <c r="P40" s="34">
+        <f t="shared" ref="P40" si="6">SUM(P3:P39)</f>
         <v>16</v>
       </c>
-      <c r="Q39" s="36">
-        <f t="shared" ref="Q39" si="7">SUM(Q3:Q38)</f>
+      <c r="Q40" s="34">
+        <f t="shared" ref="Q40" si="7">SUM(Q3:Q39)</f>
         <v>16</v>
       </c>
-      <c r="R39" s="36">
-        <f t="shared" ref="R39" si="8">SUM(R3:R38)</f>
+      <c r="R40" s="34">
+        <f t="shared" ref="R40" si="8">SUM(R3:R39)</f>
         <v>16</v>
       </c>
-      <c r="S39" s="36">
-        <f t="shared" ref="S39" si="9">SUM(S3:S38)</f>
+      <c r="S40" s="34">
+        <f t="shared" ref="S40" si="9">SUM(S3:S39)</f>
+        <v>16</v>
+      </c>
+      <c r="T40" s="34">
+        <f t="shared" ref="T40" si="10">SUM(T3:T39)</f>
+        <v>8</v>
+      </c>
+      <c r="U40" s="34">
+        <f t="shared" ref="U40" si="11">SUM(U3:U39)</f>
         <v>0</v>
       </c>
-      <c r="T39" s="36">
-        <f t="shared" ref="T39" si="10">SUM(T3:T38)</f>
+      <c r="V40" s="34">
+        <f t="shared" ref="V40" si="12">SUM(V3:V39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="36">
-        <f t="shared" ref="U39" si="11">SUM(U3:U38)</f>
+      <c r="W40" s="34">
+        <f t="shared" ref="W40" si="13">SUM(W3:W39)</f>
         <v>0</v>
       </c>
-      <c r="V39" s="36">
-        <f t="shared" ref="V39" si="12">SUM(V3:V38)</f>
+      <c r="X40" s="34">
+        <f t="shared" ref="X40" si="14">SUM(X3:X39)</f>
         <v>0</v>
       </c>
-      <c r="W39" s="36">
-        <f t="shared" ref="W39" si="13">SUM(W3:W38)</f>
+      <c r="Y40" s="34">
+        <f t="shared" ref="Y40" si="15">SUM(Y3:Y39)</f>
         <v>0</v>
       </c>
-      <c r="X39" s="36">
-        <f t="shared" ref="X39" si="14">SUM(X3:X38)</f>
+      <c r="Z40" s="34">
+        <f t="shared" ref="Z40" si="16">SUM(Z3:Z39)</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="36">
-        <f t="shared" ref="Y39" si="15">SUM(Y3:Y38)</f>
+      <c r="AA40" s="34">
+        <f t="shared" ref="AA40" si="17">SUM(AA3:AA39)</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="36">
-        <f t="shared" ref="Z39" si="16">SUM(Z3:Z38)</f>
+      <c r="AB40" s="34">
+        <f t="shared" ref="AB40" si="18">SUM(AB3:AB39)</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="36">
-        <f t="shared" ref="AA39" si="17">SUM(AA3:AA38)</f>
+      <c r="AC40" s="34">
+        <f t="shared" ref="AC40" si="19">SUM(AC3:AC39)</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="36">
-        <f t="shared" ref="AB39" si="18">SUM(AB3:AB38)</f>
+      <c r="AD40" s="34">
+        <f t="shared" ref="AD40" si="20">SUM(AD3:AD39)</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="36">
-        <f t="shared" ref="AC39" si="19">SUM(AC3:AC38)</f>
+      <c r="AE40" s="34">
+        <f t="shared" ref="AE40" si="21">SUM(AE3:AE39)</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="36">
-        <f t="shared" ref="AD39" si="20">SUM(AD3:AD38)</f>
+      <c r="AF40" s="34">
+        <f t="shared" ref="AF40" si="22">SUM(AF3:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="36">
-        <f t="shared" ref="AE39" si="21">SUM(AE3:AE38)</f>
+      <c r="AG40" s="34">
+        <f t="shared" ref="AG40" si="23">SUM(AG3:AG39)</f>
         <v>0</v>
       </c>
-      <c r="AF39" s="36">
-        <f t="shared" ref="AF39" si="22">SUM(AF3:AF38)</f>
+      <c r="AH40" s="34">
+        <f t="shared" ref="AH40" si="24">SUM(AH3:AH39)</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="36">
-        <f t="shared" ref="AG39" si="23">SUM(AG3:AG38)</f>
+      <c r="AI40" s="34">
+        <f t="shared" ref="AI40" si="25">SUM(AI3:AI39)</f>
         <v>0</v>
       </c>
-      <c r="AH39" s="36">
-        <f t="shared" ref="AH39" si="24">SUM(AH3:AH38)</f>
+      <c r="AJ40" s="34">
+        <f t="shared" ref="AJ40" si="26">SUM(AJ3:AJ39)</f>
         <v>0</v>
       </c>
-      <c r="AI39" s="36">
-        <f t="shared" ref="AI39" si="25">SUM(AI3:AI38)</f>
+      <c r="AK40" s="34">
+        <f t="shared" ref="AK40" si="27">SUM(AK3:AK39)</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="36">
-        <f t="shared" ref="AJ39" si="26">SUM(AJ3:AJ38)</f>
+      <c r="AL40" s="34">
+        <f t="shared" ref="AL40" si="28">SUM(AL3:AL39)</f>
         <v>0</v>
       </c>
-      <c r="AK39" s="36">
-        <f t="shared" ref="AK39" si="27">SUM(AK3:AK38)</f>
+      <c r="AM40" s="34">
+        <f t="shared" ref="AM40" si="29">SUM(AM3:AM39)</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="36">
-        <f t="shared" ref="AL39" si="28">SUM(AL3:AL38)</f>
+      <c r="AN40" s="34">
+        <f t="shared" ref="AN40" si="30">SUM(AN3:AN39)</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="36">
-        <f t="shared" ref="AM39" si="29">SUM(AM3:AM38)</f>
+      <c r="AO40" s="34">
+        <f t="shared" ref="AO40:AT40" si="31">SUM(AO3:AO39)</f>
         <v>0</v>
       </c>
-      <c r="AN39" s="36">
-        <f t="shared" ref="AN39" si="30">SUM(AN3:AN38)</f>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="36">
-        <f t="shared" ref="AO39:AT39" si="31">SUM(AO3:AO38)</f>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="36">
+      <c r="AP40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AQ39" s="36">
+      <c r="AQ40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AR39" s="36">
+      <c r="AR40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AS39" s="36">
+      <c r="AS40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AT39" s="36">
+      <c r="AT40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AT39">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:AT40"/>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="T9" sqref="T9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:AT39">
+      <autoFilter ref="B2:AT40"/>
+    </customSheetView>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="S37" sqref="S37"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B2:AT40">
         <filterColumn colId="3">
           <filters>
             <filter val="P1"/>
@@ -4156,18 +4818,21 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="R9" sqref="R9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B2:AT39"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B5:B27"/>
@@ -4177,17 +4842,8 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I39">
+  <conditionalFormatting sqref="I3:I40">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -4195,13 +4851,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I39">
+  <conditionalFormatting sqref="I3:I40">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I40">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4212,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G58"/>
+  <dimension ref="B2:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B47"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4237,7 +4893,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4245,79 +4901,79 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="63"/>
+      <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="62"/>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="63"/>
+      <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="62"/>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -4325,236 +4981,240 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="70"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="63"/>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="63"/>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="63"/>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="63"/>
+      <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="62"/>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="62"/>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="62"/>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="62"/>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="29" t="s">
-        <v>127</v>
-      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="29"/>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="29"/>
+      <c r="B27" s="68" t="s">
+        <v>112</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="29"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="67" t="s">
-        <v>113</v>
-      </c>
+      <c r="B29" s="68"/>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="67"/>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
+      <c r="B30" s="68"/>
+      <c r="C30" s="41" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="67"/>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="67"/>
+      <c r="B33" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="67"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="41" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="61" t="s">
-        <v>143</v>
-      </c>
+      <c r="B35" s="63"/>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="62"/>
-      <c r="C37" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="62"/>
+      <c r="B38" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="63"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="62"/>
+      <c r="B41" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="63"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63"/>
+      <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="63"/>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="64"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="65" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="62"/>
-      <c r="C44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="62"/>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="62"/>
-      <c r="C46" s="1" t="s">
-        <v>112</v>
+      <c r="C46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="63"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="65"/>
+      <c r="B49" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="C49" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -4562,26 +5222,26 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="66"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="65"/>
+      <c r="B52" s="65" t="s">
+        <v>60</v>
+      </c>
       <c r="C52" s="19" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -4589,79 +5249,61 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="66"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="64" t="s">
-        <v>61</v>
-      </c>
+      <c r="B54" s="66"/>
       <c r="C54" s="19" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="65"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="65"/>
-      <c r="C56" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="B56" s="67"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="65"/>
-      <c r="C57" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="66"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A13">
-      <selection activeCell="B3" sqref="B3:B47"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A5">
+      <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B56"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4672,100 +5314,100 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="38" customWidth="1"/>
     <col min="3" max="3" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="39" t="s">
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="39"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C20" sqref="C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -4787,21 +5429,21 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -18,18 +18,19 @@
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$P</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$S</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$40</definedName>
     <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
     <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
     <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -767,7 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -804,21 +804,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,6 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +909,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" diskRevisions="1" revisionId="70" version="23">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{6A08E727-F695-42C3-9CC9-9E5F81C448DE}" diskRevisions="1" revisionId="81" version="28">
   <header guid="{16049E48-C534-4B51-A298-89753A2E38E1}" dateTime="2016-01-19T17:44:40" maxSheetId="6" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -1116,31 +1117,66 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{D9EE5FFF-0556-4AE1-B63D-B0FAD0D3A879}" dateTime="2016-01-20T17:51:45" maxSheetId="6" userName="tan.thanh.vo" r:id="rId24">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17ED11CD-6BDA-4D3C-BC6C-4A65924C3C80}" dateTime="2016-01-20T17:52:15" maxSheetId="6" userName="thai.pham" r:id="rId25">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{66A3F605-2E00-4B24-94BF-E6AA1E9C6476}" dateTime="2016-01-20T17:59:26" maxSheetId="6" userName="thai.pham" r:id="rId26">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{214C6DB4-78B6-4DAC-B137-4C360FE62A7D}" dateTime="2016-01-20T17:59:38" maxSheetId="6" userName="thai.pham" r:id="rId27" minRId="77">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A08E727-F695-42C3-9CC9-9E5F81C448DE}" dateTime="2016-01-20T18:00:01" maxSheetId="6" userName="thai.pham" r:id="rId28">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="67" sId="2" numFmtId="19">
-    <nc r="T2">
-      <v>42389</v>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2">
-    <nc r="T8">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$S</formula>
+    <oldFormula>Estimation!$J:$S</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$2:$AT$40</formula>
     <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -1601,6 +1637,21 @@
 
 <file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="47" sId="3">
     <oc r="C17" t="inlineStr">
       <is>
@@ -1650,7 +1701,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -1665,7 +1716,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1411111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rfmt sheetId="3" sqref="C17">
     <dxf>
@@ -1724,6 +1775,21 @@
 
 <file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$P</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="58" sId="3">
     <nc r="D17" t="inlineStr">
       <is>
@@ -1759,11 +1825,69 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="67" sId="2" numFmtId="19">
+    <nc r="T2">
+      <v>42389</v>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="2">
+    <nc r="T8">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="77" sId="2">
+    <nc r="T6">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$S</formula>
+    <oldFormula>Estimation!$J:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$2:$AT$40</formula>
+    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <userInfo guid="{D1744B7D-1963-4AA5-969F-F9F2683D58CF}" name="thai.pham" id="-598511050" dateTime="2016-01-19T17:44:40"/>
-  <userInfo guid="{EEFC087B-9CD1-43DD-B972-60F1987720AE}" name="thai.pham" id="-598521730" dateTime="2016-01-20T10:42:31"/>
-  <userInfo guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" name="tan.thanh.vo" id="-1397634809" dateTime="2016-01-20T10:50:48"/>
 </users>
 </file>
 
@@ -2085,13 +2209,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -2100,28 +2224,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="53"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="42" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2129,56 +2253,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="53"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="53"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="53"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="53"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2187,35 +2311,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="53"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="53"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="53"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="53"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -2223,8 +2347,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="53"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -2232,15 +2356,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="53"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="53"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2250,8 +2374,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="53"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -2259,7 +2383,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="53"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -2268,10 +2392,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2281,8 +2405,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2414,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2299,7 +2423,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="49"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -2307,12 +2431,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2337,10 +2461,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:AT40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2355,8 +2480,8 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="19" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
@@ -2447,13 +2572,13 @@
       <c r="AT2" s="33"/>
     </row>
     <row r="3" spans="2:46">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="25" t="s">
         <v>107</v>
       </c>
@@ -2513,11 +2638,11 @@
       <c r="AT3" s="26"/>
     </row>
     <row r="4" spans="2:46">
-      <c r="B4" s="58"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="25" t="s">
         <v>107</v>
       </c>
@@ -2581,10 +2706,10 @@
       <c r="AT4" s="26"/>
     </row>
     <row r="5" spans="2:46">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -2643,8 +2768,8 @@
       <c r="AT5" s="21"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="22" t="s">
         <v>104</v>
       </c>
@@ -2656,7 +2781,7 @@
       </c>
       <c r="G6" s="21">
         <f>SUM(J6:BP6)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>122</v>
@@ -2684,7 +2809,9 @@
       <c r="S6" s="21">
         <v>8</v>
       </c>
-      <c r="T6" s="21"/>
+      <c r="T6" s="21">
+        <v>8</v>
+      </c>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
@@ -2712,9 +2839,9 @@
       <c r="AS6" s="21"/>
       <c r="AT6" s="21"/>
     </row>
-    <row r="7" spans="2:46">
-      <c r="B7" s="59"/>
-      <c r="C7" s="56"/>
+    <row r="7" spans="2:46" hidden="1">
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="22" t="s">
         <v>105</v>
       </c>
@@ -2768,8 +2895,8 @@
       <c r="AT7" s="21"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="59"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -2842,8 +2969,8 @@
       <c r="AT8" s="21"/>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="23" t="s">
         <v>127</v>
       </c>
@@ -2901,9 +3028,9 @@
       <c r="AS9" s="21"/>
       <c r="AT9" s="21"/>
     </row>
-    <row r="10" spans="2:46">
-      <c r="B10" s="59"/>
-      <c r="C10" s="56"/>
+    <row r="10" spans="2:46" hidden="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
@@ -2956,9 +3083,9 @@
       <c r="AS10" s="21"/>
       <c r="AT10" s="21"/>
     </row>
-    <row r="11" spans="2:46">
-      <c r="B11" s="59"/>
-      <c r="C11" s="55" t="s">
+    <row r="11" spans="2:46" hidden="1">
+      <c r="B11" s="58"/>
+      <c r="C11" s="57" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -3013,9 +3140,9 @@
       <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
     </row>
-    <row r="12" spans="2:46">
-      <c r="B12" s="59"/>
-      <c r="C12" s="55"/>
+    <row r="12" spans="2:46" hidden="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="23" t="s">
         <v>70</v>
       </c>
@@ -3068,9 +3195,9 @@
       <c r="AS12" s="24"/>
       <c r="AT12" s="24"/>
     </row>
-    <row r="13" spans="2:46">
-      <c r="B13" s="59"/>
-      <c r="C13" s="55"/>
+    <row r="13" spans="2:46" hidden="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
@@ -3123,9 +3250,9 @@
       <c r="AS13" s="24"/>
       <c r="AT13" s="24"/>
     </row>
-    <row r="14" spans="2:46">
-      <c r="B14" s="59"/>
-      <c r="C14" s="55"/>
+    <row r="14" spans="2:46" hidden="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="23" t="s">
         <v>71</v>
       </c>
@@ -3179,8 +3306,8 @@
       <c r="AT14" s="24"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="59"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
@@ -3239,8 +3366,8 @@
       <c r="AT15" s="24"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="B16" s="59"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
@@ -3297,8 +3424,8 @@
       <c r="AT16" s="24"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="B17" s="59"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="23" t="s">
         <v>91</v>
       </c>
@@ -3355,8 +3482,8 @@
       <c r="AT17" s="24"/>
     </row>
     <row r="18" spans="2:46">
-      <c r="B18" s="59"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="23" t="s">
         <v>90</v>
       </c>
@@ -3413,8 +3540,8 @@
       <c r="AT18" s="24"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="B19" s="59"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="23" t="s">
         <v>92</v>
       </c>
@@ -3470,9 +3597,9 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46">
-      <c r="B20" s="59"/>
-      <c r="C20" s="55" t="s">
+    <row r="20" spans="2:46" hidden="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -3527,9 +3654,9 @@
       <c r="AS20" s="24"/>
       <c r="AT20" s="24"/>
     </row>
-    <row r="21" spans="2:46">
-      <c r="B21" s="59"/>
-      <c r="C21" s="55"/>
+    <row r="21" spans="2:46" hidden="1">
+      <c r="B21" s="58"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
@@ -3582,9 +3709,9 @@
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
     </row>
-    <row r="22" spans="2:46">
-      <c r="B22" s="59"/>
-      <c r="C22" s="55" t="s">
+    <row r="22" spans="2:46" hidden="1">
+      <c r="B22" s="58"/>
+      <c r="C22" s="57" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -3639,9 +3766,9 @@
       <c r="AS22" s="24"/>
       <c r="AT22" s="24"/>
     </row>
-    <row r="23" spans="2:46">
-      <c r="B23" s="59"/>
-      <c r="C23" s="55"/>
+    <row r="23" spans="2:46" hidden="1">
+      <c r="B23" s="58"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
@@ -3694,9 +3821,9 @@
       <c r="AS23" s="24"/>
       <c r="AT23" s="24"/>
     </row>
-    <row r="24" spans="2:46">
-      <c r="B24" s="59"/>
-      <c r="C24" s="55" t="s">
+    <row r="24" spans="2:46" hidden="1">
+      <c r="B24" s="58"/>
+      <c r="C24" s="57" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -3751,9 +3878,9 @@
       <c r="AS24" s="24"/>
       <c r="AT24" s="24"/>
     </row>
-    <row r="25" spans="2:46">
-      <c r="B25" s="59"/>
-      <c r="C25" s="55"/>
+    <row r="25" spans="2:46" hidden="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="23" t="s">
         <v>95</v>
       </c>
@@ -3806,9 +3933,9 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46">
-      <c r="B26" s="59"/>
-      <c r="C26" s="55" t="s">
+    <row r="26" spans="2:46" hidden="1">
+      <c r="B26" s="58"/>
+      <c r="C26" s="57" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -3863,9 +3990,9 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46">
-      <c r="B27" s="59"/>
-      <c r="C27" s="55"/>
+    <row r="27" spans="2:46" hidden="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23" t="s">
         <v>99</v>
       </c>
@@ -3918,8 +4045,8 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46">
-      <c r="B28" s="58" t="s">
+    <row r="28" spans="2:46" hidden="1">
+      <c r="B28" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -3977,9 +4104,9 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46">
-      <c r="B29" s="58"/>
-      <c r="C29" s="56" t="s">
+    <row r="29" spans="2:46" hidden="1">
+      <c r="B29" s="53"/>
+      <c r="C29" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="23" t="s">
@@ -4034,9 +4161,9 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46">
-      <c r="B30" s="58"/>
-      <c r="C30" s="56"/>
+    <row r="30" spans="2:46" hidden="1">
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
@@ -4089,8 +4216,8 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46">
-      <c r="B31" s="58"/>
+    <row r="31" spans="2:46" hidden="1">
+      <c r="B31" s="53"/>
       <c r="C31" s="30" t="s">
         <v>96</v>
       </c>
@@ -4146,8 +4273,8 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46">
-      <c r="B32" s="58"/>
+    <row r="32" spans="2:46" hidden="1">
+      <c r="B32" s="53"/>
       <c r="C32" s="30" t="s">
         <v>97</v>
       </c>
@@ -4204,13 +4331,13 @@
       <c r="AT32" s="24"/>
     </row>
     <row r="33" spans="2:46">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="25" t="s">
         <v>107</v>
       </c>
@@ -4266,11 +4393,11 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="2:46">
-      <c r="B34" s="58"/>
-      <c r="C34" s="57" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="25" t="s">
         <v>107</v>
       </c>
@@ -4332,11 +4459,11 @@
       <c r="AT34" s="26"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="58"/>
-      <c r="C35" s="57" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="25" t="s">
         <v>107</v>
       </c>
@@ -4394,11 +4521,11 @@
       <c r="AT35" s="26"/>
     </row>
     <row r="36" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="25" t="s">
         <v>107</v>
       </c>
@@ -4455,7 +4582,7 @@
       <c r="AT36" s="26"/>
     </row>
     <row r="37" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B37" s="58"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="39" t="s">
         <v>142</v>
       </c>
@@ -4514,11 +4641,11 @@
       <c r="AT37" s="26"/>
     </row>
     <row r="38" spans="2:46">
-      <c r="B38" s="58"/>
-      <c r="C38" s="57" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="25" t="s">
         <v>107</v>
       </c>
@@ -4572,11 +4699,11 @@
       <c r="AT38" s="26"/>
     </row>
     <row r="39" spans="2:46">
-      <c r="B39" s="58"/>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="57"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="25" t="s">
         <v>107</v>
       </c>
@@ -4629,12 +4756,12 @@
       <c r="AS39" s="26"/>
       <c r="AT39" s="26"/>
     </row>
-    <row r="40" spans="2:46">
-      <c r="B40" s="54" t="s">
+    <row r="40" spans="2:46" hidden="1">
+      <c r="B40" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="32"/>
       <c r="F40" s="34">
         <f>SUM(F3:F39)</f>
@@ -4642,7 +4769,7 @@
       </c>
       <c r="G40" s="34">
         <f>SUM(G3:G38)</f>
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="35" t="s">
@@ -4690,7 +4817,7 @@
       </c>
       <c r="T40" s="34">
         <f t="shared" ref="T40" si="10">SUM(T3:T39)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U40" s="34">
         <f t="shared" ref="U40" si="11">SUM(U3:U39)</f>
@@ -4798,18 +4925,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AT40"/>
+  <autoFilter ref="B2:AT40">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="T9" sqref="T9"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="T16" sqref="T16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:AT40"/>
-    </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="S37" sqref="S37"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B2:AT40">
         <filterColumn colId="3">
           <filters>
@@ -4818,17 +4945,14 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="I37" sqref="I37"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B2:AT40"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C29:C30"/>
@@ -4842,6 +4966,15 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I40">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -4870,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4893,7 +5026,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4901,47 +5034,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="63"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="63"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="63"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="63"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="63"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="63"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="64"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4952,17 +5085,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="63"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="63"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -4973,7 +5106,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="70"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -4991,16 +5124,16 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="71"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="71" t="s">
         <v>143</v>
       </c>
       <c r="D17" t="s">
@@ -5008,31 +5141,31 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="63"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="63"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="63"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="64"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:4">
@@ -5060,7 +5193,7 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="67" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5068,35 +5201,35 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="68"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="68"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="68"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="68"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="68"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5104,29 +5237,29 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="63"/>
-      <c r="C34" s="41" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="63"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="64"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5137,17 +5270,17 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="63"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="64"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5155,29 +5288,29 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="63"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="63"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="63"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="64"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="64" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -5194,7 +5327,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="66"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="19" t="s">
         <v>56</v>
       </c>
@@ -5203,14 +5336,14 @@
       <c r="F47" s="27"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="67"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="19"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="64" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -5221,7 +5354,7 @@
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="66"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
@@ -5230,14 +5363,14 @@
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="67"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="19"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5248,7 +5381,7 @@
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="66"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="19" t="s">
         <v>58</v>
       </c>
@@ -5257,7 +5390,7 @@
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="66"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="19" t="s">
         <v>51</v>
       </c>
@@ -5266,7 +5399,7 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="66"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="19" t="s">
         <v>61</v>
       </c>
@@ -5275,7 +5408,7 @@
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="67"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="19"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
@@ -5283,12 +5416,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A29">
+      <selection activeCell="F35" sqref="F35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
       <selection activeCell="C26" sqref="C26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A5">
-      <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5314,7 +5447,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5401,13 +5534,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C20" sqref="C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -5439,11 +5572,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -14,18 +14,18 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$S</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$2:$AU$40</definedName>
-    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
-    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$2:$AT$40</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$T</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$46</definedName>
+    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
   <si>
     <t>User login</t>
   </si>
@@ -472,14 +472,24 @@
   </si>
   <si>
     <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Estimated Days (2 HC)</t>
+  </si>
+  <si>
+    <t>Implemented Days (2 HC)</t>
+  </si>
+  <si>
+    <t>Remaining Days (2 HC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -656,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,6 +778,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -804,21 +818,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,7 +872,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,989 +926,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{6A08E727-F695-42C3-9CC9-9E5F81C448DE}" diskRevisions="1" revisionId="81" version="28">
-  <header guid="{16049E48-C534-4B51-A298-89753A2E38E1}" dateTime="2016-01-19T17:44:40" maxSheetId="6" userName="thai.pham" r:id="rId1">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{40097DFB-02C4-41FC-9FDE-7F4465D8A5B0}" dateTime="2016-01-19T17:44:43" maxSheetId="6" userName="thai.pham" r:id="rId2">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9A50EBAA-F9B2-41F0-BEAB-3C56705F2BA8}" dateTime="2016-01-19T17:44:46" maxSheetId="6" userName="thai.pham" r:id="rId3">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E3656A5D-D161-4C17-AE15-84AC9561A02B}" dateTime="2016-01-19T17:46:34" maxSheetId="6" userName="tan.thanh.vo" r:id="rId4" minRId="5" maxRId="14">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{27734030-3301-4C1A-8C43-4A728A26D003}" dateTime="2016-01-19T17:46:39" maxSheetId="6" userName="tan.thanh.vo" r:id="rId5" minRId="17" maxRId="18">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5EC49847-ECB1-4B73-A38A-32F75A189C66}" dateTime="2016-01-19T17:48:12" maxSheetId="6" userName="thai.pham" r:id="rId6">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{032E71AB-6457-48BA-AABA-CEBA72EEA807}" dateTime="2016-01-19T17:48:51" maxSheetId="6" userName="thai.pham" r:id="rId7" minRId="23">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D1744B7D-1963-4AA5-969F-F9F2683D58CF}" dateTime="2016-01-19T17:49:02" maxSheetId="6" userName="thai.pham" r:id="rId8">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D336A924-7E8B-410C-A0B7-6C1016121D93}" dateTime="2016-01-19T17:58:28" maxSheetId="6" userName="tan.thanh.vo" r:id="rId9" minRId="28" maxRId="31">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{51EB696C-295E-4BD0-B24F-BFBB4664B709}" dateTime="2016-01-19T18:17:20" maxSheetId="6" userName="thai.pham" r:id="rId10">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9EA70678-28E8-466C-9D4D-668A6F75764E}" dateTime="2016-01-20T10:42:56" maxSheetId="6" userName="thai.pham" r:id="rId11">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0E2C444F-035D-4733-9E89-498573329683}" dateTime="2016-01-20T10:48:34" maxSheetId="6" userName="thai.pham" r:id="rId12" minRId="38">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4604D663-40A4-4FF2-B979-F6D782B6ADA2}" dateTime="2016-01-20T10:49:57" maxSheetId="6" userName="thai.pham" r:id="rId13">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{819BB48F-84A7-4462-9E58-4977763C38B8}" dateTime="2016-01-20T10:50:22" maxSheetId="6" userName="thai.pham" r:id="rId14">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E4E22D9D-DBCA-4FAB-AFA1-48956617723A}" dateTime="2016-01-20T10:52:44" maxSheetId="6" userName="thai.pham" r:id="rId15">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{97120DEB-3DCC-45BC-B8AB-1AF57D390397}" dateTime="2016-01-20T10:52:52" maxSheetId="6" userName="thai.pham" r:id="rId16" minRId="47" maxRId="49">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B7508C1B-3FB6-4565-AEE4-65E23CF32E2B}" dateTime="2016-01-20T10:52:54" maxSheetId="6" userName="thai.pham" r:id="rId17">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5DE69647-3EC4-4FD9-8730-4829819DEDAB}" dateTime="2016-01-20T10:54:31" maxSheetId="6" userName="thai.pham" r:id="rId18" minRId="54" maxRId="55">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A5B82ED2-961E-456E-A9AE-87977801F760}" dateTime="2016-01-20T10:54:37" maxSheetId="6" userName="thai.pham" r:id="rId19" minRId="58">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1EDE330B-3186-44F3-8765-8093AFCC465A}" dateTime="2016-01-20T10:54:59" maxSheetId="6" userName="thai.pham" r:id="rId20">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EEFC087B-9CD1-43DD-B972-60F1987720AE}" dateTime="2016-01-20T10:56:48" maxSheetId="6" userName="thai.pham" r:id="rId21">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{178BF978-FE72-4AE6-B2B5-95AB3EBDD754}" dateTime="2016-01-20T17:51:16" maxSheetId="6" userName="tan.thanh.vo" r:id="rId22">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1274D176-4489-4FE1-A0E9-76B2C9A3095F}" dateTime="2016-01-20T17:51:29" maxSheetId="6" userName="tan.thanh.vo" r:id="rId23" minRId="67" maxRId="68">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D9EE5FFF-0556-4AE1-B63D-B0FAD0D3A879}" dateTime="2016-01-20T17:51:45" maxSheetId="6" userName="tan.thanh.vo" r:id="rId24">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{17ED11CD-6BDA-4D3C-BC6C-4A65924C3C80}" dateTime="2016-01-20T17:52:15" maxSheetId="6" userName="thai.pham" r:id="rId25">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{66A3F605-2E00-4B24-94BF-E6AA1E9C6476}" dateTime="2016-01-20T17:59:26" maxSheetId="6" userName="thai.pham" r:id="rId26">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{214C6DB4-78B6-4DAC-B137-4C360FE62A7D}" dateTime="2016-01-20T17:59:38" maxSheetId="6" userName="thai.pham" r:id="rId27" minRId="77">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6A08E727-F695-42C3-9CC9-9E5F81C448DE}" dateTime="2016-01-20T18:00:01" maxSheetId="6" userName="thai.pham" r:id="rId28">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$S</formula>
-    <oldFormula>Estimation!$J:$S</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$39</formula>
-    <oldFormula>Estimation!$B$2:$AT$39</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="23" sId="2">
-    <oc r="E37" t="inlineStr">
-      <is>
-        <t>P2</t>
-      </is>
-    </oc>
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>P1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="17" sId="2">
-    <oc r="I37" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
-    </oc>
-    <nc r="I37" t="inlineStr">
-      <is>
-        <t>Completed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="2">
-    <oc r="F37">
-      <v>5</v>
-    </oc>
-    <nc r="F37">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="5" sId="2" numFmtId="19">
-    <nc r="S2">
-      <v>42388</v>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="2">
-    <nc r="S8">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rrc rId="7" sId="2" ref="A37:XFD37" action="insertRow">
-    <undo index="0" exp="area" ref3D="1" dr="$J$1:$P$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
-    <undo index="0" exp="area" ref3D="1" dr="$J$1:$N$1048576" dn="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" sId="2"/>
-  </rrc>
-  <rcc rId="8" sId="2">
-    <nc r="C37" t="inlineStr">
-      <is>
-        <t>Update DB</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="2">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>P2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="2">
-    <nc r="F37">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="2">
-    <oc r="G3">
-      <f>SUM(J3:BP3)+8</f>
-    </oc>
-    <nc r="G3">
-      <f>SUM(J3:BP3)+8</f>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="2">
-    <nc r="S37">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="2">
-    <nc r="G37">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="2">
-    <nc r="I37" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="54" sId="3">
-    <oc r="D17" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </oc>
-    <nc r="D17"/>
-  </rcc>
-  <rcc rId="55" sId="3">
-    <oc r="D23" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </oc>
-    <nc r="D23"/>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="38" sId="3">
-    <nc r="D38" t="inlineStr">
-      <is>
-        <t>auto increment</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="28" sId="3">
-    <oc r="C21" t="inlineStr">
-      <is>
-        <t>ColorID</t>
-      </is>
-    </oc>
-    <nc r="C21" t="inlineStr">
-      <is>
-        <t>ColorCode</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="3">
-    <oc r="C27" t="inlineStr">
-      <is>
-        <t>ColorID</t>
-      </is>
-    </oc>
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>ColorCode</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="30" sId="3" ref="A23:XFD23" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A23:XFD23" start="0" length="0"/>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="B23" t="inlineStr">
-        <is>
-          <t>tbl_Color</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-        </border>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="C23" t="inlineStr">
-        <is>
-          <t>ColorID</t>
-        </is>
-      </nc>
-      <ndxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="31" sId="3" ref="A23:XFD23" action="deleteRow">
-    <rfmt sheetId="3" xfDxf="1" sqref="A23:XFD23" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B23" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="C23" t="inlineStr">
-        <is>
-          <t>ColorCode</t>
-        </is>
-      </nc>
-      <ndxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="47" sId="3">
-    <oc r="C17" t="inlineStr">
-      <is>
-        <t>TitleID</t>
-      </is>
-    </oc>
-    <nc r="C17" t="inlineStr">
-      <is>
-        <t>3LD</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="3">
-    <oc r="C30" t="inlineStr">
-      <is>
-        <t>TitleID</t>
-      </is>
-    </oc>
-    <nc r="C30" t="inlineStr">
-      <is>
-        <t>3LD</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="3">
-    <oc r="C34" t="inlineStr">
-      <is>
-        <t>TitleID</t>
-      </is>
-    </oc>
-    <nc r="C34" t="inlineStr">
-      <is>
-        <t>3LD</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1411111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="3" sqref="C17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="C30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="C34">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="58" sId="3">
-    <nc r="D17" t="inlineStr">
-      <is>
-        <t>nvarchar(50)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$P</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="67" sId="2" numFmtId="19">
-    <nc r="T2">
-      <v>42389</v>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2">
-    <nc r="T8">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="77" sId="2">
-    <nc r="T6">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$S</formula>
-    <oldFormula>Estimation!$J:$P</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$2:$AT$40</formula>
-    <oldFormula>Estimation!$B$2:$AT$40</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <userInfo guid="{D1744B7D-1963-4AA5-969F-F9F2683D58CF}" name="thai.pham" id="-598511050" dateTime="2016-01-19T17:44:40"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2209,13 +1246,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -2224,28 +1261,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="52"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="52"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="52"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2253,56 +1290,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="52"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="52"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="52"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="52"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="46" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2311,35 +1348,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="52"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="52"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="52"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="52"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +1384,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="52"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -2356,15 +1393,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="52"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="52"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2374,8 +1411,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="52"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -2383,7 +1420,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="52"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -2392,10 +1429,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2405,8 +1442,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2414,7 +1451,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2423,7 +1460,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="48"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -2461,643 +1498,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:AT40"/>
+  <dimension ref="A2:AT46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="19" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="20" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" ht="55.5" customHeight="1">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:46" ht="16.5" customHeight="1">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="B3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="73">
+        <f ca="1">SUMIF(E9:F45,"P1",F9:F45)/16</f>
+        <v>25.125</v>
+      </c>
+      <c r="D3" s="73">
+        <f ca="1">SUMIF(E9:G45,"P1",G9:G45)/16</f>
+        <v>8.1875</v>
+      </c>
+      <c r="E3" s="73">
+        <f ca="1">C3-D3</f>
+        <v>16.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="B4" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="73">
+        <f ca="1">SUMIF(E9:F45,"P2",F9:F45)/16</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="73">
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="73">
+        <f t="shared" ref="E4:E6" ca="1" si="0">C4-D4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="B5" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="73">
+        <f ca="1">SUMIF(E9:F45,"P3",F9:F45)/16</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="73">
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="73">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="B6" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="73">
+        <f ca="1">SUMIF(E9:F45,"P4",F9:F45)/16</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="73">
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="73">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="55.5" customHeight="1">
+      <c r="B8" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J8" s="33">
         <v>42291</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K8" s="33">
         <v>42292</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L8" s="33">
         <v>42377</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M8" s="33">
         <v>42380</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N8" s="33">
         <v>42381</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O8" s="33">
         <v>42382</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P8" s="33">
         <v>42383</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q8" s="33">
         <v>42384</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R8" s="33">
         <v>42387</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S8" s="33">
         <v>42388</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T8" s="33">
         <v>42389</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-    </row>
-    <row r="3" spans="2:46">
-      <c r="B3" s="53" t="s">
+      <c r="U8" s="33">
+        <v>42390</v>
+      </c>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="B9" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="25" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F9" s="25">
         <v>24</v>
       </c>
-      <c r="G3" s="21">
-        <f>SUM(J3:BP3)+8</f>
+      <c r="G9" s="21">
+        <f>SUM(J9:BP9)+8</f>
         <v>14</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26">
         <v>4</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26">
         <v>2</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-    </row>
-    <row r="4" spans="2:46">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="B10" s="59"/>
+      <c r="C10" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="25" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F10" s="25">
         <v>16</v>
       </c>
-      <c r="G4" s="21">
-        <f>SUM(J4:BP4)</f>
+      <c r="G10" s="21">
+        <f>SUM(J10:BP10)</f>
         <v>17</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J10" s="26">
         <v>2</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K10" s="26">
         <v>3</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L10" s="26">
         <v>8</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M10" s="26">
         <v>4</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-    </row>
-    <row r="5" spans="2:46">
-      <c r="B5" s="58" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="B11" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C11" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F11" s="21">
         <v>16</v>
       </c>
-      <c r="G5" s="21">
-        <f t="shared" ref="G5" si="0">SUM(J5:BP5)</f>
+      <c r="G11" s="21">
+        <f t="shared" ref="G11" si="1">SUM(J11:BP11)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-    </row>
-    <row r="6" spans="2:46">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="21">
-        <v>24</v>
-      </c>
-      <c r="G6" s="21">
-        <f>SUM(J6:BP6)</f>
-        <v>43</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21">
-        <v>8</v>
-      </c>
-      <c r="P6" s="21">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>3</v>
-      </c>
-      <c r="R6" s="21">
-        <v>8</v>
-      </c>
-      <c r="S6" s="21">
-        <v>8</v>
-      </c>
-      <c r="T6" s="21">
-        <v>8</v>
-      </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-    </row>
-    <row r="7" spans="2:46" hidden="1">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="21">
-        <v>24</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-    </row>
-    <row r="8" spans="2:46">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="21">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21">
-        <f>SUM(J8:BP8)</f>
-        <v>43</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21">
-        <v>6</v>
-      </c>
-      <c r="P8" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>8</v>
-      </c>
-      <c r="R8" s="21">
-        <v>8</v>
-      </c>
-      <c r="S8" s="21">
-        <v>7</v>
-      </c>
-      <c r="T8" s="21">
-        <v>8</v>
-      </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-    </row>
-    <row r="9" spans="2:46">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="21">
-        <v>16</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" ref="G9" si="1">SUM(J9:BP9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-    </row>
-    <row r="10" spans="2:46" hidden="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="21">
-        <v>24</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-    </row>
-    <row r="11" spans="2:46" hidden="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="21">
-        <v>24</v>
-      </c>
-      <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21" t="s">
         <v>67</v>
@@ -3140,363 +1886,392 @@
       <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
     </row>
-    <row r="12" spans="2:46" hidden="1">
-      <c r="B12" s="58"/>
+    <row r="12" spans="1:46">
+      <c r="B12" s="60"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="23" t="s">
-        <v>70</v>
+      <c r="D12" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="21">
-        <v>16</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="21">
+        <f>SUM(J12:BP12)</f>
+        <v>43</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="I12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-    </row>
-    <row r="13" spans="2:46" hidden="1">
-      <c r="B13" s="58"/>
+        <v>81</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21">
+        <v>8</v>
+      </c>
+      <c r="P12" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>3</v>
+      </c>
+      <c r="R12" s="21">
+        <v>8</v>
+      </c>
+      <c r="S12" s="21">
+        <v>8</v>
+      </c>
+      <c r="T12" s="21">
+        <v>8</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="B13" s="60"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="23" t="s">
-        <v>27</v>
+      <c r="D13" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="21">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-    </row>
-    <row r="14" spans="2:46" hidden="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="57"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="B14" s="60"/>
+      <c r="C14" s="57" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="23" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="21">
+        <v>55</v>
+      </c>
+      <c r="G14" s="21">
+        <f>SUM(J14:BP14)</f>
+        <v>43</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21">
+        <v>6</v>
+      </c>
+      <c r="P14" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="21">
         <v>8</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-    </row>
-    <row r="15" spans="2:46">
-      <c r="B15" s="58"/>
-      <c r="C15" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="R14" s="21">
+        <v>8</v>
+      </c>
+      <c r="S14" s="21">
+        <v>7</v>
+      </c>
+      <c r="T14" s="21">
+        <v>8</v>
+      </c>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="B15" s="60"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="23" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>107</v>
       </c>
       <c r="F15" s="21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" ref="G15:G19" si="2">SUM(J15:BP15)</f>
+        <f t="shared" ref="G15" si="2">SUM(J15:BP15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="I15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-    </row>
-    <row r="16" spans="2:46">
-      <c r="B16" s="58"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="B16" s="60"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="23" t="s">
-        <v>27</v>
+      <c r="D16" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="21">
         <v>24</v>
       </c>
-      <c r="G16" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="23" t="s">
-        <v>91</v>
+      <c r="B17" s="60"/>
+      <c r="C17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="21">
         <v>24</v>
       </c>
-      <c r="G17" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
     </row>
     <row r="18" spans="2:46">
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="23" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="21">
-        <v>24</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
         <v>67</v>
@@ -3540,21 +2315,18 @@
       <c r="AT18" s="24"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="B19" s="58"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="21">
-        <v>24</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21" t="s">
         <v>67</v>
@@ -3597,19 +2369,17 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46" hidden="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="57" t="s">
-        <v>72</v>
-      </c>
+    <row r="20" spans="2:46">
+      <c r="B20" s="60"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -3654,19 +2424,24 @@
       <c r="AS20" s="24"/>
       <c r="AT20" s="24"/>
     </row>
-    <row r="21" spans="2:46" hidden="1">
-      <c r="B21" s="58"/>
-      <c r="C21" s="57"/>
+    <row r="21" spans="2:46">
+      <c r="B21" s="60"/>
+      <c r="C21" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="23" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" s="21">
-        <v>16</v>
-      </c>
-      <c r="G21" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" ref="G21:G25" si="3">SUM(J21:BP21)</f>
+        <v>0</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21" t="s">
         <v>67</v>
@@ -3709,21 +2484,22 @@
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
     </row>
-    <row r="22" spans="2:46" hidden="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="57" t="s">
-        <v>96</v>
-      </c>
+    <row r="22" spans="2:46">
+      <c r="B22" s="60"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="23" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="21">
-        <v>8</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
         <v>67</v>
@@ -3766,19 +2542,22 @@
       <c r="AS22" s="24"/>
       <c r="AT22" s="24"/>
     </row>
-    <row r="23" spans="2:46" hidden="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="57"/>
+    <row r="23" spans="2:46">
+      <c r="B23" s="60"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="21">
-        <v>16</v>
-      </c>
-      <c r="G23" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
         <v>67</v>
@@ -3821,21 +2600,22 @@
       <c r="AS23" s="24"/>
       <c r="AT23" s="24"/>
     </row>
-    <row r="24" spans="2:46" hidden="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="57" t="s">
-        <v>93</v>
-      </c>
+    <row r="24" spans="2:46">
+      <c r="B24" s="60"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="21">
         <v>24</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
         <v>67</v>
@@ -3878,19 +2658,22 @@
       <c r="AS24" s="24"/>
       <c r="AT24" s="24"/>
     </row>
-    <row r="25" spans="2:46" hidden="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="57"/>
+    <row r="25" spans="2:46">
+      <c r="B25" s="60"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F25" s="21">
         <v>24</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
         <v>67</v>
@@ -3933,19 +2716,19 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46" hidden="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="57" t="s">
-        <v>97</v>
+    <row r="26" spans="2:46">
+      <c r="B26" s="60"/>
+      <c r="C26" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -3990,14 +2773,14 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46" hidden="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="57"/>
+    <row r="27" spans="2:46">
+      <c r="B27" s="60"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="23" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="21">
         <v>16</v>
@@ -4045,15 +2828,13 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46" hidden="1">
-      <c r="B28" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>34</v>
+    <row r="28" spans="2:46">
+      <c r="B28" s="60"/>
+      <c r="C28" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>109</v>
@@ -4104,19 +2885,17 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46" hidden="1">
-      <c r="B29" s="53"/>
-      <c r="C29" s="55" t="s">
-        <v>72</v>
-      </c>
+    <row r="29" spans="2:46">
+      <c r="B29" s="60"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" s="21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -4161,17 +2940,19 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46" hidden="1">
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
+    <row r="30" spans="2:46">
+      <c r="B30" s="60"/>
+      <c r="C30" s="56" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="23" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="21">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -4216,19 +2997,17 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46" hidden="1">
-      <c r="B31" s="53"/>
-      <c r="C31" s="30" t="s">
-        <v>96</v>
-      </c>
+    <row r="31" spans="2:46">
+      <c r="B31" s="60"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="23" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="21">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -4273,9 +3052,9 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46" hidden="1">
-      <c r="B32" s="53"/>
-      <c r="C32" s="30" t="s">
+    <row r="32" spans="2:46">
+      <c r="B32" s="60"/>
+      <c r="C32" s="56" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -4331,392 +3110,368 @@
       <c r="AT32" s="24"/>
     </row>
     <row r="33" spans="2:46">
-      <c r="B33" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="25">
-        <v>4</v>
-      </c>
-      <c r="G33" s="21">
-        <f>SUM(J33:BP33)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="21">
+        <v>16</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="24"/>
+      <c r="AT33" s="24"/>
     </row>
     <row r="34" spans="2:46">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="25">
-        <v>16</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" ref="G34:G39" si="3">SUM(J34:BP34)</f>
-        <v>4</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="B34" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="21">
+        <v>8</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="26">
-        <v>1</v>
-      </c>
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26">
-        <v>2</v>
-      </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="24"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="25">
-        <v>4</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="21">
+        <v>8</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26">
-        <v>4</v>
-      </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-    </row>
-    <row r="36" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B36" s="53"/>
-      <c r="C36" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="25">
-        <v>5</v>
-      </c>
-      <c r="G36" s="21">
-        <v>5</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>122</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+    </row>
+    <row r="36" spans="2:46">
+      <c r="B36" s="59"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="21">
+        <v>8</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26">
-        <v>5</v>
-      </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-    </row>
-    <row r="37" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B37" s="53"/>
-      <c r="C37" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="25">
-        <v>2</v>
-      </c>
-      <c r="G37" s="21">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="24"/>
+    </row>
+    <row r="37" spans="2:46">
+      <c r="B37" s="59"/>
+      <c r="C37" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="21">
+        <v>8</v>
+      </c>
+      <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26">
-        <v>1</v>
-      </c>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
     </row>
     <row r="38" spans="2:46">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="25">
-        <v>16</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="21">
+        <v>8</v>
+      </c>
+      <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24"/>
     </row>
     <row r="39" spans="2:46">
-      <c r="B39" s="53"/>
-      <c r="C39" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="54"/>
+      <c r="B39" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="58"/>
       <c r="E39" s="25" t="s">
         <v>107</v>
       </c>
       <c r="F39" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="21">
-        <f t="shared" si="3"/>
+        <f>SUM(J39:BP39)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="I39" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
@@ -4756,193 +3511,551 @@
       <c r="AS39" s="26"/>
       <c r="AT39" s="26"/>
     </row>
-    <row r="40" spans="2:46" hidden="1">
-      <c r="B40" s="56" t="s">
+    <row r="40" spans="2:46">
+      <c r="B40" s="59"/>
+      <c r="C40" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="25">
+        <v>16</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" ref="G40:G45" si="4">SUM(J40:BP40)</f>
+        <v>4</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26">
+        <v>1</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26">
+        <v>2</v>
+      </c>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+    </row>
+    <row r="41" spans="2:46">
+      <c r="B41" s="59"/>
+      <c r="C41" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="25">
+        <v>4</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26">
+        <v>4</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+    </row>
+    <row r="42" spans="2:46" ht="37.5" customHeight="1">
+      <c r="B42" s="59"/>
+      <c r="C42" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="62"/>
+      <c r="E42" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="25">
+        <v>5</v>
+      </c>
+      <c r="G42" s="21">
+        <v>5</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26">
+        <v>5</v>
+      </c>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="26"/>
+    </row>
+    <row r="43" spans="2:46" ht="37.5" customHeight="1">
+      <c r="B43" s="59"/>
+      <c r="C43" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="25">
+        <v>2</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26">
+        <v>1</v>
+      </c>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="26"/>
+      <c r="AS43" s="26"/>
+      <c r="AT43" s="26"/>
+    </row>
+    <row r="44" spans="2:46">
+      <c r="B44" s="59"/>
+      <c r="C44" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="25">
+        <v>16</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+    </row>
+    <row r="45" spans="2:46">
+      <c r="B45" s="59"/>
+      <c r="C45" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="25">
+        <v>8</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
+      <c r="AR45" s="26"/>
+      <c r="AS45" s="26"/>
+      <c r="AT45" s="26"/>
+    </row>
+    <row r="46" spans="2:46">
+      <c r="B46" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34">
-        <f>SUM(F3:F39)</f>
-        <v>559</v>
-      </c>
-      <c r="G40" s="34">
-        <f>SUM(G3:G38)</f>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="34">
+        <f>SUM(F9:F45)</f>
+        <v>674</v>
+      </c>
+      <c r="G46" s="34">
+        <f>SUM(G9:G44)</f>
         <v>131</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35" t="s">
+      <c r="H46" s="34"/>
+      <c r="I46" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="34">
-        <f>SUM(J3:J39)</f>
+      <c r="J46" s="34">
+        <f>SUM(J9:J45)</f>
         <v>3</v>
       </c>
-      <c r="K40" s="34">
-        <f>SUM(K3:K39)</f>
+      <c r="K46" s="34">
+        <f>SUM(K9:K45)</f>
         <v>4</v>
       </c>
-      <c r="L40" s="34">
-        <f>SUM(L3:L39)</f>
+      <c r="L46" s="34">
+        <f>SUM(L9:L45)</f>
         <v>8</v>
       </c>
-      <c r="M40" s="34">
-        <f>SUM(M3:M39)</f>
+      <c r="M46" s="34">
+        <f>SUM(M9:M45)</f>
         <v>8</v>
       </c>
-      <c r="N40" s="34">
-        <f t="shared" ref="N40" si="4">SUM(N3:N39)</f>
+      <c r="N46" s="34">
+        <f t="shared" ref="N46" si="5">SUM(N9:N45)</f>
         <v>4</v>
       </c>
-      <c r="O40" s="34">
-        <f t="shared" ref="O40" si="5">SUM(O3:O39)</f>
+      <c r="O46" s="34">
+        <f t="shared" ref="O46" si="6">SUM(O9:O45)</f>
         <v>16</v>
       </c>
-      <c r="P40" s="34">
-        <f t="shared" ref="P40" si="6">SUM(P3:P39)</f>
+      <c r="P46" s="34">
+        <f t="shared" ref="P46" si="7">SUM(P9:P45)</f>
         <v>16</v>
       </c>
-      <c r="Q40" s="34">
-        <f t="shared" ref="Q40" si="7">SUM(Q3:Q39)</f>
+      <c r="Q46" s="34">
+        <f t="shared" ref="Q46" si="8">SUM(Q9:Q45)</f>
         <v>16</v>
       </c>
-      <c r="R40" s="34">
-        <f t="shared" ref="R40" si="8">SUM(R3:R39)</f>
+      <c r="R46" s="34">
+        <f t="shared" ref="R46" si="9">SUM(R9:R45)</f>
         <v>16</v>
       </c>
-      <c r="S40" s="34">
-        <f t="shared" ref="S40" si="9">SUM(S3:S39)</f>
+      <c r="S46" s="34">
+        <f t="shared" ref="S46" si="10">SUM(S9:S45)</f>
         <v>16</v>
       </c>
-      <c r="T40" s="34">
-        <f t="shared" ref="T40" si="10">SUM(T3:T39)</f>
+      <c r="T46" s="34">
+        <f t="shared" ref="T46" si="11">SUM(T9:T45)</f>
         <v>16</v>
       </c>
-      <c r="U40" s="34">
-        <f t="shared" ref="U40" si="11">SUM(U3:U39)</f>
+      <c r="U46" s="34">
+        <f t="shared" ref="U46" si="12">SUM(U9:U45)</f>
         <v>0</v>
       </c>
-      <c r="V40" s="34">
-        <f t="shared" ref="V40" si="12">SUM(V3:V39)</f>
+      <c r="V46" s="34">
+        <f t="shared" ref="V46" si="13">SUM(V9:V45)</f>
         <v>0</v>
       </c>
-      <c r="W40" s="34">
-        <f t="shared" ref="W40" si="13">SUM(W3:W39)</f>
+      <c r="W46" s="34">
+        <f t="shared" ref="W46" si="14">SUM(W9:W45)</f>
         <v>0</v>
       </c>
-      <c r="X40" s="34">
-        <f t="shared" ref="X40" si="14">SUM(X3:X39)</f>
+      <c r="X46" s="34">
+        <f t="shared" ref="X46" si="15">SUM(X9:X45)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="34">
-        <f t="shared" ref="Y40" si="15">SUM(Y3:Y39)</f>
+      <c r="Y46" s="34">
+        <f t="shared" ref="Y46" si="16">SUM(Y9:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="34">
-        <f t="shared" ref="Z40" si="16">SUM(Z3:Z39)</f>
+      <c r="Z46" s="34">
+        <f t="shared" ref="Z46" si="17">SUM(Z9:Z45)</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="34">
-        <f t="shared" ref="AA40" si="17">SUM(AA3:AA39)</f>
+      <c r="AA46" s="34">
+        <f t="shared" ref="AA46" si="18">SUM(AA9:AA45)</f>
         <v>0</v>
       </c>
-      <c r="AB40" s="34">
-        <f t="shared" ref="AB40" si="18">SUM(AB3:AB39)</f>
+      <c r="AB46" s="34">
+        <f t="shared" ref="AB46" si="19">SUM(AB9:AB45)</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="34">
-        <f t="shared" ref="AC40" si="19">SUM(AC3:AC39)</f>
+      <c r="AC46" s="34">
+        <f t="shared" ref="AC46" si="20">SUM(AC9:AC45)</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="34">
-        <f t="shared" ref="AD40" si="20">SUM(AD3:AD39)</f>
+      <c r="AD46" s="34">
+        <f t="shared" ref="AD46" si="21">SUM(AD9:AD45)</f>
         <v>0</v>
       </c>
-      <c r="AE40" s="34">
-        <f t="shared" ref="AE40" si="21">SUM(AE3:AE39)</f>
+      <c r="AE46" s="34">
+        <f t="shared" ref="AE46" si="22">SUM(AE9:AE45)</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="34">
-        <f t="shared" ref="AF40" si="22">SUM(AF3:AF39)</f>
+      <c r="AF46" s="34">
+        <f t="shared" ref="AF46" si="23">SUM(AF9:AF45)</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="34">
-        <f t="shared" ref="AG40" si="23">SUM(AG3:AG39)</f>
+      <c r="AG46" s="34">
+        <f t="shared" ref="AG46" si="24">SUM(AG9:AG45)</f>
         <v>0</v>
       </c>
-      <c r="AH40" s="34">
-        <f t="shared" ref="AH40" si="24">SUM(AH3:AH39)</f>
+      <c r="AH46" s="34">
+        <f t="shared" ref="AH46" si="25">SUM(AH9:AH45)</f>
         <v>0</v>
       </c>
-      <c r="AI40" s="34">
-        <f t="shared" ref="AI40" si="25">SUM(AI3:AI39)</f>
+      <c r="AI46" s="34">
+        <f t="shared" ref="AI46" si="26">SUM(AI9:AI45)</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="34">
-        <f t="shared" ref="AJ40" si="26">SUM(AJ3:AJ39)</f>
+      <c r="AJ46" s="34">
+        <f t="shared" ref="AJ46" si="27">SUM(AJ9:AJ45)</f>
         <v>0</v>
       </c>
-      <c r="AK40" s="34">
-        <f t="shared" ref="AK40" si="27">SUM(AK3:AK39)</f>
+      <c r="AK46" s="34">
+        <f t="shared" ref="AK46" si="28">SUM(AK9:AK45)</f>
         <v>0</v>
       </c>
-      <c r="AL40" s="34">
-        <f t="shared" ref="AL40" si="28">SUM(AL3:AL39)</f>
+      <c r="AL46" s="34">
+        <f t="shared" ref="AL46" si="29">SUM(AL9:AL45)</f>
         <v>0</v>
       </c>
-      <c r="AM40" s="34">
-        <f t="shared" ref="AM40" si="29">SUM(AM3:AM39)</f>
+      <c r="AM46" s="34">
+        <f t="shared" ref="AM46" si="30">SUM(AM9:AM45)</f>
         <v>0</v>
       </c>
-      <c r="AN40" s="34">
-        <f t="shared" ref="AN40" si="30">SUM(AN3:AN39)</f>
+      <c r="AN46" s="34">
+        <f t="shared" ref="AN46" si="31">SUM(AN9:AN45)</f>
         <v>0</v>
       </c>
-      <c r="AO40" s="34">
-        <f t="shared" ref="AO40:AT40" si="31">SUM(AO3:AO39)</f>
+      <c r="AO46" s="34">
+        <f t="shared" ref="AO46:AT46" si="32">SUM(AO9:AO45)</f>
         <v>0</v>
       </c>
-      <c r="AP40" s="34">
-        <f t="shared" si="31"/>
+      <c r="AP46" s="34">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ40" s="34">
-        <f t="shared" si="31"/>
+      <c r="AQ46" s="34">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AR40" s="34">
-        <f t="shared" si="31"/>
+      <c r="AR46" s="34">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="34">
-        <f t="shared" si="31"/>
+      <c r="AS46" s="34">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AT40" s="34">
-        <f t="shared" si="31"/>
+      <c r="AT46" s="34">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AT40">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B8:AT46">
+    <filterColumn colId="3"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="T16" sqref="T16"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:AT40">
-        <filterColumn colId="3">
-          <filters>
-            <filter val="P1"/>
-          </filters>
-        </filterColumn>
+      <autoFilter ref="B7:AT45">
+        <filterColumn colId="3"/>
       </autoFilter>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
@@ -4953,30 +4066,30 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B5:B27"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B11:B33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I40">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -4984,13 +4097,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I40">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I46">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5026,7 +4139,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5034,47 +4147,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="62"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="62"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="62"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="62"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5085,17 +4198,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="62"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="62"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -5106,7 +4219,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="69"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -5124,16 +4237,16 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="42" t="s">
         <v>143</v>
       </c>
       <c r="D17" t="s">
@@ -5141,31 +4254,31 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="62"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="62"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="62"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="62"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="63"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:4">
@@ -5193,7 +4306,7 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="69" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5201,35 +4314,35 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="67"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="67"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="67"/>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="69"/>
+      <c r="C30" s="42" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="67"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="67"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="63" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5237,29 +4350,29 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="62"/>
-      <c r="C34" s="71" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="42" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="62"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="62"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="63"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="63" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5270,17 +4383,17 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="62"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="63"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="63" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5288,29 +4401,29 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="62"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="62"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="62"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="63"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="66" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -5327,7 +4440,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="65"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="19" t="s">
         <v>56</v>
       </c>
@@ -5336,14 +4449,14 @@
       <c r="F47" s="27"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="66"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="19"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -5354,7 +4467,7 @@
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="65"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
@@ -5363,14 +4476,14 @@
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="66"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="19"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="66" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5381,7 +4494,7 @@
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="65"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="19" t="s">
         <v>58</v>
       </c>
@@ -5390,7 +4503,7 @@
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="65"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="19" t="s">
         <v>51</v>
       </c>
@@ -5399,7 +4512,7 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="65"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="19" t="s">
         <v>61</v>
       </c>
@@ -5408,7 +4521,7 @@
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="66"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="19"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -11,21 +11,23 @@
     <sheet name="Estimation" sheetId="2" r:id="rId2"/>
     <sheet name="DB Relationship" sheetId="3" r:id="rId3"/>
     <sheet name="Common Css" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Bug" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$T</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$46</definedName>
-    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
-    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$45</definedName>
+    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
   <si>
     <t>User login</t>
   </si>
@@ -465,9 +467,6 @@
     <t>tbl_WorkingHours</t>
   </si>
   <si>
-    <t>Update DB</t>
-  </si>
-  <si>
     <t>3LD</t>
   </si>
   <si>
@@ -481,6 +480,24 @@
   </si>
   <si>
     <t>Remaining Days (2 HC)</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Title Manager</t>
+  </si>
+  <si>
+    <t>- Unable to search Title after Add/Edit/Delete Title</t>
+  </si>
+  <si>
+    <t>error label</t>
+  </si>
+  <si>
+    <t>label label-danger</t>
   </si>
 </sst>
 </file>
@@ -532,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -772,112 +795,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,6 +958,836 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{5ED97FCA-BBA1-4DAC-A1F7-E58B9B0AC191}" diskRevisions="1" revisionId="70" version="27">
+  <header guid="{EB2B15F7-F5C2-459A-B9BF-B637B4BE932F}" dateTime="2016-01-21T16:58:23" maxSheetId="6" userName="thai.pham" r:id="rId1">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{391F9525-C3F1-4A1E-8820-FEACE2E29A26}" dateTime="2016-01-21T16:58:25" maxSheetId="6" userName="thai.pham" r:id="rId2">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{11F685F3-0061-4785-8DD8-4C6C2B3468D0}" dateTime="2016-01-21T16:58:59" maxSheetId="6" userName="thai.pham" r:id="rId3" minRId="3" maxRId="4">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D4E6F427-B359-4996-9A3E-E78E43C2A325}" dateTime="2016-01-21T16:59:13" maxSheetId="6" userName="thai.pham" r:id="rId4" minRId="7">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{616409B7-F489-44BD-BA88-1672DC3D384C}" dateTime="2016-01-21T16:59:26" maxSheetId="6" userName="thai.pham" r:id="rId5" minRId="10">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C7FECB92-D627-492B-B38A-ED42D279A2F9}" dateTime="2016-01-21T16:59:35" maxSheetId="6" userName="thai.pham" r:id="rId6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9852B519-04DC-4618-BE4C-D9BDB23A8901}" dateTime="2016-01-21T17:23:01" maxSheetId="6" userName="tan.thanh.vo" r:id="rId7" minRId="15">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD96CE7B-C98B-4178-B05A-6EA437DBEE75}" dateTime="2016-01-21T17:23:27" maxSheetId="6" userName="tan.thanh.vo" r:id="rId8" minRId="18">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4ED6429-F25D-4EF3-A7F1-337FB0F2931A}" dateTime="2016-01-21T17:24:58" maxSheetId="7" userName="tan.thanh.vo" r:id="rId9" minRId="21" maxRId="26">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DAB23CA6-0068-4414-8B38-80E0B6919BA4}" dateTime="2016-01-21T17:25:03" maxSheetId="7" userName="tan.thanh.vo" r:id="rId10">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CA11EC08-4EF4-43D3-9334-AD60F8F410CC}" dateTime="2016-01-21T17:26:38" maxSheetId="7" userName="thai.pham" r:id="rId11">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F7562858-C5EC-4E12-B853-2CB171E11555}" dateTime="2016-01-21T17:26:46" maxSheetId="7" userName="thai.pham" r:id="rId12">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B11CD746-0049-48B4-8F7C-9A2A128B0998}" dateTime="2016-01-21T17:26:51" maxSheetId="7" userName="thai.pham" r:id="rId13">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34F0F5DD-8E5B-4907-AA37-4C68D24BA59D}" dateTime="2016-01-21T17:26:57" maxSheetId="7" userName="thai.pham" r:id="rId14">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4FF48482-CBED-46EB-9498-82E76DF468C3}" dateTime="2016-01-22T11:18:55" maxSheetId="7" userName="tan.thanh.vo" r:id="rId15" minRId="39">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A0A701EE-17A3-49A5-98B5-BDAD0B8F533C}" dateTime="2016-01-22T15:06:40" maxSheetId="7" userName="tan.thanh.vo" r:id="rId16" minRId="42" maxRId="43">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6522AE7B-2CE9-4043-9464-B8EB97F73FE6}" dateTime="2016-01-22T15:08:04" maxSheetId="7" userName="thai.pham" r:id="rId17">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC83DA60-A0CD-472B-972D-487DDA3DB602}" dateTime="2016-01-22T16:21:28" maxSheetId="7" userName="thai.pham" r:id="rId18">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D720953E-C7ED-4172-9999-7CD8B15F551F}" dateTime="2016-01-22T16:24:29" maxSheetId="7" userName="thai.pham" r:id="rId19">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6103C71-512F-4831-9B2F-1C60F811DDBB}" dateTime="2016-01-22T16:24:38" maxSheetId="7" userName="thai.pham" r:id="rId20">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{096377D0-377E-43D5-8835-513A3209DE85}" dateTime="2016-01-22T17:41:34" maxSheetId="7" userName="tan.thanh.vo" r:id="rId21" minRId="54" maxRId="56">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78654A47-3ED4-4D49-8B84-206585B8A67C}" dateTime="2016-01-22T17:41:42" maxSheetId="7" userName="tan.thanh.vo" r:id="rId22">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CD676AA9-A0D4-487F-87A9-72726CE2C4EF}" dateTime="2016-01-22T17:41:54" maxSheetId="7" userName="tan.thanh.vo" r:id="rId23">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{23AAE9E5-9B46-4D33-AA5B-200DE2247D6F}" dateTime="2016-01-22T17:44:05" maxSheetId="7" userName="tan.thanh.vo" r:id="rId24">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BC6FA7E9-9336-4D52-A817-72A2CF8CCB5A}" dateTime="2016-01-22T17:44:21" maxSheetId="7" userName="thai.pham" r:id="rId25">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5F7CA4AF-164D-4F2B-A6BC-BC1017E2134B}" dateTime="2016-01-22T17:44:26" maxSheetId="7" userName="thai.pham" r:id="rId26">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5ED97FCA-BBA1-4DAC-A1F7-E58B9B0AC191}" dateTime="2016-01-22T17:44:29" maxSheetId="7" userName="thai.pham" r:id="rId27">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="18" sId="2">
+    <oc r="I14" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I14" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="3" sId="2">
+    <oc r="F21">
+      <v>24</v>
+    </oc>
+    <nc r="F21">
+      <v>30</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="2">
+    <oc r="F22">
+      <v>24</v>
+    </oc>
+    <nc r="F22">
+      <v>50</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="15" sId="2">
+    <nc r="U14">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="10" sId="2">
+    <oc r="F22">
+      <v>100</v>
+    </oc>
+    <nc r="F22">
+      <v>50</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="7" sId="2">
+    <oc r="F22">
+      <v>50</v>
+    </oc>
+    <nc r="F22">
+      <v>100</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <ris rId="21" sheetId="6" name="[LFCRM.xlsx]Bug" sheetPosition="5"/>
+  <rcc rId="22" sId="6">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Page</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="6">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Summary</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="24" sId="6" eol="1" ref="A2:XFD2" action="insertRow"/>
+  <rcc rId="25" sId="6">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>Title Manager</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="A1:B1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="A1:B1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="A1:B1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="26" sId="6" odxf="1" quotePrefix="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>- Unable to search Title after Add/Edit/Delete Title</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rfmt sheetId="6" sqref="B1:B1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="B1:B1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="A1:A1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="54" sId="2" numFmtId="19">
+    <nc r="V8">
+      <v>42391</v>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="V15">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="2">
+    <oc r="I15" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I15" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="42" sId="4">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>error label</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="4">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>label label-danger</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="39" sId="2">
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <userInfo guid="{4FF48482-CBED-46EB-9498-82E76DF468C3}" name="tan.thanh.vo" id="-1397639471" dateTime="2016-01-22T08:56:09"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1246,13 +2108,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -1261,28 +2123,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="54"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="54"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="54"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="43" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1290,56 +2152,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="54"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="54"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="54"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="54"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="54"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="54"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1348,35 +2210,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="54"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="54"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="54"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="54"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1384,8 +2246,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="54"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -1393,15 +2255,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="54"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="54"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1411,8 +2273,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="54"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1420,7 +2282,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="54"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1429,10 +2291,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1442,8 +2304,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="51"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +2313,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1460,7 +2322,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -1498,11 +2360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AT46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:AT45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1523,82 +2384,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="3" spans="1:46">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="73">
-        <f ca="1">SUMIF(E9:F45,"P1",F9:F45)/16</f>
-        <v>25.125</v>
-      </c>
-      <c r="D3" s="73">
-        <f ca="1">SUMIF(E9:G45,"P1",G9:G45)/16</f>
-        <v>8.1875</v>
-      </c>
-      <c r="E3" s="73">
+      <c r="C3" s="41">
+        <f ca="1">SUMIF(E9:F44,"P1",F9:F44)/16</f>
+        <v>27</v>
+      </c>
+      <c r="D3" s="41">
+        <f ca="1">SUMIF(E9:G44,"P1",G9:G44)/16</f>
+        <v>9.6875</v>
+      </c>
+      <c r="E3" s="41">
         <f ca="1">C3-D3</f>
-        <v>16.9375</v>
+        <v>17.3125</v>
       </c>
     </row>
     <row r="4" spans="1:46">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="73">
-        <f ca="1">SUMIF(E9:F45,"P2",F9:F45)/16</f>
+      <c r="C4" s="41">
+        <f ca="1">SUMIF(E9:F44,"P2",F9:F44)/16</f>
         <v>5</v>
       </c>
-      <c r="D4" s="73">
-        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+      <c r="D4" s="41">
+        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="41">
         <f t="shared" ref="E4:E6" ca="1" si="0">C4-D4</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:46">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="73">
-        <f ca="1">SUMIF(E9:F45,"P3",F9:F45)/16</f>
+      <c r="C5" s="41">
+        <f ca="1">SUMIF(E9:F44,"P3",F9:F44)/16</f>
         <v>6</v>
       </c>
-      <c r="D5" s="73">
-        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+      <c r="D5" s="41">
+        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:46">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="73">
-        <f ca="1">SUMIF(E9:F45,"P4",F9:F45)/16</f>
+      <c r="C6" s="41">
+        <f ca="1">SUMIF(E9:F44,"P4",F9:F44)/16</f>
         <v>6</v>
       </c>
-      <c r="D6" s="73">
-        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
+      <c r="D6" s="41">
+        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
@@ -1664,7 +2525,9 @@
       <c r="U8" s="33">
         <v>42390</v>
       </c>
-      <c r="V8" s="33"/>
+      <c r="V8" s="33">
+        <v>42391</v>
+      </c>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
@@ -1691,13 +2554,13 @@
       <c r="AT8" s="33"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="25" t="s">
         <v>107</v>
       </c>
@@ -1757,11 +2620,11 @@
       <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="B10" s="59"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="25" t="s">
         <v>107</v>
       </c>
@@ -1825,10 +2688,10 @@
       <c r="AT10" s="26"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -1844,7 +2707,9 @@
         <f t="shared" ref="G11" si="1">SUM(J11:BP11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="I11" s="21" t="s">
         <v>67</v>
       </c>
@@ -1886,9 +2751,9 @@
       <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
     </row>
-    <row r="12" spans="1:46">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
+    <row r="12" spans="1:46" ht="30">
+      <c r="B12" s="66"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="22" t="s">
         <v>104</v>
       </c>
@@ -1900,7 +2765,7 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(J12:BP12)</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>122</v>
@@ -1931,7 +2796,9 @@
       <c r="T12" s="21">
         <v>8</v>
       </c>
-      <c r="U12" s="21"/>
+      <c r="U12" s="21">
+        <v>8</v>
+      </c>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -1958,9 +2825,9 @@
       <c r="AS12" s="21"/>
       <c r="AT12" s="21"/>
     </row>
-    <row r="13" spans="1:46">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
+    <row r="13" spans="1:46" ht="30" hidden="1">
+      <c r="B13" s="66"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="22" t="s">
         <v>105</v>
       </c>
@@ -2014,8 +2881,8 @@
       <c r="AT13" s="21"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -2029,13 +2896,13 @@
       </c>
       <c r="G14" s="21">
         <f>SUM(J14:BP14)</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>124</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2060,7 +2927,9 @@
       <c r="T14" s="21">
         <v>8</v>
       </c>
-      <c r="U14" s="21"/>
+      <c r="U14" s="21">
+        <v>8</v>
+      </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -2087,9 +2956,9 @@
       <c r="AS14" s="21"/>
       <c r="AT14" s="21"/>
     </row>
-    <row r="15" spans="1:46">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
+    <row r="15" spans="1:46" ht="30">
+      <c r="B15" s="66"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="23" t="s">
         <v>127</v>
       </c>
@@ -2101,13 +2970,13 @@
       </c>
       <c r="G15" s="21">
         <f t="shared" ref="G15" si="2">SUM(J15:BP15)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>124</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -2121,7 +2990,9 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="V15" s="21">
+        <v>8</v>
+      </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -2147,9 +3018,9 @@
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
     </row>
-    <row r="16" spans="1:46">
-      <c r="B16" s="60"/>
-      <c r="C16" s="57"/>
+    <row r="16" spans="1:46" hidden="1">
+      <c r="B16" s="66"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
@@ -2202,9 +3073,9 @@
       <c r="AS16" s="21"/>
       <c r="AT16" s="21"/>
     </row>
-    <row r="17" spans="2:46">
-      <c r="B17" s="60"/>
-      <c r="C17" s="56" t="s">
+    <row r="17" spans="2:46" hidden="1">
+      <c r="B17" s="66"/>
+      <c r="C17" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -2259,9 +3130,9 @@
       <c r="AS17" s="21"/>
       <c r="AT17" s="21"/>
     </row>
-    <row r="18" spans="2:46">
-      <c r="B18" s="60"/>
-      <c r="C18" s="56"/>
+    <row r="18" spans="2:46" hidden="1">
+      <c r="B18" s="66"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="23" t="s">
         <v>70</v>
       </c>
@@ -2314,9 +3185,9 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
     </row>
-    <row r="19" spans="2:46">
-      <c r="B19" s="60"/>
-      <c r="C19" s="56"/>
+    <row r="19" spans="2:46" hidden="1">
+      <c r="B19" s="66"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="23" t="s">
         <v>27</v>
       </c>
@@ -2369,9 +3240,9 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46">
-      <c r="B20" s="60"/>
-      <c r="C20" s="56"/>
+    <row r="20" spans="2:46" hidden="1">
+      <c r="B20" s="66"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="23" t="s">
         <v>71</v>
       </c>
@@ -2425,8 +3296,8 @@
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:46">
-      <c r="B21" s="60"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="23" t="s">
@@ -2436,7 +3307,7 @@
         <v>107</v>
       </c>
       <c r="F21" s="21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" ref="G21:G25" si="3">SUM(J21:BP21)</f>
@@ -2485,8 +3356,8 @@
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:46">
-      <c r="B22" s="60"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +3365,7 @@
         <v>107</v>
       </c>
       <c r="F22" s="21">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="3"/>
@@ -2542,9 +3413,9 @@
       <c r="AS22" s="24"/>
       <c r="AT22" s="24"/>
     </row>
-    <row r="23" spans="2:46">
-      <c r="B23" s="60"/>
-      <c r="C23" s="56"/>
+    <row r="23" spans="2:46" ht="30">
+      <c r="B23" s="66"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="23" t="s">
         <v>91</v>
       </c>
@@ -2600,9 +3471,9 @@
       <c r="AS23" s="24"/>
       <c r="AT23" s="24"/>
     </row>
-    <row r="24" spans="2:46">
-      <c r="B24" s="60"/>
-      <c r="C24" s="56"/>
+    <row r="24" spans="2:46" ht="30">
+      <c r="B24" s="66"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="23" t="s">
         <v>90</v>
       </c>
@@ -2658,9 +3529,9 @@
       <c r="AS24" s="24"/>
       <c r="AT24" s="24"/>
     </row>
-    <row r="25" spans="2:46">
-      <c r="B25" s="60"/>
-      <c r="C25" s="56"/>
+    <row r="25" spans="2:46" ht="30">
+      <c r="B25" s="66"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="23" t="s">
         <v>92</v>
       </c>
@@ -2716,9 +3587,9 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46">
-      <c r="B26" s="60"/>
-      <c r="C26" s="56" t="s">
+    <row r="26" spans="2:46" hidden="1">
+      <c r="B26" s="66"/>
+      <c r="C26" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -2773,9 +3644,9 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46">
-      <c r="B27" s="60"/>
-      <c r="C27" s="56"/>
+    <row r="27" spans="2:46" hidden="1">
+      <c r="B27" s="66"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="23" t="s">
         <v>74</v>
       </c>
@@ -2828,9 +3699,9 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46">
-      <c r="B28" s="60"/>
-      <c r="C28" s="56" t="s">
+    <row r="28" spans="2:46" hidden="1">
+      <c r="B28" s="66"/>
+      <c r="C28" s="62" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -2885,9 +3756,9 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46">
-      <c r="B29" s="60"/>
-      <c r="C29" s="56"/>
+    <row r="29" spans="2:46" hidden="1">
+      <c r="B29" s="66"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="23" t="s">
         <v>89</v>
       </c>
@@ -2940,9 +3811,9 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46">
-      <c r="B30" s="60"/>
-      <c r="C30" s="56" t="s">
+    <row r="30" spans="2:46" hidden="1">
+      <c r="B30" s="66"/>
+      <c r="C30" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -2997,9 +3868,9 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46">
-      <c r="B31" s="60"/>
-      <c r="C31" s="56"/>
+    <row r="31" spans="2:46" hidden="1">
+      <c r="B31" s="66"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="23" t="s">
         <v>95</v>
       </c>
@@ -3052,9 +3923,9 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46">
-      <c r="B32" s="60"/>
-      <c r="C32" s="56" t="s">
+    <row r="32" spans="2:46" hidden="1">
+      <c r="B32" s="66"/>
+      <c r="C32" s="62" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -3109,9 +3980,9 @@
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
     </row>
-    <row r="33" spans="2:46">
-      <c r="B33" s="60"/>
-      <c r="C33" s="56"/>
+    <row r="33" spans="2:46" hidden="1">
+      <c r="B33" s="66"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="23" t="s">
         <v>99</v>
       </c>
@@ -3164,8 +4035,8 @@
       <c r="AS33" s="24"/>
       <c r="AT33" s="24"/>
     </row>
-    <row r="34" spans="2:46">
-      <c r="B34" s="59" t="s">
+    <row r="34" spans="2:46" hidden="1">
+      <c r="B34" s="65" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="29" t="s">
@@ -3223,9 +4094,9 @@
       <c r="AS34" s="24"/>
       <c r="AT34" s="24"/>
     </row>
-    <row r="35" spans="2:46">
-      <c r="B35" s="59"/>
-      <c r="C35" s="57" t="s">
+    <row r="35" spans="2:46" hidden="1">
+      <c r="B35" s="65"/>
+      <c r="C35" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -3280,9 +4151,9 @@
       <c r="AS35" s="24"/>
       <c r="AT35" s="24"/>
     </row>
-    <row r="36" spans="2:46">
-      <c r="B36" s="59"/>
-      <c r="C36" s="57"/>
+    <row r="36" spans="2:46" hidden="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="23" t="s">
         <v>74</v>
       </c>
@@ -3335,8 +4206,8 @@
       <c r="AS36" s="24"/>
       <c r="AT36" s="24"/>
     </row>
-    <row r="37" spans="2:46">
-      <c r="B37" s="59"/>
+    <row r="37" spans="2:46" hidden="1">
+      <c r="B37" s="65"/>
       <c r="C37" s="30" t="s">
         <v>96</v>
       </c>
@@ -3392,8 +4263,8 @@
       <c r="AS37" s="24"/>
       <c r="AT37" s="24"/>
     </row>
-    <row r="38" spans="2:46">
-      <c r="B38" s="59"/>
+    <row r="38" spans="2:46" hidden="1">
+      <c r="B38" s="65"/>
       <c r="C38" s="30" t="s">
         <v>97</v>
       </c>
@@ -3450,13 +4321,13 @@
       <c r="AT38" s="24"/>
     </row>
     <row r="39" spans="2:46">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="58"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="25" t="s">
         <v>107</v>
       </c>
@@ -3512,11 +4383,11 @@
       <c r="AT39" s="26"/>
     </row>
     <row r="40" spans="2:46">
-      <c r="B40" s="59"/>
-      <c r="C40" s="58" t="s">
+      <c r="B40" s="65"/>
+      <c r="C40" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="58"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="25" t="s">
         <v>107</v>
       </c>
@@ -3524,8 +4395,8 @@
         <v>16</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" ref="G40:G45" si="4">SUM(J40:BP40)</f>
-        <v>4</v>
+        <f t="shared" ref="G40:G44" si="4">SUM(J40:BP40)</f>
+        <v>5</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>123</v>
@@ -3548,7 +4419,9 @@
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
+      <c r="S40" s="26">
+        <v>1</v>
+      </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26"/>
@@ -3578,11 +4451,11 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="2:46">
-      <c r="B41" s="59"/>
-      <c r="C41" s="58" t="s">
+      <c r="B41" s="65"/>
+      <c r="C41" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="58"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="25" t="s">
         <v>107</v>
       </c>
@@ -3640,11 +4513,11 @@
       <c r="AT41" s="26"/>
     </row>
     <row r="42" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B42" s="59"/>
-      <c r="C42" s="61" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="62"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="25" t="s">
         <v>107</v>
       </c>
@@ -3700,26 +4573,25 @@
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
     </row>
-    <row r="43" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B43" s="59"/>
-      <c r="C43" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="40"/>
+    <row r="43" spans="2:46">
+      <c r="B43" s="65"/>
+      <c r="C43" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="64"/>
       <c r="E43" s="25" t="s">
         <v>107</v>
       </c>
       <c r="F43" s="25">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G43" s="21">
-        <v>1</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>124</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
@@ -3730,9 +4602,7 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
-      <c r="S43" s="26">
-        <v>1</v>
-      </c>
+      <c r="S43" s="26"/>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26"/>
@@ -3762,16 +4632,16 @@
       <c r="AT43" s="26"/>
     </row>
     <row r="44" spans="2:46">
-      <c r="B44" s="59"/>
-      <c r="C44" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="58"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="64"/>
       <c r="E44" s="25" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="4"/>
@@ -3819,266 +4689,215 @@
       <c r="AS44" s="26"/>
       <c r="AT44" s="26"/>
     </row>
-    <row r="45" spans="2:46">
-      <c r="B45" s="59"/>
-      <c r="C45" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="25">
+    <row r="45" spans="2:46" hidden="1">
+      <c r="B45" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="34">
+        <f>SUM(F9:F44)</f>
+        <v>704</v>
+      </c>
+      <c r="G45" s="34">
+        <f>SUM(G9:G43)</f>
+        <v>155</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="34">
+        <f>SUM(J9:J44)</f>
+        <v>3</v>
+      </c>
+      <c r="K45" s="34">
+        <f>SUM(K9:K44)</f>
+        <v>4</v>
+      </c>
+      <c r="L45" s="34">
+        <f>SUM(L9:L44)</f>
         <v>8</v>
       </c>
-      <c r="G45" s="21">
-        <f t="shared" si="4"/>
+      <c r="M45" s="34">
+        <f>SUM(M9:M44)</f>
+        <v>8</v>
+      </c>
+      <c r="N45" s="34">
+        <f t="shared" ref="N45" si="5">SUM(N9:N44)</f>
+        <v>4</v>
+      </c>
+      <c r="O45" s="34">
+        <f t="shared" ref="O45" si="6">SUM(O9:O44)</f>
+        <v>16</v>
+      </c>
+      <c r="P45" s="34">
+        <f t="shared" ref="P45" si="7">SUM(P9:P44)</f>
+        <v>16</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" ref="Q45" si="8">SUM(Q9:Q44)</f>
+        <v>16</v>
+      </c>
+      <c r="R45" s="34">
+        <f t="shared" ref="R45" si="9">SUM(R9:R44)</f>
+        <v>16</v>
+      </c>
+      <c r="S45" s="34">
+        <f t="shared" ref="S45" si="10">SUM(S9:S44)</f>
+        <v>16</v>
+      </c>
+      <c r="T45" s="34">
+        <f t="shared" ref="T45" si="11">SUM(T9:T44)</f>
+        <v>16</v>
+      </c>
+      <c r="U45" s="34">
+        <f t="shared" ref="U45" si="12">SUM(U9:U44)</f>
+        <v>16</v>
+      </c>
+      <c r="V45" s="34">
+        <f t="shared" ref="V45" si="13">SUM(V9:V44)</f>
+        <v>8</v>
+      </c>
+      <c r="W45" s="34">
+        <f t="shared" ref="W45" si="14">SUM(W9:W44)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="26"/>
-      <c r="AT45" s="26"/>
-    </row>
-    <row r="46" spans="2:46">
-      <c r="B46" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="34">
-        <f>SUM(F9:F45)</f>
-        <v>674</v>
-      </c>
-      <c r="G46" s="34">
-        <f>SUM(G9:G44)</f>
-        <v>131</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="34">
-        <f>SUM(J9:J45)</f>
-        <v>3</v>
-      </c>
-      <c r="K46" s="34">
-        <f>SUM(K9:K45)</f>
-        <v>4</v>
-      </c>
-      <c r="L46" s="34">
-        <f>SUM(L9:L45)</f>
-        <v>8</v>
-      </c>
-      <c r="M46" s="34">
-        <f>SUM(M9:M45)</f>
-        <v>8</v>
-      </c>
-      <c r="N46" s="34">
-        <f t="shared" ref="N46" si="5">SUM(N9:N45)</f>
-        <v>4</v>
-      </c>
-      <c r="O46" s="34">
-        <f t="shared" ref="O46" si="6">SUM(O9:O45)</f>
-        <v>16</v>
-      </c>
-      <c r="P46" s="34">
-        <f t="shared" ref="P46" si="7">SUM(P9:P45)</f>
-        <v>16</v>
-      </c>
-      <c r="Q46" s="34">
-        <f t="shared" ref="Q46" si="8">SUM(Q9:Q45)</f>
-        <v>16</v>
-      </c>
-      <c r="R46" s="34">
-        <f t="shared" ref="R46" si="9">SUM(R9:R45)</f>
-        <v>16</v>
-      </c>
-      <c r="S46" s="34">
-        <f t="shared" ref="S46" si="10">SUM(S9:S45)</f>
-        <v>16</v>
-      </c>
-      <c r="T46" s="34">
-        <f t="shared" ref="T46" si="11">SUM(T9:T45)</f>
-        <v>16</v>
-      </c>
-      <c r="U46" s="34">
-        <f t="shared" ref="U46" si="12">SUM(U9:U45)</f>
+      <c r="X45" s="34">
+        <f t="shared" ref="X45" si="15">SUM(X9:X44)</f>
         <v>0</v>
       </c>
-      <c r="V46" s="34">
-        <f t="shared" ref="V46" si="13">SUM(V9:V45)</f>
+      <c r="Y45" s="34">
+        <f t="shared" ref="Y45" si="16">SUM(Y9:Y44)</f>
         <v>0</v>
       </c>
-      <c r="W46" s="34">
-        <f t="shared" ref="W46" si="14">SUM(W9:W45)</f>
+      <c r="Z45" s="34">
+        <f t="shared" ref="Z45" si="17">SUM(Z9:Z44)</f>
         <v>0</v>
       </c>
-      <c r="X46" s="34">
-        <f t="shared" ref="X46" si="15">SUM(X9:X45)</f>
+      <c r="AA45" s="34">
+        <f t="shared" ref="AA45" si="18">SUM(AA9:AA44)</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="34">
-        <f t="shared" ref="Y46" si="16">SUM(Y9:Y45)</f>
+      <c r="AB45" s="34">
+        <f t="shared" ref="AB45" si="19">SUM(AB9:AB44)</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="34">
-        <f t="shared" ref="Z46" si="17">SUM(Z9:Z45)</f>
+      <c r="AC45" s="34">
+        <f t="shared" ref="AC45" si="20">SUM(AC9:AC44)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="34">
-        <f t="shared" ref="AA46" si="18">SUM(AA9:AA45)</f>
+      <c r="AD45" s="34">
+        <f t="shared" ref="AD45" si="21">SUM(AD9:AD44)</f>
         <v>0</v>
       </c>
-      <c r="AB46" s="34">
-        <f t="shared" ref="AB46" si="19">SUM(AB9:AB45)</f>
+      <c r="AE45" s="34">
+        <f t="shared" ref="AE45" si="22">SUM(AE9:AE44)</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="34">
-        <f t="shared" ref="AC46" si="20">SUM(AC9:AC45)</f>
+      <c r="AF45" s="34">
+        <f t="shared" ref="AF45" si="23">SUM(AF9:AF44)</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="34">
-        <f t="shared" ref="AD46" si="21">SUM(AD9:AD45)</f>
+      <c r="AG45" s="34">
+        <f t="shared" ref="AG45" si="24">SUM(AG9:AG44)</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="34">
-        <f t="shared" ref="AE46" si="22">SUM(AE9:AE45)</f>
+      <c r="AH45" s="34">
+        <f t="shared" ref="AH45" si="25">SUM(AH9:AH44)</f>
         <v>0</v>
       </c>
-      <c r="AF46" s="34">
-        <f t="shared" ref="AF46" si="23">SUM(AF9:AF45)</f>
+      <c r="AI45" s="34">
+        <f t="shared" ref="AI45" si="26">SUM(AI9:AI44)</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="34">
-        <f t="shared" ref="AG46" si="24">SUM(AG9:AG45)</f>
+      <c r="AJ45" s="34">
+        <f t="shared" ref="AJ45" si="27">SUM(AJ9:AJ44)</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="34">
-        <f t="shared" ref="AH46" si="25">SUM(AH9:AH45)</f>
+      <c r="AK45" s="34">
+        <f t="shared" ref="AK45" si="28">SUM(AK9:AK44)</f>
         <v>0</v>
       </c>
-      <c r="AI46" s="34">
-        <f t="shared" ref="AI46" si="26">SUM(AI9:AI45)</f>
+      <c r="AL45" s="34">
+        <f t="shared" ref="AL45" si="29">SUM(AL9:AL44)</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="34">
-        <f t="shared" ref="AJ46" si="27">SUM(AJ9:AJ45)</f>
+      <c r="AM45" s="34">
+        <f t="shared" ref="AM45" si="30">SUM(AM9:AM44)</f>
         <v>0</v>
       </c>
-      <c r="AK46" s="34">
-        <f t="shared" ref="AK46" si="28">SUM(AK9:AK45)</f>
+      <c r="AN45" s="34">
+        <f t="shared" ref="AN45" si="31">SUM(AN9:AN44)</f>
         <v>0</v>
       </c>
-      <c r="AL46" s="34">
-        <f t="shared" ref="AL46" si="29">SUM(AL9:AL45)</f>
+      <c r="AO45" s="34">
+        <f t="shared" ref="AO45:AT45" si="32">SUM(AO9:AO44)</f>
         <v>0</v>
       </c>
-      <c r="AM46" s="34">
-        <f t="shared" ref="AM46" si="30">SUM(AM9:AM45)</f>
-        <v>0</v>
-      </c>
-      <c r="AN46" s="34">
-        <f t="shared" ref="AN46" si="31">SUM(AN9:AN45)</f>
-        <v>0</v>
-      </c>
-      <c r="AO46" s="34">
-        <f t="shared" ref="AO46:AT46" si="32">SUM(AO9:AO45)</f>
-        <v>0</v>
-      </c>
-      <c r="AP46" s="34">
+      <c r="AP45" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ46" s="34">
+      <c r="AQ45" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AR46" s="34">
+      <c r="AR45" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS46" s="34">
+      <c r="AS45" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AT46" s="34">
+      <c r="AT45" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT46">
-    <filterColumn colId="3"/>
+  <autoFilter ref="B8:AT45">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P1"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B7:AT45">
-        <filterColumn colId="3"/>
+      <autoFilter ref="B8:AT45">
+        <filterColumn colId="3">
+          <filters>
+            <filter val="P1"/>
+          </filters>
+        </filterColumn>
       </autoFilter>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H8" sqref="H8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B2:AT40"/>
+      <autoFilter ref="B8:AT45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B11:B33"/>
@@ -4089,7 +4908,7 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C42:D42"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I46">
+  <conditionalFormatting sqref="I9:I45">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -4097,13 +4916,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I46">
+  <conditionalFormatting sqref="I9:I45">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I45">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4116,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4139,7 +4958,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4147,47 +4966,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="64"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="64"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="64"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="64"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="64"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="65"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="69" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4198,17 +5017,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="64"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="64"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -4219,7 +5038,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="71"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -4237,48 +5056,48 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="72"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="64"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="64"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="64"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="64"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="65"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:4">
@@ -4306,7 +5125,7 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4314,35 +5133,35 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="69"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="69"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="42" t="s">
-        <v>143</v>
+      <c r="B30" s="75"/>
+      <c r="C30" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="69"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="69"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="69" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4350,29 +5169,29 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="64"/>
-      <c r="C34" s="42" t="s">
-        <v>143</v>
+      <c r="B34" s="70"/>
+      <c r="C34" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="64"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="64"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="65"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="69" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4383,17 +5202,17 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="64"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="65"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4401,29 +5220,29 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="64"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="64"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="64"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="65"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="72" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -4440,7 +5259,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="67"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="19" t="s">
         <v>56</v>
       </c>
@@ -4449,14 +5268,14 @@
       <c r="F47" s="27"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="68"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="19"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="72" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -4467,7 +5286,7 @@
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="67"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
@@ -4476,14 +5295,14 @@
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="68"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="19"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="72" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -4494,7 +5313,7 @@
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="67"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="19" t="s">
         <v>58</v>
       </c>
@@ -4503,7 +5322,7 @@
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="67"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="19" t="s">
         <v>51</v>
       </c>
@@ -4512,7 +5331,7 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="67"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="19" t="s">
         <v>61</v>
       </c>
@@ -4521,7 +5340,7 @@
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="68"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="19"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
@@ -4529,8 +5348,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A29">
-      <selection activeCell="F35" sqref="F35"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A16">
+      <selection activeCell="F33" sqref="F33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
@@ -4560,7 +5379,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4610,8 +5429,12 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="37"/>
@@ -4648,12 +5471,12 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -4664,6 +5487,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B3"/>
   <sheetViews>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -19,26 +19,27 @@
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$T</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$V</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$45</definedName>
     <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_E306D1C2_9C23_4D59_9C34_FB139C6DDF28_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
     <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
-    <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
   <si>
     <t>User login</t>
   </si>
@@ -498,6 +499,12 @@
   </si>
   <si>
     <t>label label-danger</t>
+  </si>
+  <si>
+    <t>ResourceAllocationID</t>
+  </si>
+  <si>
+    <t>TitleAllocationID</t>
   </si>
 </sst>
 </file>
@@ -961,7 +968,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{5ED97FCA-BBA1-4DAC-A1F7-E58B9B0AC191}" diskRevisions="1" revisionId="70" version="27">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" diskRevisions="1" revisionId="115" version="41">
   <header guid="{EB2B15F7-F5C2-459A-B9BF-B637B4BE932F}" dateTime="2016-01-21T16:58:23" maxSheetId="6" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -1224,21 +1231,168 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{9BCC78D1-B919-4DCE-A36E-9CD5DAD03DB8}" dateTime="2016-01-25T09:41:44" maxSheetId="7" userName="tan.thanh.vo" r:id="rId28">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{842DEB34-8A18-430C-9A2B-8B3346E34F8C}" dateTime="2016-01-25T10:46:19" maxSheetId="7" userName="thai.pham" r:id="rId29">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1CB27065-7406-4E4A-A22E-F4A538FF0125}" dateTime="2016-01-25T10:46:33" maxSheetId="7" userName="thai.pham" r:id="rId30">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9201D71E-AF19-44AC-9A81-4F9CBCC9998A}" dateTime="2016-01-25T10:48:21" maxSheetId="7" userName="thai.pham" r:id="rId31" minRId="77" maxRId="82">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{404CF849-95AA-42BE-9FE4-A7F08B150E61}" dateTime="2016-01-25T10:48:26" maxSheetId="7" userName="thai.pham" r:id="rId32">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{86964051-4EF9-4CFD-94CB-B623634DA42B}" dateTime="2016-01-25T11:14:24" maxSheetId="7" userName="thai.pham" r:id="rId33">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1E58F619-38DD-4C37-AD9B-45034E2594AA}" dateTime="2016-01-25T11:15:05" maxSheetId="7" userName="thai.pham" r:id="rId34" minRId="89" maxRId="92">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{25D52AD5-81FB-4A49-867D-2D1D45E6E5A6}" dateTime="2016-01-25T11:15:58" maxSheetId="7" userName="thai.pham" r:id="rId35">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{18A71BFE-A8FD-4E49-B495-7988558AFEE9}" dateTime="2016-01-25T16:13:40" maxSheetId="7" userName="thai.pham" r:id="rId36">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{79657CEF-FD1D-4807-8C7B-6E19677DBBF1}" dateTime="2016-01-25T17:19:04" maxSheetId="7" userName="tan.thanh.vo" r:id="rId37" minRId="99" maxRId="100">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6BC96C53-FCF4-4CDF-9AAB-4748A617F73A}" dateTime="2016-01-25T17:48:22" maxSheetId="7" userName="thai.pham" r:id="rId38">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A1C6E8A-5FFA-4F33-A05A-140E133190B7}" dateTime="2016-01-25T17:48:41" maxSheetId="7" userName="thai.pham" r:id="rId39" minRId="105" maxRId="108">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06E0F180-88A6-49C2-8109-E0A522DA8557}" dateTime="2016-01-25T17:48:56" maxSheetId="7" userName="thai.pham" r:id="rId40">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" dateTime="2016-01-26T09:13:43" maxSheetId="7" userName="tan.thanh.vo" r:id="rId41" minRId="113">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$T</formula>
-    <oldFormula>Estimation!$J:$T</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcc rId="113" sId="2">
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
     <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
   </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
@@ -1696,6 +1850,27 @@
 
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="105" sId="2">
+    <oc r="V11">
+      <v>8</v>
+    </oc>
+    <nc r="V11"/>
+  </rcc>
+  <rcc rId="106" sId="2" numFmtId="19">
+    <nc r="W8">
+      <v>42394</v>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="2">
+    <nc r="W11">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="2">
+    <nc r="W12">
+      <v>8</v>
+    </nc>
+  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$T</formula>
@@ -1711,6 +1886,44 @@
 
 <file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="89" sId="3">
+    <oc r="C27" t="inlineStr">
+      <is>
+        <t>ID</t>
+      </is>
+    </oc>
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>ResourceAllocationID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="3">
+    <oc r="C34" t="inlineStr">
+      <is>
+        <t>ID</t>
+      </is>
+    </oc>
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>TitleAllocationID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="3">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="3">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$T</formula>
@@ -1739,33 +1952,63 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
     <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
     <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -1784,9 +2027,248 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog16111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="99" sId="2">
+    <nc r="V11">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="2">
+    <oc r="I11" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I11" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="77" sId="3" ref="A28:XFD28" action="insertRow"/>
+  <rcc rId="78" sId="3">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="3">
+    <oc r="C27" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </oc>
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>ID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="80" sId="3" ref="A35:XFD35" action="insertRow"/>
+  <rcc rId="81" sId="3">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="3">
+    <oc r="C34" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </oc>
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>ID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
   <userInfo guid="{4FF48482-CBED-46EB-9498-82E76DF468C3}" name="tan.thanh.vo" id="-1397639471" dateTime="2016-01-22T08:56:09"/>
+  <userInfo guid="{404CF849-95AA-42BE-9FE4-A7F08B150E61}" name="thai.pham" id="-598512470" dateTime="2016-01-25T10:45:02"/>
+  <userInfo guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" name="tan.thanh.vo" id="-1397669440" dateTime="2016-01-26T09:13:31"/>
 </users>
 </file>
 
@@ -2330,12 +2812,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2360,10 +2842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:AT45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2377,8 +2860,8 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="20" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
@@ -2406,11 +2889,11 @@
       </c>
       <c r="D3" s="41">
         <f ca="1">SUMIF(E9:G44,"P1",G9:G44)/16</f>
-        <v>9.6875</v>
+        <v>10.6875</v>
       </c>
       <c r="E3" s="41">
         <f ca="1">C3-D3</f>
-        <v>17.3125</v>
+        <v>16.3125</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -2528,7 +3011,9 @@
       <c r="V8" s="33">
         <v>42391</v>
       </c>
-      <c r="W8" s="33"/>
+      <c r="W8" s="33">
+        <v>42394</v>
+      </c>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
@@ -2705,13 +3190,13 @@
       </c>
       <c r="G11" s="21">
         <f t="shared" ref="G11" si="1">SUM(J11:BP11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>124</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -2726,7 +3211,9 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="W11" s="21">
+        <v>8</v>
+      </c>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
@@ -2765,7 +3252,7 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(J12:BP12)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>122</v>
@@ -2800,7 +3287,9 @@
         <v>8</v>
       </c>
       <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="W12" s="21">
+        <v>8</v>
+      </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
@@ -2825,7 +3314,7 @@
       <c r="AS12" s="21"/>
       <c r="AT12" s="21"/>
     </row>
-    <row r="13" spans="1:46" ht="30" hidden="1">
+    <row r="13" spans="1:46" ht="30">
       <c r="B13" s="66"/>
       <c r="C13" s="63"/>
       <c r="D13" s="22" t="s">
@@ -3018,7 +3507,7 @@
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
     </row>
-    <row r="16" spans="1:46" hidden="1">
+    <row r="16" spans="1:46">
       <c r="B16" s="66"/>
       <c r="C16" s="63"/>
       <c r="D16" s="22" t="s">
@@ -3073,7 +3562,7 @@
       <c r="AS16" s="21"/>
       <c r="AT16" s="21"/>
     </row>
-    <row r="17" spans="2:46" hidden="1">
+    <row r="17" spans="2:46">
       <c r="B17" s="66"/>
       <c r="C17" s="62" t="s">
         <v>68</v>
@@ -3130,7 +3619,7 @@
       <c r="AS17" s="21"/>
       <c r="AT17" s="21"/>
     </row>
-    <row r="18" spans="2:46" hidden="1">
+    <row r="18" spans="2:46">
       <c r="B18" s="66"/>
       <c r="C18" s="62"/>
       <c r="D18" s="23" t="s">
@@ -3185,7 +3674,7 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
     </row>
-    <row r="19" spans="2:46" hidden="1">
+    <row r="19" spans="2:46">
       <c r="B19" s="66"/>
       <c r="C19" s="62"/>
       <c r="D19" s="23" t="s">
@@ -3240,7 +3729,7 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46" hidden="1">
+    <row r="20" spans="2:46">
       <c r="B20" s="66"/>
       <c r="C20" s="62"/>
       <c r="D20" s="23" t="s">
@@ -3313,7 +3802,9 @@
         <f t="shared" ref="G21:G25" si="3">SUM(J21:BP21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="I21" s="21" t="s">
         <v>67</v>
       </c>
@@ -3587,7 +4078,7 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46" hidden="1">
+    <row r="26" spans="2:46">
       <c r="B26" s="66"/>
       <c r="C26" s="62" t="s">
         <v>72</v>
@@ -3644,7 +4135,7 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46" hidden="1">
+    <row r="27" spans="2:46">
       <c r="B27" s="66"/>
       <c r="C27" s="62"/>
       <c r="D27" s="23" t="s">
@@ -3699,7 +4190,7 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46" hidden="1">
+    <row r="28" spans="2:46">
       <c r="B28" s="66"/>
       <c r="C28" s="62" t="s">
         <v>96</v>
@@ -3756,7 +4247,7 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46" hidden="1">
+    <row r="29" spans="2:46">
       <c r="B29" s="66"/>
       <c r="C29" s="62"/>
       <c r="D29" s="23" t="s">
@@ -3811,7 +4302,7 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46" hidden="1">
+    <row r="30" spans="2:46">
       <c r="B30" s="66"/>
       <c r="C30" s="62" t="s">
         <v>93</v>
@@ -3868,7 +4359,7 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46" hidden="1">
+    <row r="31" spans="2:46">
       <c r="B31" s="66"/>
       <c r="C31" s="62"/>
       <c r="D31" s="23" t="s">
@@ -3923,7 +4414,7 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46" hidden="1">
+    <row r="32" spans="2:46">
       <c r="B32" s="66"/>
       <c r="C32" s="62" t="s">
         <v>97</v>
@@ -3980,7 +4471,7 @@
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
     </row>
-    <row r="33" spans="2:46" hidden="1">
+    <row r="33" spans="2:46">
       <c r="B33" s="66"/>
       <c r="C33" s="62"/>
       <c r="D33" s="23" t="s">
@@ -4035,7 +4526,7 @@
       <c r="AS33" s="24"/>
       <c r="AT33" s="24"/>
     </row>
-    <row r="34" spans="2:46" hidden="1">
+    <row r="34" spans="2:46">
       <c r="B34" s="65" t="s">
         <v>75</v>
       </c>
@@ -4094,7 +4585,7 @@
       <c r="AS34" s="24"/>
       <c r="AT34" s="24"/>
     </row>
-    <row r="35" spans="2:46" hidden="1">
+    <row r="35" spans="2:46">
       <c r="B35" s="65"/>
       <c r="C35" s="63" t="s">
         <v>72</v>
@@ -4151,7 +4642,7 @@
       <c r="AS35" s="24"/>
       <c r="AT35" s="24"/>
     </row>
-    <row r="36" spans="2:46" hidden="1">
+    <row r="36" spans="2:46">
       <c r="B36" s="65"/>
       <c r="C36" s="63"/>
       <c r="D36" s="23" t="s">
@@ -4206,7 +4697,7 @@
       <c r="AS36" s="24"/>
       <c r="AT36" s="24"/>
     </row>
-    <row r="37" spans="2:46" hidden="1">
+    <row r="37" spans="2:46">
       <c r="B37" s="65"/>
       <c r="C37" s="30" t="s">
         <v>96</v>
@@ -4263,7 +4754,7 @@
       <c r="AS37" s="24"/>
       <c r="AT37" s="24"/>
     </row>
-    <row r="38" spans="2:46" hidden="1">
+    <row r="38" spans="2:46">
       <c r="B38" s="65"/>
       <c r="C38" s="30" t="s">
         <v>97</v>
@@ -4689,7 +5180,7 @@
       <c r="AS44" s="26"/>
       <c r="AT44" s="26"/>
     </row>
-    <row r="45" spans="2:46" hidden="1">
+    <row r="45" spans="2:46">
       <c r="B45" s="61" t="s">
         <v>87</v>
       </c>
@@ -4702,7 +5193,7 @@
       </c>
       <c r="G45" s="34">
         <f>SUM(G9:G43)</f>
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="35" t="s">
@@ -4762,7 +5253,7 @@
       </c>
       <c r="W45" s="34">
         <f t="shared" ref="W45" si="14">SUM(W9:W44)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X45" s="34">
         <f t="shared" ref="X45" si="15">SUM(X9:X44)</f>
@@ -4858,17 +5349,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT45">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B8:AT45"/>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="A8">
+      <selection activeCell="H22" sqref="H22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B8:AT45"/>
+    </customSheetView>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="W8" sqref="W8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B8:AT45">
         <filterColumn colId="3">
           <filters>
@@ -4876,12 +5368,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="H8" sqref="H8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B8:AT45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
@@ -4933,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5129,202 +5615,202 @@
         <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="75"/>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="75"/>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="75"/>
-      <c r="C30" s="40" t="s">
-        <v>142</v>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="75"/>
-      <c r="C31" s="1" t="s">
-        <v>139</v>
+      <c r="C31" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="75"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="70"/>
-      <c r="C34" s="40" t="s">
-        <v>142</v>
+      <c r="C34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="70"/>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="70"/>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="70"/>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="70"/>
+      <c r="C38" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="71"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="69" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="71"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="70"/>
-      <c r="C39" s="1" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="70"/>
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="71"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="69" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="71"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="70"/>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="70"/>
-      <c r="C43" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="70"/>
       <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="70"/>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="70"/>
+      <c r="C46" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="71"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="72" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="71"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D48" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F48" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="73"/>
-      <c r="C47" s="19" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="73"/>
+      <c r="C49" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="74"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="73"/>
-      <c r="C50" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="74"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="72" t="s">
-        <v>60</v>
-      </c>
+      <c r="B52" s="73"/>
       <c r="C52" s="19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="73"/>
-      <c r="C53" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="B53" s="74"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="73"/>
+      <c r="B54" s="72" t="s">
+        <v>60</v>
+      </c>
       <c r="C54" s="19" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
@@ -5333,42 +5819,60 @@
     <row r="55" spans="2:6">
       <c r="B55" s="73"/>
       <c r="C55" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="74"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
     </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="73"/>
+      <c r="C57" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="74"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A16">
-      <selection activeCell="F33" sqref="F33"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C32" sqref="C32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B58"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B27:B33"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5379,7 +5883,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5470,13 +5974,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -5518,12 +6022,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5556,11 +6060,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -19,7 +19,7 @@
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$V</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AA</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
     <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
@@ -32,14 +32,14 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
     <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="154">
   <si>
     <t>User login</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>tbl_BugTracking</t>
-  </si>
-  <si>
-    <t>Title ID</t>
   </si>
   <si>
     <t>Date</t>
@@ -556,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,12 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,7 +796,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -822,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,20 +854,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,7 +958,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" diskRevisions="1" revisionId="115" version="41">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3A4F4953-F86C-4A2F-B5D0-9B8F85F67662}" diskRevisions="1" revisionId="204" version="72">
   <header guid="{EB2B15F7-F5C2-459A-B9BF-B637B4BE932F}" dateTime="2016-01-21T16:58:23" maxSheetId="6" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -1371,15 +1361,403 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{5CED2B73-C05D-4CF0-BB90-09C559FF1696}" dateTime="2016-01-26T15:26:06" maxSheetId="7" userName="tan.thanh.vo" r:id="rId42" minRId="116" maxRId="118">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4620E0E-7D80-401C-BA39-98CA882809D0}" dateTime="2016-01-26T15:41:10" maxSheetId="7" userName="tan.thanh.vo" r:id="rId43" minRId="121">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{79DE9AAC-6490-44AF-8905-3E1FE39F9C6B}" dateTime="2016-01-26T15:41:16" maxSheetId="7" userName="tan.thanh.vo" r:id="rId44" minRId="124" maxRId="125">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{250C79FD-85D3-4756-96E2-41CF4AD168C6}" dateTime="2016-01-26T16:05:56" maxSheetId="7" userName="tan.thanh.vo" r:id="rId45">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2EADBFB3-C502-4D05-B5E3-A92F89A5159A}" dateTime="2016-01-26T16:07:18" maxSheetId="7" userName="tan.thanh.vo" r:id="rId46" minRId="130" maxRId="131">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FCE4150D-66BE-4C1D-B475-2CEC27A944D5}" dateTime="2016-01-26T17:07:11" maxSheetId="7" userName="thai.pham" r:id="rId47">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{13AC269B-DD44-4AB2-B872-8B9A9D738DF8}" dateTime="2016-01-26T17:15:49" maxSheetId="7" userName="tan.thanh.vo" r:id="rId48">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B517156B-F9A8-4CE0-968C-59709E3C208D}" dateTime="2016-01-26T17:16:06" maxSheetId="7" userName="thai.pham" r:id="rId49" minRId="138">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C40C2A03-F204-4C64-AFC0-F2274E25FEB7}" dateTime="2016-01-26T17:16:11" maxSheetId="7" userName="thai.pham" r:id="rId50">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4CA431D1-7163-40C4-BC22-9214A97190FF}" dateTime="2016-01-27T16:19:56" maxSheetId="7" userName="thai.pham" r:id="rId51">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6E5D890F-E2B9-4592-94AE-AEBEEFA6CEBD}" dateTime="2016-01-27T17:25:57" maxSheetId="7" userName="thai.pham" r:id="rId52" minRId="145">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{48071FD7-D409-4BE1-8469-14CBC94EB34B}" dateTime="2016-01-27T17:27:18" maxSheetId="7" userName="thai.pham" r:id="rId53" minRId="148" maxRId="149">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD1C71D8-15AD-4A41-AE8F-1137C3823B6C}" dateTime="2016-01-28T17:37:20" maxSheetId="7" userName="thai.pham" r:id="rId54" minRId="152" maxRId="153">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1AFC1E0F-2CD6-4CEC-9D6F-EF16CA3AA810}" dateTime="2016-01-29T17:34:18" maxSheetId="7" userName="thai.pham" r:id="rId55" minRId="156" maxRId="157">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{487E2F32-EC1A-437D-97C4-0A208532D10E}" dateTime="2016-01-29T17:34:25" maxSheetId="7" userName="thai.pham" r:id="rId56" minRId="160">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{64BC58BE-15A8-400C-8E3B-72B41AA7432A}" dateTime="2016-01-29T17:34:29" maxSheetId="7" userName="thai.pham" r:id="rId57">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6DAA39D-CC46-4865-AA16-534C704D9B6A}" dateTime="2016-01-29T17:34:37" maxSheetId="7" userName="thai.pham" r:id="rId58">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4EABF72C-6910-47EE-9E76-8C3E6BC6A577}" dateTime="2016-02-01T10:39:24" maxSheetId="7" userName="tan.thanh.vo" r:id="rId59" minRId="167">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A6EFBCB8-78BE-4F0F-BADB-4B3955371F99}" dateTime="2016-02-01T10:51:37" maxSheetId="7" userName="thai.pham" r:id="rId60">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD36AE46-ABF0-4224-93C5-08202878DE96}" dateTime="2016-02-01T13:38:43" maxSheetId="7" userName="tan.thanh.vo" r:id="rId61">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B70BDF05-F003-4CE7-8E15-FB08DE145D35}" dateTime="2016-02-01T17:17:59" maxSheetId="7" userName="tan.thanh.vo" r:id="rId62">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A8F92934-797C-4347-A99B-0DC30A650AA0}" dateTime="2016-02-01T17:18:26" maxSheetId="7" userName="tan.thanh.vo" r:id="rId63" minRId="176" maxRId="179">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D683D3E4-FA41-415E-BC8A-8F632A524143}" dateTime="2016-02-01T17:22:39" maxSheetId="7" userName="tan.thanh.vo" r:id="rId64">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4745E2E0-C71A-4B67-9A8E-7016156B0B5B}" dateTime="2016-02-01T18:01:39" maxSheetId="7" userName="thai.pham" r:id="rId65">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F1A9BDC-0647-4CC5-8D5F-542D4BFB6F22}" dateTime="2016-02-01T18:02:05" maxSheetId="7" userName="thai.pham" r:id="rId66" minRId="186" maxRId="187">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EB6F541F-3557-4E76-AEDE-94B22110A90A}" dateTime="2016-02-01T18:02:07" maxSheetId="7" userName="thai.pham" r:id="rId67">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D875B1BC-8E1F-4E7E-B0DE-33D622D83DB2}" dateTime="2016-02-01T18:02:16" maxSheetId="7" userName="thai.pham" r:id="rId68">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CE14EF44-C539-4D0F-BA2B-70250E8CD87F}" dateTime="2016-02-02T18:02:33" maxSheetId="7" userName="thai.pham" r:id="rId69">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E8FD5CC-0781-4B83-B444-AFBAC8DE8192}" dateTime="2016-02-02T18:22:27" maxSheetId="7" userName="thai.pham" r:id="rId70" minRId="196" maxRId="197">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F539B2BF-158B-432E-B9A4-A6B13144C438}" dateTime="2016-02-02T18:22:30" maxSheetId="7" userName="thai.pham" r:id="rId71">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3A4F4953-F86C-4A2F-B5D0-9B8F85F67662}" dateTime="2016-02-02T18:23:08" maxSheetId="7" userName="thai.pham" r:id="rId72" minRId="202">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="113" sId="2">
-    <nc r="H21" t="inlineStr">
+  <rcc rId="202" sId="2">
+    <oc r="AC12">
+      <v>6</v>
+    </oc>
+    <nc r="AC12">
+      <v>6.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1101.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11011.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="124" sId="2">
+    <nc r="X21">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="2">
+    <oc r="I21" t="inlineStr">
       <is>
-        <t>Tan Vo</t>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I21" t="inlineStr">
+      <is>
+        <t>In progress</t>
       </is>
     </nc>
   </rcc>
@@ -1396,18 +1774,14 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog110111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="18" sId="2">
-    <oc r="I14" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
+  <rcc rId="121" sId="2">
+    <oc r="X11">
+      <v>8</v>
     </oc>
-    <nc r="I14" t="inlineStr">
-      <is>
-        <t>Completed</t>
-      </is>
+    <nc r="X11">
+      <v>6</v>
     </nc>
   </rcc>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
@@ -1424,6 +1798,93 @@
 </file>
 
 <file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/revisions/revisionLog1112.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="160" sId="2">
+    <oc r="F12">
+      <v>100</v>
+    </oc>
+    <nc r="F12">
+      <v>120</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1112111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="3" sId="2">
     <oc r="F21">
@@ -1454,12 +1915,147 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="148" sId="2">
+    <nc r="Y12">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="2">
+    <nc r="Y21">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$X</formula>
+    <oldFormula>Estimation!$J:$X</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="138" sId="2">
+    <nc r="X12">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="186" sId="2">
+    <nc r="AB12">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="2">
+    <oc r="G12">
+      <f>SUM(J12:BP12)</f>
+    </oc>
+    <nc r="G12">
+      <f>SUM(J12:BP12)</f>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="145" sId="2" numFmtId="19">
+    <nc r="Y8">
+      <v>42396</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$X</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11311.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="18" sId="2">
+    <oc r="I14" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I14" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$T</formula>
-    <oldFormula>Estimation!$J:$T</oldFormula>
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -1469,8 +2065,104 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/revisions/revisionLog1141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog116.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$Z</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog117.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="196" sId="2" numFmtId="19">
+    <nc r="AC8">
+      <v>42402</v>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="2">
+    <nc r="AC12">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,16 +2676,38 @@
 
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$T</formula>
-    <oldFormula>Estimation!$J:$T</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcc rId="116" sId="2" numFmtId="19">
+    <nc r="X8">
+      <v>42395</v>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="2">
+    <nc r="X11">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="118" sId="2">
+    <oc r="I11" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I11" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
     <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
   </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
@@ -2014,16 +2728,16 @@
 
 <file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
     <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -2057,12 +2771,36 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog1611111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="C14:C43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$T</formula>
-    <oldFormula>Estimation!$J:$T</oldFormula>
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -2089,6 +2827,21 @@
 
 <file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$T</formula>
+    <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -2102,7 +2855,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog17111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog171111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2118,6 +2871,81 @@
 </file>
 
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="156" sId="2" numFmtId="19">
+    <nc r="AA8">
+      <v>42398</v>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="2">
+    <nc r="AA12">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$Z</formula>
+    <oldFormula>Estimation!$J:$X</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="130" sId="2">
+    <oc r="X11">
+      <v>6</v>
+    </oc>
+    <nc r="X11">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="2">
+    <nc r="X9">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="113" sId="2">
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="99" sId="2">
     <nc r="V11">
@@ -2149,7 +2977,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog181111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2164,7 +2992,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1811111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rrc rId="77" sId="3" ref="A28:XFD28" action="insertRow"/>
   <rcc rId="78" sId="3">
@@ -2219,7 +3047,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog18111111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2236,6 +3064,66 @@
 
 <file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="176" sId="2">
+    <nc r="AB21">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="2">
+    <nc r="AB40">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="2">
+    <nc r="AB9">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="2" numFmtId="19">
+    <nc r="AB8">
+      <v>42401</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="152" sId="2" numFmtId="19">
+    <nc r="Z8">
+      <v>42397</v>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="2">
+    <nc r="Z12">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$X</formula>
+    <oldFormula>Estimation!$J:$X</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1911.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$V</formula>
@@ -2249,7 +3137,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog19111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2264,11 +3152,69 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog192.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1921.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="167" sId="3">
+    <oc r="C45" t="inlineStr">
+      <is>
+        <t>Title ID</t>
+      </is>
+    </oc>
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>3LD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <userInfo guid="{4FF48482-CBED-46EB-9498-82E76DF468C3}" name="tan.thanh.vo" id="-1397639471" dateTime="2016-01-22T08:56:09"/>
   <userInfo guid="{404CF849-95AA-42BE-9FE4-A7F08B150E61}" name="thai.pham" id="-598512470" dateTime="2016-01-25T10:45:02"/>
   <userInfo guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" name="tan.thanh.vo" id="-1397669440" dateTime="2016-01-26T09:13:31"/>
+  <userInfo guid="{DD1C71D8-15AD-4A41-AE8F-1137C3823B6C}" name="thai.pham" id="-598498151" dateTime="2016-01-29T13:43:30"/>
 </users>
 </file>
 
@@ -2590,13 +3536,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -2605,28 +3551,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="60"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="60"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="49" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2634,56 +3580,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="60"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="60"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="60"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="60"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="60"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="60"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2692,35 +3638,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="60"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="60"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="60"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="60"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -2728,8 +3674,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="60"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -2737,15 +3683,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="60"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="60"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2755,8 +3701,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="60"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +3710,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="60"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -2773,10 +3719,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2786,8 +3732,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +3741,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2804,7 +3750,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="56"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -2812,12 +3758,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2842,11 +3788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:AT45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2860,96 +3805,96 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="27" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="28" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:46">
       <c r="B3" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="41">
+        <v>106</v>
+      </c>
+      <c r="C3" s="40">
         <f ca="1">SUMIF(E9:F44,"P1",F9:F44)/16</f>
-        <v>27</v>
-      </c>
-      <c r="D3" s="41">
+        <v>28.25</v>
+      </c>
+      <c r="D3" s="40">
         <f ca="1">SUMIF(E9:G44,"P1",G9:G44)/16</f>
-        <v>10.6875</v>
-      </c>
-      <c r="E3" s="41">
+        <v>14.09375</v>
+      </c>
+      <c r="E3" s="40">
         <f ca="1">C3-D3</f>
-        <v>16.3125</v>
+        <v>14.15625</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="41">
+        <v>107</v>
+      </c>
+      <c r="C4" s="40">
         <f ca="1">SUMIF(E9:F44,"P2",F9:F44)/16</f>
         <v>5</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <f t="shared" ref="E4:E6" ca="1" si="0">C4-D4</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="41">
+        <v>108</v>
+      </c>
+      <c r="C5" s="40">
         <f ca="1">SUMIF(E9:F44,"P3",F9:F44)/16</f>
         <v>6</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="41">
+        <v>109</v>
+      </c>
+      <c r="C6" s="40">
         <f ca="1">SUMIF(E9:F44,"P4",F9:F44)/16</f>
         <v>6</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="55.5" customHeight="1">
       <c r="B8" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>1</v>
@@ -2958,19 +3903,19 @@
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="H8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>65</v>
       </c>
       <c r="J8" s="33">
         <v>42291</v>
@@ -3014,12 +3959,24 @@
       <c r="W8" s="33">
         <v>42394</v>
       </c>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
+      <c r="X8" s="33">
+        <v>42395</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>42396</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>42397</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>42398</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>42401</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>42402</v>
+      </c>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
@@ -3039,28 +3996,28 @@
       <c r="AT8" s="33"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="25">
         <v>24</v>
       </c>
       <c r="G9" s="21">
         <f>SUM(J9:BP9)+8</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -3080,11 +4037,15 @@
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
+      <c r="X9" s="26">
+        <v>1</v>
+      </c>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="AB9" s="26">
+        <v>1</v>
+      </c>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
@@ -3105,13 +4066,13 @@
       <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="B10" s="65"/>
-      <c r="C10" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="64"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="61"/>
       <c r="E10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="25">
         <v>16</v>
@@ -3121,10 +4082,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="26">
         <v>2</v>
@@ -3173,30 +4134,30 @@
       <c r="AT10" s="26"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="B11" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="21">
         <v>16</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" ref="G11" si="1">SUM(J11:BP11)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -3214,7 +4175,9 @@
       <c r="W11" s="21">
         <v>8</v>
       </c>
-      <c r="X11" s="21"/>
+      <c r="X11" s="21">
+        <v>5</v>
+      </c>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
@@ -3239,26 +4202,26 @@
       <c r="AT11" s="21"/>
     </row>
     <row r="12" spans="1:46" ht="30">
-      <c r="B12" s="66"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="21">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G12" s="21">
         <f>SUM(J12:BP12)</f>
-        <v>59</v>
+        <v>93.5</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -3290,12 +4253,24 @@
       <c r="W12" s="21">
         <v>8</v>
       </c>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
+      <c r="X12" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>6.5</v>
+      </c>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
@@ -3314,14 +4289,14 @@
       <c r="AS12" s="21"/>
       <c r="AT12" s="21"/>
     </row>
-    <row r="13" spans="1:46" ht="30">
-      <c r="B13" s="66"/>
-      <c r="C13" s="63"/>
+    <row r="13" spans="1:46" ht="30" hidden="1">
+      <c r="B13" s="65"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="21">
         <v>24</v>
@@ -3329,7 +4304,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -3370,15 +4345,15 @@
       <c r="AT13" s="21"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="B14" s="66"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="21">
         <v>55</v>
@@ -3388,10 +4363,10 @@
         <v>51</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -3446,13 +4421,13 @@
       <c r="AT14" s="21"/>
     </row>
     <row r="15" spans="1:46" ht="30">
-      <c r="B15" s="66"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="21">
         <v>16</v>
@@ -3462,10 +4437,10 @@
         <v>8</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -3507,14 +4482,14 @@
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
     </row>
-    <row r="16" spans="1:46">
-      <c r="B16" s="66"/>
-      <c r="C16" s="63"/>
+    <row r="16" spans="1:46" hidden="1">
+      <c r="B16" s="65"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="21">
         <v>24</v>
@@ -3522,7 +4497,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -3562,16 +4537,16 @@
       <c r="AS16" s="21"/>
       <c r="AT16" s="21"/>
     </row>
-    <row r="17" spans="2:46">
-      <c r="B17" s="66"/>
-      <c r="C17" s="62" t="s">
+    <row r="17" spans="2:46" hidden="1">
+      <c r="B17" s="65"/>
+      <c r="C17" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="21">
         <v>24</v>
@@ -3579,7 +4554,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -3619,14 +4594,14 @@
       <c r="AS17" s="21"/>
       <c r="AT17" s="21"/>
     </row>
-    <row r="18" spans="2:46">
-      <c r="B18" s="66"/>
-      <c r="C18" s="62"/>
+    <row r="18" spans="2:46" hidden="1">
+      <c r="B18" s="65"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="21">
         <v>16</v>
@@ -3634,7 +4609,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -3674,14 +4649,14 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
     </row>
-    <row r="19" spans="2:46">
-      <c r="B19" s="66"/>
-      <c r="C19" s="62"/>
+    <row r="19" spans="2:46" hidden="1">
+      <c r="B19" s="65"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="21">
         <v>8</v>
@@ -3689,7 +4664,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -3729,14 +4704,14 @@
       <c r="AS19" s="24"/>
       <c r="AT19" s="24"/>
     </row>
-    <row r="20" spans="2:46">
-      <c r="B20" s="66"/>
-      <c r="C20" s="62"/>
+    <row r="20" spans="2:46" hidden="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="21">
         <v>8</v>
@@ -3744,7 +4719,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3785,28 +4760,28 @@
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:46">
-      <c r="B21" s="66"/>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="64" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="21">
         <v>30</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" ref="G21:G25" si="3">SUM(J21:BP21)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -3822,11 +4797,17 @@
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
+      <c r="X21" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="24">
+        <v>4</v>
+      </c>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
+      <c r="AB21" s="24">
+        <v>6</v>
+      </c>
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
@@ -3847,13 +4828,13 @@
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:46">
-      <c r="B22" s="66"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="21">
         <v>50</v>
@@ -3864,7 +4845,7 @@
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -3905,13 +4886,13 @@
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:46" ht="30">
-      <c r="B23" s="66"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="21">
         <v>24</v>
@@ -3922,7 +4903,7 @@
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -3963,13 +4944,13 @@
       <c r="AT23" s="24"/>
     </row>
     <row r="24" spans="2:46" ht="30">
-      <c r="B24" s="66"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="21">
         <v>24</v>
@@ -3980,7 +4961,7 @@
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -4021,13 +5002,13 @@
       <c r="AT24" s="24"/>
     </row>
     <row r="25" spans="2:46" ht="30">
-      <c r="B25" s="66"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="21">
         <v>24</v>
@@ -4038,7 +5019,7 @@
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -4078,16 +5059,16 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46">
-      <c r="B26" s="66"/>
-      <c r="C26" s="62" t="s">
+    <row r="26" spans="2:46" hidden="1">
+      <c r="B26" s="65"/>
+      <c r="C26" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="E26" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="21">
         <v>16</v>
@@ -4095,7 +5076,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -4135,14 +5116,14 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46">
-      <c r="B27" s="66"/>
-      <c r="C27" s="62"/>
+    <row r="27" spans="2:46" hidden="1">
+      <c r="B27" s="65"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="21">
         <v>16</v>
@@ -4150,7 +5131,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -4190,16 +5171,16 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46">
-      <c r="B28" s="66"/>
-      <c r="C28" s="62" t="s">
-        <v>96</v>
+    <row r="28" spans="2:46" hidden="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="64" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="21">
         <v>8</v>
@@ -4207,7 +5188,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -4247,14 +5228,14 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46">
-      <c r="B29" s="66"/>
-      <c r="C29" s="62"/>
+    <row r="29" spans="2:46" hidden="1">
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="21">
         <v>16</v>
@@ -4262,7 +5243,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -4302,16 +5283,16 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46">
-      <c r="B30" s="66"/>
-      <c r="C30" s="62" t="s">
+    <row r="30" spans="2:46" hidden="1">
+      <c r="B30" s="65"/>
+      <c r="C30" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="21">
         <v>24</v>
@@ -4319,7 +5300,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -4359,14 +5340,14 @@
       <c r="AS30" s="24"/>
       <c r="AT30" s="24"/>
     </row>
-    <row r="31" spans="2:46">
-      <c r="B31" s="66"/>
-      <c r="C31" s="62"/>
+    <row r="31" spans="2:46" hidden="1">
+      <c r="B31" s="65"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="21">
         <v>24</v>
@@ -4374,7 +5355,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -4414,16 +5395,16 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:46">
-      <c r="B32" s="66"/>
-      <c r="C32" s="62" t="s">
+    <row r="32" spans="2:46" hidden="1">
+      <c r="B32" s="65"/>
+      <c r="C32" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="21">
         <v>8</v>
@@ -4431,7 +5412,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -4471,14 +5452,14 @@
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
     </row>
-    <row r="33" spans="2:46">
-      <c r="B33" s="66"/>
-      <c r="C33" s="62"/>
+    <row r="33" spans="2:46" hidden="1">
+      <c r="B33" s="65"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="21">
         <v>16</v>
@@ -4486,7 +5467,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -4526,18 +5507,18 @@
       <c r="AS33" s="24"/>
       <c r="AT33" s="24"/>
     </row>
-    <row r="34" spans="2:46">
-      <c r="B34" s="65" t="s">
-        <v>75</v>
+    <row r="34" spans="2:46" hidden="1">
+      <c r="B34" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="21">
         <v>8</v>
@@ -4545,7 +5526,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -4585,16 +5566,16 @@
       <c r="AS34" s="24"/>
       <c r="AT34" s="24"/>
     </row>
-    <row r="35" spans="2:46">
-      <c r="B35" s="65"/>
-      <c r="C35" s="63" t="s">
-        <v>72</v>
+    <row r="35" spans="2:46" hidden="1">
+      <c r="B35" s="60"/>
+      <c r="C35" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="21">
         <v>8</v>
@@ -4602,7 +5583,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -4642,14 +5623,14 @@
       <c r="AS35" s="24"/>
       <c r="AT35" s="24"/>
     </row>
-    <row r="36" spans="2:46">
-      <c r="B36" s="65"/>
-      <c r="C36" s="63"/>
+    <row r="36" spans="2:46" hidden="1">
+      <c r="B36" s="60"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="21">
         <v>8</v>
@@ -4657,7 +5638,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -4697,16 +5678,16 @@
       <c r="AS36" s="24"/>
       <c r="AT36" s="24"/>
     </row>
-    <row r="37" spans="2:46">
-      <c r="B37" s="65"/>
+    <row r="37" spans="2:46" hidden="1">
+      <c r="B37" s="60"/>
       <c r="C37" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="21">
         <v>8</v>
@@ -4714,7 +5695,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -4754,16 +5735,16 @@
       <c r="AS37" s="24"/>
       <c r="AT37" s="24"/>
     </row>
-    <row r="38" spans="2:46">
-      <c r="B38" s="65"/>
+    <row r="38" spans="2:46" hidden="1">
+      <c r="B38" s="60"/>
       <c r="C38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="E38" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="21">
         <v>8</v>
@@ -4771,7 +5752,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
@@ -4812,15 +5793,15 @@
       <c r="AT38" s="24"/>
     </row>
     <row r="39" spans="2:46">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="25">
         <v>4</v>
@@ -4830,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
@@ -4874,26 +5855,26 @@
       <c r="AT39" s="26"/>
     </row>
     <row r="40" spans="2:46">
-      <c r="B40" s="65"/>
-      <c r="C40" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="64"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="61"/>
       <c r="E40" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="25">
         <v>16</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" ref="G40:G44" si="4">SUM(J40:BP40)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" s="26">
         <v>1</v>
@@ -4921,7 +5902,9 @@
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
+      <c r="AB40" s="26">
+        <v>1</v>
+      </c>
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
@@ -4942,13 +5925,13 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="2:46">
-      <c r="B41" s="65"/>
-      <c r="C41" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="64"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="61"/>
       <c r="E41" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="25">
         <v>4</v>
@@ -4958,10 +5941,10 @@
         <v>4</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
@@ -5004,13 +5987,13 @@
       <c r="AT41" s="26"/>
     </row>
     <row r="42" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="68"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="67"/>
       <c r="E42" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="25">
         <v>5</v>
@@ -5019,10 +6002,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -5065,13 +6048,13 @@
       <c r="AT42" s="26"/>
     </row>
     <row r="43" spans="2:46">
-      <c r="B43" s="65"/>
-      <c r="C43" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="64"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="61"/>
       <c r="E43" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="25">
         <v>16</v>
@@ -5082,7 +6065,7 @@
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
@@ -5123,13 +6106,13 @@
       <c r="AT43" s="26"/>
     </row>
     <row r="44" spans="2:46">
-      <c r="B44" s="65"/>
-      <c r="C44" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="64"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="61"/>
       <c r="E44" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="25">
         <v>8</v>
@@ -5140,7 +6123,7 @@
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
@@ -5180,24 +6163,24 @@
       <c r="AS44" s="26"/>
       <c r="AT44" s="26"/>
     </row>
-    <row r="45" spans="2:46">
-      <c r="B45" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+    <row r="45" spans="2:46" hidden="1">
+      <c r="B45" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="32"/>
       <c r="F45" s="34">
         <f>SUM(F9:F44)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G45" s="34">
         <f>SUM(G9:G43)</f>
-        <v>171</v>
+        <v>225.5</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J45" s="34">
         <f>SUM(J9:J44)</f>
@@ -5257,27 +6240,27 @@
       </c>
       <c r="X45" s="34">
         <f t="shared" ref="X45" si="15">SUM(X9:X44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y45" s="34">
         <f t="shared" ref="Y45" si="16">SUM(Y9:Y44)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z45" s="34">
         <f t="shared" ref="Z45" si="17">SUM(Z9:Z44)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA45" s="34">
         <f t="shared" ref="AA45" si="18">SUM(AA9:AA44)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB45" s="34">
         <f t="shared" ref="AB45" si="19">SUM(AB9:AB44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC45" s="34">
         <f t="shared" ref="AC45" si="20">SUM(AC9:AC44)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD45" s="34">
         <f t="shared" ref="AD45" si="21">SUM(AD9:AD44)</f>
@@ -5349,18 +6332,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT45"/>
+  <autoFilter ref="B8:AT45">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="A8">
-      <selection activeCell="H22" sqref="H22"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B8:AT45"/>
-    </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="W8" sqref="W8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B8:AT45">
         <filterColumn colId="3">
           <filters>
@@ -5369,17 +6351,14 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="F1">
+      <selection activeCell="H40" sqref="H40"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B8:AT45"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C35:C36"/>
@@ -5393,6 +6372,15 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I45">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -5421,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5444,7 +6432,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5452,79 +6440,79 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="70"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="70"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="70"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="70"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="69"/>
+      <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="70"/>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="69"/>
+      <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="70"/>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="68" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="70"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="70"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="77"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -5532,282 +6520,282 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
         <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="78"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="69"/>
+      <c r="C18" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="69"/>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="69"/>
+      <c r="C20" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="69"/>
+      <c r="C21" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="70"/>
-      <c r="C18" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="70"/>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="70"/>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="70"/>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="71"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="28"/>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="28"/>
-      <c r="C25" s="1" t="s">
-        <v>130</v>
+      <c r="C25" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="28"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="74"/>
+      <c r="C28" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="74"/>
+      <c r="C29" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="74"/>
+      <c r="C30" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="74"/>
+      <c r="C31" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="74"/>
+      <c r="C32" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="74"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="75"/>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="75"/>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="75"/>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="75"/>
-      <c r="C31" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="75"/>
-      <c r="C32" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="75"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="69" t="s">
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="69"/>
+      <c r="C35" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="69"/>
+      <c r="C36" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="69"/>
+      <c r="C37" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="69"/>
+      <c r="C38" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="70"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="70"/>
-      <c r="C35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="70"/>
-      <c r="C36" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="70"/>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="70"/>
-      <c r="C38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="71"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>139</v>
+      <c r="C40" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="70"/>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="71"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>51</v>
+      <c r="C43" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="70"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="70"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="70"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="71"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="72"/>
+      <c r="C49" s="19" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="73"/>
-      <c r="C49" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="74"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="19"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="73"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="74"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="19"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="72" t="s">
-        <v>60</v>
+      <c r="B54" s="71" t="s">
+        <v>59</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>38</v>
@@ -5817,34 +6805,34 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="73"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="73"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="73"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="74"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="19"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
@@ -5852,12 +6840,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A10">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" topLeftCell="A16">
+      <selection activeCell="I39" sqref="I39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5883,7 +6871,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5894,7 +6882,7 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>4</v>
@@ -5905,39 +6893,39 @@
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -5974,13 +6962,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C28" sqref="C28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -6000,34 +6988,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="47" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6050,21 +7038,21 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -15,20 +15,20 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AA</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$45</definedName>
-    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_E306D1C2_9C23_4D59_9C34_FB139C6DDF28_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
-    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$45</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AF</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$46</definedName>
+    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_E306D1C2_9C23_4D59_9C34_FB139C6DDF28_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="157">
   <si>
     <t>User login</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>TitleAllocationID</t>
+  </si>
+  <si>
+    <t>Thai Pham, Tan Vo</t>
+  </si>
+  <si>
+    <t>TrainResourceQuantity</t>
+  </si>
+  <si>
+    <t>Billing list</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -817,6 +826,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -958,7 +973,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3A4F4953-F86C-4A2F-B5D0-9B8F85F67662}" diskRevisions="1" revisionId="204" version="72">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{0877163A-969F-4F51-AD2F-B2A381B8E568}" diskRevisions="1" revisionId="282" version="97">
   <header guid="{EB2B15F7-F5C2-459A-B9BF-B637B4BE932F}" dateTime="2016-01-21T16:58:23" maxSheetId="6" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -1671,27 +1686,269 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{D0D8708E-7236-412F-BDCF-14588BCA3707}" dateTime="2016-02-03T17:31:13" maxSheetId="7" userName="tan.thanh.vo" r:id="rId73" minRId="205" maxRId="207">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9374FE95-E2B4-4ED9-923D-61B74900963D}" dateTime="2016-02-03T17:32:35" maxSheetId="7" userName="tan.thanh.vo" r:id="rId74" minRId="210" maxRId="212">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3C7715A1-B2BE-4122-A895-1F3B60F186B8}" dateTime="2016-02-03T17:33:39" maxSheetId="7" userName="tan.thanh.vo" r:id="rId75">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DBA90102-E550-4C8D-B5B8-28E14491C7E9}" dateTime="2016-02-03T17:34:03" maxSheetId="7" userName="tan.thanh.vo" r:id="rId76">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01208D9C-DD71-45C2-8E92-B0B8B89F4DCF}" dateTime="2016-02-03T17:50:23" maxSheetId="7" userName="thai.pham" r:id="rId77" minRId="219">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FECD1AE2-DEF7-414C-842E-C2E0DB3FC07F}" dateTime="2016-02-03T17:50:25" maxSheetId="7" userName="thai.pham" r:id="rId78">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{940C67B7-3D7A-4126-84A5-4A0275FDFF1D}" dateTime="2016-02-03T17:50:26" maxSheetId="7" userName="thai.pham" r:id="rId79">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E9F49BA-FB5B-4757-BA1D-E09CC6456607}" dateTime="2016-02-03T17:50:28" maxSheetId="7" userName="thai.pham" r:id="rId80">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0AEAA06A-B93C-4197-968D-8C096C011D45}" dateTime="2016-02-03T17:50:29" maxSheetId="7" userName="thai.pham" r:id="rId81">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{981768D2-EEFE-4C54-A218-F15F89F3FA80}" dateTime="2016-02-03T17:50:40" maxSheetId="7" userName="thai.pham" r:id="rId82">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{258AEBF0-0C38-440D-BB73-00E314CF94FF}" dateTime="2016-02-03T17:50:41" maxSheetId="7" userName="thai.pham" r:id="rId83">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D4514FFC-BBAA-4EA0-9AE3-A4810E61059F}" dateTime="2016-02-04T17:11:37" maxSheetId="7" userName="thai.pham" r:id="rId84" minRId="234" maxRId="235">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D911D875-97EF-4F45-888A-9C7679B67053}" dateTime="2016-02-05T16:23:55" maxSheetId="7" userName="thai.pham" r:id="rId85" minRId="238" maxRId="239">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{08D9EDB6-7D54-4319-B59D-E6695A635F53}" dateTime="2016-02-05T16:23:55" maxSheetId="7" userName="thai.pham" r:id="rId86">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F6AA2916-DE28-41F8-B389-50D6FCEE6007}" dateTime="2016-02-05T16:24:01" maxSheetId="7" userName="thai.pham" r:id="rId87">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B9278FB6-4224-47FD-9E9F-8C286E4C218A}" dateTime="2016-02-05T16:49:51" maxSheetId="7" userName="thai.pham" r:id="rId88" minRId="246">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D18A381B-5367-47F1-AD7C-BC9B1FEA3AE1}" dateTime="2016-02-05T16:50:24" maxSheetId="7" userName="thai.pham" r:id="rId89" minRId="249" maxRId="252">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8BE59D75-EFD3-4FC7-B4DA-9579A5659575}" dateTime="2016-02-05T16:52:42" maxSheetId="7" userName="thai.pham" r:id="rId90">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EBA70233-AB32-4756-9A75-80DFCF7267A3}" dateTime="2016-02-15T16:40:28" maxSheetId="7" userName="thai.pham" r:id="rId91" minRId="257">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8EC3B21B-3097-4EB4-95DA-EEB074B0AF9F}" dateTime="2016-02-15T18:14:32" maxSheetId="7" userName="thai.pham" r:id="rId92" minRId="260" maxRId="264">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{46817D3A-BC1B-4A8E-890E-D27A50945336}" dateTime="2016-02-15T18:15:18" maxSheetId="7" userName="thai.pham" r:id="rId93">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{540A23C2-1E82-49B3-B236-70DB08F8DADB}" dateTime="2016-02-15T18:15:20" maxSheetId="7" userName="thai.pham" r:id="rId94">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F50D5ACB-0275-4459-A023-5B8568DCAF2F}" dateTime="2016-02-15T18:15:30" maxSheetId="7" userName="thai.pham" r:id="rId95">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F5A90974-22DE-4C9C-A8FD-73791B1F0EEC}" dateTime="2016-02-16T09:23:14" maxSheetId="7" userName="thai.pham" r:id="rId96" minRId="273" maxRId="278">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0877163A-969F-4F51-AD2F-B2A381B8E568}" dateTime="2016-02-16T09:23:28" maxSheetId="7" userName="thai.pham" r:id="rId97">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="202" sId="2">
-    <oc r="AC12">
-      <v>6</v>
-    </oc>
-    <nc r="AC12">
-      <v>6.5</v>
-    </nc>
-  </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$AA</formula>
-    <oldFormula>Estimation!$J:$AA</oldFormula>
+    <formula>Estimation!$J:$AF</formula>
+    <oldFormula>Estimation!$J:$AF</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$45</formula>
-    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -1799,6 +2056,21 @@
 
 <file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AA</formula>
@@ -1812,7 +2084,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -1827,7 +2099,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog111111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -1917,6 +2189,31 @@
 
 <file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="234" sId="2" numFmtId="19">
+    <nc r="AE8">
+      <v>42404</v>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="2">
+    <nc r="AE12">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="148" sId="2">
     <nc r="Y12">
       <v>8</v>
@@ -1940,7 +2237,22 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11212.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="138" sId="2">
     <nc r="X12">
@@ -1960,22 +2272,54 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$45</formula>
-    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="249" sId="2">
+    <oc r="I44" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I44" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="2">
+    <nc r="H44" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="2">
+    <nc r="AF44">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="2">
+    <oc r="AF12">
+      <v>6.5</v>
+    </oc>
+    <nc r="AF12">
+      <v>3.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1131.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="186" sId="2">
     <nc r="AB12">
@@ -1994,26 +2338,6 @@
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$Z</formula>
     <oldFormula>Estimation!$J:$Z</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$45</formula>
-    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1131.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="145" sId="2" numFmtId="19">
-    <nc r="Y8">
-      <v>42396</v>
-    </nc>
-  </rcc>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$X</formula>
-    <oldFormula>Estimation!$J:$V</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -2050,7 +2374,131 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog11312.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="145" sId="2" numFmtId="19">
+    <nc r="Y8">
+      <v>42396</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$X</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="260" sId="2" numFmtId="19">
+    <nc r="AG8">
+      <v>42415</v>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="2">
+    <nc r="AG43">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="2">
+    <oc r="I43" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I43" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="2">
+    <nc r="H43" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="2">
+    <nc r="AG12">
+      <v>3.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="210" sId="2">
+    <oc r="H12" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </oc>
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Thai Pham, Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="2">
+    <nc r="AD12">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="2">
+    <oc r="AD21">
+      <v>6</v>
+    </oc>
+    <nc r="AD21">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11411.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$V</formula>
+    <oldFormula>Estimation!$J:$V</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11412.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2065,12 +2513,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$V</formula>
-    <oldFormula>Estimation!$J:$V</oldFormula>
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -2080,7 +2528,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1151.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2095,7 +2543,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11511.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2114,6 +2562,36 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11611.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AA</formula>
     <oldFormula>Estimation!$J:$AA</oldFormula>
   </rdn>
@@ -2125,7 +2603,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog116111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -2140,16 +2618,89 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog11612.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="205" sId="2">
+    <oc r="I21" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I21" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="2" numFmtId="19">
+    <nc r="AD8">
+      <v>42403</v>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="2">
+    <nc r="AD21">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog117.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="196" sId="2" numFmtId="19">
-    <nc r="AC8">
-      <v>42402</v>
-    </nc>
-  </rcc>
-  <rcc rId="197" sId="2">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="219" sId="2">
+    <oc r="AD12">
+      <v>3</v>
+    </oc>
+    <nc r="AD12">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11711.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="202" sId="2">
+    <oc r="AC12">
+      <v>6</v>
+    </oc>
     <nc r="AC12">
-      <v>6</v>
+      <v>6.5</v>
     </nc>
   </rcc>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
@@ -2165,12 +2716,234 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog117111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="196" sId="2" numFmtId="19">
+    <nc r="AC8">
+      <v>42402</v>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="2">
+    <nc r="AC12">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AA</formula>
+    <oldFormula>Estimation!$J:$AA</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1172.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="238" sId="2" numFmtId="19">
+    <nc r="AF8">
+      <v>42405</v>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="2">
+    <nc r="AF12">
+      <v>6.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11721.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog118.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AF</formula>
+    <oldFormula>Estimation!$J:$AF</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11811.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="2" sqref="D12" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1182.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AF</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11821.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="246" sId="2">
+    <oc r="I12" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I12" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog118211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog119.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$T</formula>
     <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="257" sId="3">
+    <nc r="C39" t="inlineStr">
+      <is>
+        <t>TrainResourceQuantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AE</formula>
+    <oldFormula>Estimation!$J:$AE</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1201.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AC</formula>
+    <oldFormula>Estimation!$J:$AC</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -2252,6 +3025,73 @@
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$T</formula>
     <oldFormula>Estimation!$J:$T</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$45</formula>
+    <oldFormula>Estimation!$B$8:$AT$45</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog122.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="273" sId="2" ref="A26:XFD26" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$AF$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$N$1048576" dn="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" sId="2"/>
+  </rrc>
+  <rcc rId="274" sId="2">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>P1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="2">
+    <nc r="F26">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="2">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>Billing list</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="2">
+    <nc r="I26" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="2">
+    <nc r="H26" t="inlineStr">
+      <is>
+        <t>Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AF</formula>
+    <oldFormula>Estimation!$J:$AF</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1221.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AF</formula>
+    <oldFormula>Estimation!$J:$AF</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$45</formula>
@@ -3210,11 +4050,12 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
   <userInfo guid="{4FF48482-CBED-46EB-9498-82E76DF468C3}" name="tan.thanh.vo" id="-1397639471" dateTime="2016-01-22T08:56:09"/>
   <userInfo guid="{404CF849-95AA-42BE-9FE4-A7F08B150E61}" name="thai.pham" id="-598512470" dateTime="2016-01-25T10:45:02"/>
   <userInfo guid="{7658FDAF-1652-4EA2-AFFF-8DCA8D297AD5}" name="tan.thanh.vo" id="-1397669440" dateTime="2016-01-26T09:13:31"/>
   <userInfo guid="{DD1C71D8-15AD-4A41-AE8F-1137C3823B6C}" name="thai.pham" id="-598498151" dateTime="2016-01-29T13:43:30"/>
+  <userInfo guid="{0877163A-969F-4F51-AD2F-B2A381B8E568}" name="thai.pham" id="-598501126" dateTime="2016-02-16T09:20:41"/>
 </users>
 </file>
 
@@ -3536,13 +4377,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3551,28 +4392,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="59"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="59"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="59"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="48" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -3580,56 +4421,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="59"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="59"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="59"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="59"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="59"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="59"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="53" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3638,35 +4479,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="59"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="59"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="59"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="59"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -3674,8 +4515,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="59"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -3683,15 +4524,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="59"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="59"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -3701,8 +4542,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="59"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -3710,7 +4551,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="59"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -3719,10 +4560,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3732,8 +4573,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -3741,7 +4582,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="56"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3750,7 +4591,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="55"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -3789,9 +4630,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AT45"/>
+  <dimension ref="A2:AT46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3805,8 +4648,10 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="27" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="28" max="45" width="3.5703125" customWidth="1"/>
+    <col min="13" max="31" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="45" width="3.5703125" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
@@ -3829,16 +4674,16 @@
         <v>106</v>
       </c>
       <c r="C3" s="40">
-        <f ca="1">SUMIF(E9:F44,"P1",F9:F44)/16</f>
-        <v>28.25</v>
+        <f ca="1">SUMIF(E9:F45,"P1",F9:F45)/16</f>
+        <v>29.25</v>
       </c>
       <c r="D3" s="40">
-        <f ca="1">SUMIF(E9:G44,"P1",G9:G44)/16</f>
-        <v>14.09375</v>
+        <f ca="1">SUMIF(E9:G45,"P1",G9:G45)/16</f>
+        <v>16.34375</v>
       </c>
       <c r="E3" s="40">
         <f ca="1">C3-D3</f>
-        <v>14.15625</v>
+        <v>12.90625</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -3846,11 +4691,11 @@
         <v>107</v>
       </c>
       <c r="C4" s="40">
-        <f ca="1">SUMIF(E9:F44,"P2",F9:F44)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P2",F9:F45)/16</f>
         <v>5</v>
       </c>
       <c r="D4" s="40">
-        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>0</v>
       </c>
       <c r="E4" s="40">
@@ -3863,11 +4708,11 @@
         <v>108</v>
       </c>
       <c r="C5" s="40">
-        <f ca="1">SUMIF(E9:F44,"P3",F9:F44)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P3",F9:F45)/16</f>
         <v>6</v>
       </c>
       <c r="D5" s="40">
-        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>0</v>
       </c>
       <c r="E5" s="40">
@@ -3880,11 +4725,11 @@
         <v>109</v>
       </c>
       <c r="C6" s="40">
-        <f ca="1">SUMIF(E9:F44,"P4",F9:F44)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P4",F9:F45)/16</f>
         <v>6</v>
       </c>
       <c r="D6" s="40">
-        <f ca="1">SUMIF(E9:G44,"P2",G9:G44)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>0</v>
       </c>
       <c r="E6" s="40">
@@ -3977,10 +4822,18 @@
       <c r="AC8" s="33">
         <v>42402</v>
       </c>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
+      <c r="AD8" s="33">
+        <v>42403</v>
+      </c>
+      <c r="AE8" s="33">
+        <v>42404</v>
+      </c>
+      <c r="AF8" s="33">
+        <v>42405</v>
+      </c>
+      <c r="AG8" s="33">
+        <v>42415</v>
+      </c>
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="33"/>
@@ -3996,13 +4849,13 @@
       <c r="AT8" s="33"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="25" t="s">
         <v>106</v>
       </c>
@@ -4066,11 +4919,11 @@
       <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="25" t="s">
         <v>106</v>
       </c>
@@ -4134,10 +4987,10 @@
       <c r="AT10" s="26"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -4202,9 +5055,9 @@
       <c r="AT11" s="21"/>
     </row>
     <row r="12" spans="1:46" ht="30">
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="48" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -4215,13 +5068,13 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(J12:BP12)</f>
-        <v>93.5</v>
+        <v>118.5</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -4271,10 +5124,18 @@
       <c r="AC12" s="21">
         <v>6.5</v>
       </c>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+      <c r="AD12" s="21">
+        <v>11</v>
+      </c>
+      <c r="AE12" s="21">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>3.5</v>
+      </c>
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
@@ -4290,8 +5151,8 @@
       <c r="AT12" s="21"/>
     </row>
     <row r="13" spans="1:46" ht="30" hidden="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="22" t="s">
         <v>104</v>
       </c>
@@ -4345,8 +5206,8 @@
       <c r="AT13" s="21"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="B14" s="65"/>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -4421,8 +5282,8 @@
       <c r="AT14" s="21"/>
     </row>
     <row r="15" spans="1:46" ht="30">
-      <c r="B15" s="65"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="23" t="s">
         <v>126</v>
       </c>
@@ -4483,8 +5344,8 @@
       <c r="AT15" s="21"/>
     </row>
     <row r="16" spans="1:46" hidden="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
@@ -4538,8 +5399,8 @@
       <c r="AT16" s="21"/>
     </row>
     <row r="17" spans="2:46" hidden="1">
-      <c r="B17" s="65"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="66" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -4595,8 +5456,8 @@
       <c r="AT17" s="21"/>
     </row>
     <row r="18" spans="2:46" hidden="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="23" t="s">
         <v>69</v>
       </c>
@@ -4650,8 +5511,8 @@
       <c r="AT18" s="24"/>
     </row>
     <row r="19" spans="2:46" hidden="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="23" t="s">
         <v>27</v>
       </c>
@@ -4705,8 +5566,8 @@
       <c r="AT19" s="24"/>
     </row>
     <row r="20" spans="2:46" hidden="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
@@ -4760,8 +5621,8 @@
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:46">
-      <c r="B21" s="65"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="66" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="23" t="s">
@@ -4775,13 +5636,13 @@
       </c>
       <c r="G21" s="21">
         <f t="shared" ref="G21:G25" si="3">SUM(J21:BP21)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>123</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -4809,7 +5670,9 @@
         <v>6</v>
       </c>
       <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
+      <c r="AD21" s="24">
+        <v>5</v>
+      </c>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24"/>
@@ -4828,8 +5691,8 @@
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:46">
-      <c r="B22" s="65"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
@@ -4886,8 +5749,8 @@
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:46" ht="30">
-      <c r="B23" s="65"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="23" t="s">
         <v>90</v>
       </c>
@@ -4944,8 +5807,8 @@
       <c r="AT23" s="24"/>
     </row>
     <row r="24" spans="2:46" ht="30">
-      <c r="B24" s="65"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
@@ -5002,8 +5865,8 @@
       <c r="AT24" s="24"/>
     </row>
     <row r="25" spans="2:46" ht="30">
-      <c r="B25" s="65"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="23" t="s">
         <v>91</v>
       </c>
@@ -5059,22 +5922,22 @@
       <c r="AS25" s="24"/>
       <c r="AT25" s="24"/>
     </row>
-    <row r="26" spans="2:46" hidden="1">
-      <c r="B26" s="65"/>
-      <c r="C26" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>72</v>
-      </c>
+    <row r="26" spans="2:46">
+      <c r="B26" s="67"/>
+      <c r="C26" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="23"/>
       <c r="E26" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="21">
         <v>16</v>
       </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="I26" s="21" t="s">
         <v>66</v>
       </c>
@@ -5117,10 +5980,12 @@
       <c r="AT26" s="24"/>
     </row>
     <row r="27" spans="2:46" hidden="1">
-      <c r="B27" s="65"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="D27" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>109</v>
@@ -5172,18 +6037,16 @@
       <c r="AT27" s="24"/>
     </row>
     <row r="28" spans="2:46" hidden="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="64" t="s">
-        <v>95</v>
-      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="23" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -5229,16 +6092,18 @@
       <c r="AT28" s="24"/>
     </row>
     <row r="29" spans="2:46" hidden="1">
-      <c r="B29" s="65"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="66" t="s">
+        <v>95</v>
+      </c>
       <c r="D29" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -5284,18 +6149,16 @@
       <c r="AT29" s="24"/>
     </row>
     <row r="30" spans="2:46" hidden="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="64" t="s">
-        <v>92</v>
-      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" s="21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -5341,13 +6204,15 @@
       <c r="AT30" s="24"/>
     </row>
     <row r="31" spans="2:46" hidden="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="66" t="s">
+        <v>92</v>
+      </c>
       <c r="D31" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="21">
         <v>24</v>
@@ -5396,18 +6261,16 @@
       <c r="AT31" s="24"/>
     </row>
     <row r="32" spans="2:46" hidden="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="64" t="s">
-        <v>96</v>
-      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -5453,16 +6316,18 @@
       <c r="AT32" s="24"/>
     </row>
     <row r="33" spans="2:46" hidden="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="66" t="s">
+        <v>96</v>
+      </c>
       <c r="D33" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>108</v>
       </c>
       <c r="F33" s="21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -5508,20 +6373,16 @@
       <c r="AT33" s="24"/>
     </row>
     <row r="34" spans="2:46" hidden="1">
-      <c r="B34" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="23" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -5567,15 +6428,17 @@
       <c r="AT34" s="24"/>
     </row>
     <row r="35" spans="2:46" hidden="1">
-      <c r="B35" s="60"/>
-      <c r="C35" s="62" t="s">
-        <v>71</v>
+      <c r="B35" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="21">
         <v>8</v>
@@ -5624,10 +6487,12 @@
       <c r="AT35" s="24"/>
     </row>
     <row r="36" spans="2:46" hidden="1">
-      <c r="B36" s="60"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="64" t="s">
+        <v>71</v>
+      </c>
       <c r="D36" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>109</v>
@@ -5679,15 +6544,13 @@
       <c r="AT36" s="24"/>
     </row>
     <row r="37" spans="2:46" hidden="1">
-      <c r="B37" s="60"/>
-      <c r="C37" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="23" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="21">
         <v>8</v>
@@ -5736,12 +6599,12 @@
       <c r="AT37" s="24"/>
     </row>
     <row r="38" spans="2:46" hidden="1">
-      <c r="B38" s="60"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>108</v>
@@ -5792,108 +6655,97 @@
       <c r="AS38" s="24"/>
       <c r="AT38" s="24"/>
     </row>
-    <row r="39" spans="2:46">
-      <c r="B39" s="60" t="s">
+    <row r="39" spans="2:46" hidden="1">
+      <c r="B39" s="62"/>
+      <c r="C39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="21">
+        <v>8</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="24"/>
+      <c r="AS39" s="24"/>
+      <c r="AT39" s="24"/>
+    </row>
+    <row r="40" spans="2:46">
+      <c r="B40" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C40" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="25">
-        <v>4</v>
-      </c>
-      <c r="G39" s="21">
-        <f>SUM(J39:BP39)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-    </row>
-    <row r="40" spans="2:46">
-      <c r="B40" s="60"/>
-      <c r="C40" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F40" s="25">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" ref="G40:G44" si="4">SUM(J40:BP40)</f>
-        <v>6</v>
+        <f>SUM(J40:BP40)</f>
+        <v>0</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>122</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="26">
-        <v>1</v>
-      </c>
-      <c r="K40" s="26">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
-      <c r="O40" s="26">
-        <v>2</v>
-      </c>
+      <c r="O40" s="26"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
-      <c r="S40" s="26">
-        <v>1</v>
-      </c>
+      <c r="S40" s="26"/>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26"/>
@@ -5902,9 +6754,7 @@
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="26">
-        <v>1</v>
-      </c>
+      <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
@@ -5925,39 +6775,45 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="2:46">
-      <c r="B41" s="60"/>
-      <c r="C41" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="63"/>
       <c r="E41" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F41" s="25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G41" s="21">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="G41:G45" si="4">SUM(J41:BP41)</f>
+        <v>6</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>122</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="J41" s="26">
+        <v>1</v>
+      </c>
+      <c r="K41" s="26">
+        <v>1</v>
+      </c>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
-      <c r="N41" s="26">
-        <v>4</v>
-      </c>
-      <c r="O41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26">
+        <v>2</v>
+      </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
+      <c r="S41" s="26">
+        <v>1</v>
+      </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="26"/>
@@ -5966,7 +6822,9 @@
       <c r="Y41" s="26"/>
       <c r="Z41" s="26"/>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
+      <c r="AB41" s="26">
+        <v>1</v>
+      </c>
       <c r="AC41" s="26"/>
       <c r="AD41" s="26"/>
       <c r="AE41" s="26"/>
@@ -5986,23 +6844,24 @@
       <c r="AS41" s="26"/>
       <c r="AT41" s="26"/>
     </row>
-    <row r="42" spans="2:46" ht="37.5" customHeight="1">
-      <c r="B42" s="60"/>
-      <c r="C42" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="67"/>
+    <row r="42" spans="2:46">
+      <c r="B42" s="62"/>
+      <c r="C42" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="63"/>
       <c r="E42" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F42" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="21">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>79</v>
@@ -6011,12 +6870,12 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
+      <c r="N42" s="26">
+        <v>4</v>
+      </c>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
-      <c r="Q42" s="26">
-        <v>5</v>
-      </c>
+      <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
@@ -6047,25 +6906,26 @@
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
     </row>
-    <row r="43" spans="2:46">
-      <c r="B43" s="60"/>
-      <c r="C43" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="61"/>
+    <row r="43" spans="2:46" ht="37.5" customHeight="1">
+      <c r="B43" s="62"/>
+      <c r="C43" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="69"/>
       <c r="E43" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F43" s="25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="I43" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
@@ -6074,7 +6934,9 @@
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
+      <c r="Q43" s="26">
+        <v>5</v>
+      </c>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
@@ -6106,24 +6968,26 @@
       <c r="AT43" s="26"/>
     </row>
     <row r="44" spans="2:46">
-      <c r="B44" s="60"/>
-      <c r="C44" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="63"/>
       <c r="E44" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F44" s="25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="I44" s="21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
@@ -6148,7 +7012,9 @@
       <c r="AD44" s="26"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
+      <c r="AG44" s="26">
+        <v>3</v>
+      </c>
       <c r="AH44" s="26"/>
       <c r="AI44" s="26"/>
       <c r="AJ44" s="26"/>
@@ -6163,176 +7029,238 @@
       <c r="AS44" s="26"/>
       <c r="AT44" s="26"/>
     </row>
-    <row r="45" spans="2:46" hidden="1">
-      <c r="B45" s="63" t="s">
+    <row r="45" spans="2:46">
+      <c r="B45" s="62"/>
+      <c r="C45" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="25">
+        <v>8</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
+      <c r="AR45" s="26"/>
+      <c r="AS45" s="26"/>
+      <c r="AT45" s="26"/>
+    </row>
+    <row r="46" spans="2:46" hidden="1">
+      <c r="B46" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="34">
-        <f>SUM(F9:F44)</f>
-        <v>724</v>
-      </c>
-      <c r="G45" s="34">
-        <f>SUM(G9:G43)</f>
-        <v>225.5</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="34">
+        <f>SUM(F9:F45)</f>
+        <v>740</v>
+      </c>
+      <c r="G46" s="34">
+        <f>SUM(G9:G44)</f>
+        <v>258.5</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="34">
-        <f>SUM(J9:J44)</f>
+      <c r="J46" s="34">
+        <f>SUM(J9:J45)</f>
         <v>3</v>
       </c>
-      <c r="K45" s="34">
-        <f>SUM(K9:K44)</f>
+      <c r="K46" s="34">
+        <f>SUM(K9:K45)</f>
         <v>4</v>
       </c>
-      <c r="L45" s="34">
-        <f>SUM(L9:L44)</f>
+      <c r="L46" s="34">
+        <f>SUM(L9:L45)</f>
         <v>8</v>
       </c>
-      <c r="M45" s="34">
-        <f>SUM(M9:M44)</f>
+      <c r="M46" s="34">
+        <f>SUM(M9:M45)</f>
         <v>8</v>
       </c>
-      <c r="N45" s="34">
-        <f t="shared" ref="N45" si="5">SUM(N9:N44)</f>
+      <c r="N46" s="34">
+        <f t="shared" ref="N46" si="5">SUM(N9:N45)</f>
         <v>4</v>
       </c>
-      <c r="O45" s="34">
-        <f t="shared" ref="O45" si="6">SUM(O9:O44)</f>
+      <c r="O46" s="34">
+        <f t="shared" ref="O46" si="6">SUM(O9:O45)</f>
         <v>16</v>
       </c>
-      <c r="P45" s="34">
-        <f t="shared" ref="P45" si="7">SUM(P9:P44)</f>
+      <c r="P46" s="34">
+        <f t="shared" ref="P46" si="7">SUM(P9:P45)</f>
         <v>16</v>
       </c>
-      <c r="Q45" s="34">
-        <f t="shared" ref="Q45" si="8">SUM(Q9:Q44)</f>
+      <c r="Q46" s="34">
+        <f t="shared" ref="Q46" si="8">SUM(Q9:Q45)</f>
         <v>16</v>
       </c>
-      <c r="R45" s="34">
-        <f t="shared" ref="R45" si="9">SUM(R9:R44)</f>
+      <c r="R46" s="34">
+        <f t="shared" ref="R46" si="9">SUM(R9:R45)</f>
         <v>16</v>
       </c>
-      <c r="S45" s="34">
-        <f t="shared" ref="S45" si="10">SUM(S9:S44)</f>
+      <c r="S46" s="34">
+        <f t="shared" ref="S46" si="10">SUM(S9:S45)</f>
         <v>16</v>
       </c>
-      <c r="T45" s="34">
-        <f t="shared" ref="T45" si="11">SUM(T9:T44)</f>
+      <c r="T46" s="34">
+        <f t="shared" ref="T46" si="11">SUM(T9:T45)</f>
         <v>16</v>
       </c>
-      <c r="U45" s="34">
-        <f t="shared" ref="U45" si="12">SUM(U9:U44)</f>
+      <c r="U46" s="34">
+        <f t="shared" ref="U46" si="12">SUM(U9:U45)</f>
         <v>16</v>
       </c>
-      <c r="V45" s="34">
-        <f t="shared" ref="V45" si="13">SUM(V9:V44)</f>
+      <c r="V46" s="34">
+        <f t="shared" ref="V46" si="13">SUM(V9:V45)</f>
         <v>8</v>
       </c>
-      <c r="W45" s="34">
-        <f t="shared" ref="W45" si="14">SUM(W9:W44)</f>
+      <c r="W46" s="34">
+        <f t="shared" ref="W46" si="14">SUM(W9:W45)</f>
         <v>16</v>
       </c>
-      <c r="X45" s="34">
-        <f t="shared" ref="X45" si="15">SUM(X9:X44)</f>
+      <c r="X46" s="34">
+        <f t="shared" ref="X46" si="15">SUM(X9:X45)</f>
         <v>10</v>
       </c>
-      <c r="Y45" s="34">
-        <f t="shared" ref="Y45" si="16">SUM(Y9:Y44)</f>
+      <c r="Y46" s="34">
+        <f t="shared" ref="Y46" si="16">SUM(Y9:Y45)</f>
         <v>12</v>
       </c>
-      <c r="Z45" s="34">
-        <f t="shared" ref="Z45" si="17">SUM(Z9:Z44)</f>
+      <c r="Z46" s="34">
+        <f t="shared" ref="Z46" si="17">SUM(Z9:Z45)</f>
         <v>8</v>
       </c>
-      <c r="AA45" s="34">
-        <f t="shared" ref="AA45" si="18">SUM(AA9:AA44)</f>
+      <c r="AA46" s="34">
+        <f t="shared" ref="AA46" si="18">SUM(AA9:AA45)</f>
         <v>8</v>
       </c>
-      <c r="AB45" s="34">
-        <f t="shared" ref="AB45" si="19">SUM(AB9:AB44)</f>
+      <c r="AB46" s="34">
+        <f t="shared" ref="AB46" si="19">SUM(AB9:AB45)</f>
         <v>10</v>
       </c>
-      <c r="AC45" s="34">
-        <f t="shared" ref="AC45" si="20">SUM(AC9:AC44)</f>
+      <c r="AC46" s="34">
+        <f t="shared" ref="AC46" si="20">SUM(AC9:AC45)</f>
         <v>6.5</v>
       </c>
-      <c r="AD45" s="34">
-        <f t="shared" ref="AD45" si="21">SUM(AD9:AD44)</f>
+      <c r="AD46" s="34">
+        <f t="shared" ref="AD46" si="21">SUM(AD9:AD45)</f>
+        <v>16</v>
+      </c>
+      <c r="AE46" s="34">
+        <f t="shared" ref="AE46" si="22">SUM(AE9:AE45)</f>
+        <v>7</v>
+      </c>
+      <c r="AF46" s="34">
+        <f t="shared" ref="AF46" si="23">SUM(AF9:AF45)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AG46" s="34">
+        <f t="shared" ref="AG46" si="24">SUM(AG9:AG45)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AH46" s="34">
+        <f t="shared" ref="AH46" si="25">SUM(AH9:AH45)</f>
         <v>0</v>
       </c>
-      <c r="AE45" s="34">
-        <f t="shared" ref="AE45" si="22">SUM(AE9:AE44)</f>
+      <c r="AI46" s="34">
+        <f t="shared" ref="AI46" si="26">SUM(AI9:AI45)</f>
         <v>0</v>
       </c>
-      <c r="AF45" s="34">
-        <f t="shared" ref="AF45" si="23">SUM(AF9:AF44)</f>
+      <c r="AJ46" s="34">
+        <f t="shared" ref="AJ46" si="27">SUM(AJ9:AJ45)</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="34">
-        <f t="shared" ref="AG45" si="24">SUM(AG9:AG44)</f>
+      <c r="AK46" s="34">
+        <f t="shared" ref="AK46" si="28">SUM(AK9:AK45)</f>
         <v>0</v>
       </c>
-      <c r="AH45" s="34">
-        <f t="shared" ref="AH45" si="25">SUM(AH9:AH44)</f>
+      <c r="AL46" s="34">
+        <f t="shared" ref="AL46" si="29">SUM(AL9:AL45)</f>
         <v>0</v>
       </c>
-      <c r="AI45" s="34">
-        <f t="shared" ref="AI45" si="26">SUM(AI9:AI44)</f>
+      <c r="AM46" s="34">
+        <f t="shared" ref="AM46" si="30">SUM(AM9:AM45)</f>
         <v>0</v>
       </c>
-      <c r="AJ45" s="34">
-        <f t="shared" ref="AJ45" si="27">SUM(AJ9:AJ44)</f>
+      <c r="AN46" s="34">
+        <f t="shared" ref="AN46" si="31">SUM(AN9:AN45)</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="34">
-        <f t="shared" ref="AK45" si="28">SUM(AK9:AK44)</f>
+      <c r="AO46" s="34">
+        <f t="shared" ref="AO46:AT46" si="32">SUM(AO9:AO45)</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="34">
-        <f t="shared" ref="AL45" si="29">SUM(AL9:AL44)</f>
-        <v>0</v>
-      </c>
-      <c r="AM45" s="34">
-        <f t="shared" ref="AM45" si="30">SUM(AM9:AM44)</f>
-        <v>0</v>
-      </c>
-      <c r="AN45" s="34">
-        <f t="shared" ref="AN45" si="31">SUM(AN9:AN44)</f>
-        <v>0</v>
-      </c>
-      <c r="AO45" s="34">
-        <f t="shared" ref="AO45:AT45" si="32">SUM(AO9:AO44)</f>
-        <v>0</v>
-      </c>
-      <c r="AP45" s="34">
+      <c r="AP46" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ45" s="34">
+      <c r="AQ46" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AR45" s="34">
+      <c r="AR46" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS45" s="34">
+      <c r="AS46" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AT45" s="34">
+      <c r="AT46" s="34">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT45">
+  <autoFilter ref="B8:AT46">
     <filterColumn colId="3">
       <filters>
         <filter val="P1"/>
@@ -6341,9 +7269,10 @@
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B8:AT45">
+      <autoFilter ref="B8:AT46">
         <filterColumn colId="3">
           <filters>
             <filter val="P1"/>
@@ -6351,38 +7280,38 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="F1">
-      <selection activeCell="H40" sqref="H40"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="H15" sqref="H15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B8:AT45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="22">
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B11:B34"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B11:B33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I45">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -6390,13 +7319,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I45">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I46">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6410,7 +7339,7 @@
   <dimension ref="B2:G58"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6432,7 +7361,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6440,47 +7369,47 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="69"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="69"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="69"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="69"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="69"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="69"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="70" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6491,17 +7420,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="69"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="69"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="77" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -6512,7 +7441,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="76"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="16" t="s">
         <v>45</v>
       </c>
@@ -6530,13 +7459,13 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="77"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -6547,31 +7476,31 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="69"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="69"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="69"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="69"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:4">
@@ -6599,7 +7528,7 @@
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -6610,41 +7539,41 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="74"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="74"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="74"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="74"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="74"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="74"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="70" t="s">
         <v>139</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -6655,35 +7584,37 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="69"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="69"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="69"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="69"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="70"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="70" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="16" t="s">
@@ -6694,17 +7625,17 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="69"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="70"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -6712,29 +7643,29 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="69"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="69"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="69"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="70"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -6751,7 +7682,7 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="72"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="19" t="s">
         <v>55</v>
       </c>
@@ -6760,14 +7691,14 @@
       <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="73"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="19"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="73" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -6778,7 +7709,7 @@
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="72"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="19" t="s">
         <v>58</v>
       </c>
@@ -6787,14 +7718,14 @@
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="73"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="19"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="73" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -6805,7 +7736,7 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="72"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="19" t="s">
         <v>57</v>
       </c>
@@ -6814,7 +7745,7 @@
       <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="72"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="19" t="s">
         <v>50</v>
       </c>
@@ -6823,7 +7754,7 @@
       <c r="F56" s="27"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="72"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="19" t="s">
         <v>60</v>
       </c>
@@ -6832,7 +7763,7 @@
       <c r="F57" s="27"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="73"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="19"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
@@ -6841,7 +7772,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A10">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E29" sqref="E29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" topLeftCell="A16">

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -20,8 +20,9 @@
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$N</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
     <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
+    <definedName name="Z_5ADF00E7_CCDB_4CC6_A01A_371755DC28E4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
     <definedName name="Z_5D8FC28F_53A2_4F8F_8776_217BD8C16C44_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AQ</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AR</definedName>
     <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
     <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
     <definedName name="Z_8E258A2C_42BD_48C1_9DC0_AED40E563E0F_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$47</definedName>
@@ -38,8 +39,8 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
     <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1061,7 +1062,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{C1206A63-D947-4A23-8829-E34C2CF06632}" diskRevisions="1" revisionId="362" version="109">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3C15ACCF-681D-41DF-BDF5-88D5DF0D50A3}" diskRevisions="1" revisionId="383" version="116">
   <header guid="{E516E368-4526-4864-86D7-7D2E35779AD0}" dateTime="2016-02-19T09:30:09" maxSheetId="7" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -2152,41 +2153,121 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{4DE6231A-D373-4AA6-9651-7DB4F98DFDB3}" dateTime="2016-03-02T17:38:48" maxSheetId="7" userName="tan.thanh.vo" r:id="rId110">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F1DCAFD-4257-4C42-8EF9-5114E9A8F9D1}" dateTime="2016-03-02T17:46:22" maxSheetId="7" userName="thai.pham" r:id="rId111">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B09EDC52-EE54-4007-8DE9-92B3D0CF1433}" dateTime="2016-03-02T17:49:57" maxSheetId="7" userName="thai.pham" r:id="rId112" minRId="367" maxRId="368">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B4E580CC-1649-48C7-9413-8C9CF3EDD1A5}" dateTime="2016-03-02T17:52:23" maxSheetId="7" userName="thai.pham" r:id="rId113">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD31D204-C9F8-4C3D-94EC-18FE164873C3}" dateTime="2016-03-02T17:56:11" maxSheetId="7" userName="thai.pham" r:id="rId114" minRId="373" maxRId="374">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{76B6B8CA-DE93-4430-9534-F3FC27816299}" dateTime="2016-03-03T17:46:54" maxSheetId="7" userName="tan.thanh.vo" r:id="rId115" minRId="377" maxRId="378">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3C15ACCF-681D-41DF-BDF5-88D5DF0D50A3}" dateTime="2016-03-03T17:57:12" maxSheetId="7" userName="thai.pham" r:id="rId116" minRId="381">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcc rId="381" sId="2">
+    <nc r="AT12">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AR</formula>
+    <oldFormula>Estimation!$J:$AR</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="355" sId="2">
-    <nc r="AS31">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcc rId="367" sId="2">
+    <nc r="AS12">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="2">
+    <nc r="AS21">
+      <v>1.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AR</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -2376,6 +2457,26 @@
 
 <file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="355" sId="2">
+    <nc r="AS31">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AQ</formula>
@@ -2389,7 +2490,26 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/revisions/revisionLog11112.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rrc rId="249" sId="3" ref="A71:XFD71" action="insertRow"/>
   <rcc rId="250" sId="3">
@@ -2410,25 +2530,6 @@
   </rdn>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/revisions/revisionLog1112.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3441,11 +3542,6 @@
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="358" sId="2" numFmtId="19">
-    <nc r="AS8">
-      <v>42431</v>
-    </nc>
-  </rcc>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -3547,6 +3643,11 @@
 
 <file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="358" sId="2" numFmtId="19">
+    <nc r="AS8">
+      <v>42431</v>
+    </nc>
+  </rcc>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -3617,6 +3718,21 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog1212.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog122.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="326" sId="2">
@@ -4159,6 +4275,130 @@
 
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="377" sId="2" numFmtId="19">
+    <nc r="AT8">
+      <v>42432</v>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="2">
+    <nc r="AT31">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AR</formula>
+    <oldFormula>Estimation!$J:$AR</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AK</formula>
+    <oldFormula>Estimation!$J:$AK</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="73" sId="2">
+    <oc r="H12" t="inlineStr">
+      <is>
+        <t>Thai Pham, Tan Vo</t>
+      </is>
+    </oc>
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Thai Pham + Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="2">
+    <oc r="H9" t="inlineStr">
+      <is>
+        <t>Thai Pham, Tan Vo</t>
+      </is>
+    </oc>
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Thai Pham + Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AJ</formula>
+    <oldFormula>Estimation!$J:$AJ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1512.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="334" sId="3">
     <oc r="C72" t="inlineStr">
       <is>
@@ -4184,7 +4424,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog151211.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="111" sId="2">
     <nc r="AM12">
@@ -4195,75 +4435,6 @@
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AK</formula>
     <oldFormula>Estimation!$J:$AK</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$AK</formula>
-    <oldFormula>Estimation!$J:$AK</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="73" sId="2">
-    <oc r="H12" t="inlineStr">
-      <is>
-        <t>Thai Pham, Tan Vo</t>
-      </is>
-    </oc>
-    <nc r="H12" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="2">
-    <oc r="H9" t="inlineStr">
-      <is>
-        <t>Thai Pham, Tan Vo</t>
-      </is>
-    </oc>
-    <nc r="H9" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$AJ</formula>
-    <oldFormula>Estimation!$J:$AJ</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$47</formula>
@@ -4747,28 +4918,27 @@
 
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="189" sId="2">
-    <oc r="H44" t="inlineStr">
-      <is>
-        <t>Thai Pham</t>
-      </is>
+  <rcc rId="373" sId="2">
+    <oc r="AS21">
+      <v>1.5</v>
     </oc>
-    <nc r="H44" t="inlineStr">
-      <is>
-        <t>Thai Pham + Tan Vo</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+    <nc r="AS21"/>
+  </rcc>
+  <rcc rId="374" sId="2">
+    <nc r="AS22">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AR</formula>
+    <oldFormula>Estimation!$J:$AR</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -4858,6 +5028,48 @@
 
 <file path=xl/revisions/revisionLog18111111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog182.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1821.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="189" sId="2">
+    <oc r="H44" t="inlineStr">
+      <is>
+        <t>Thai Pham</t>
+      </is>
+    </oc>
+    <nc r="H44" t="inlineStr">
+      <is>
+        <t>Thai Pham + Tan Vo</t>
+      </is>
+    </nc>
+  </rcc>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -5382,10 +5594,8 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <userInfo guid="{7275E7A5-6492-43B3-ACB4-630C001DC7FD}" name="thai.pham" id="-598504434" dateTime="2016-02-23T13:46:51"/>
-  <userInfo guid="{361046C4-320B-456B-B7E5-8E8133C3CE56}" name="thai.pham" id="-598481367" dateTime="2016-03-02T13:53:01"/>
-  <userInfo guid="{C1206A63-D947-4A23-8829-E34C2CF06632}" name="tan.thanh.vo" id="-1397654269" dateTime="2016-03-02T17:30:02"/>
 </users>
 </file>
 
@@ -5929,12 +6139,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" state="hidden">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" state="hidden">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5959,11 +6169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:AT47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5977,20 +6186,19 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="31" width="3.5703125" customWidth="1"/>
-    <col min="32" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="35" width="3.5703125" customWidth="1"/>
-    <col min="36" max="36" width="5.7109375" customWidth="1"/>
-    <col min="37" max="37" width="4.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.7109375" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" customWidth="1"/>
-    <col min="41" max="42" width="3.5703125" customWidth="1"/>
-    <col min="43" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="4.85546875" customWidth="1"/>
-    <col min="45" max="45" width="3.5703125" customWidth="1"/>
-    <col min="46" max="46" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="31" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="41" max="42" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="5" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="5" customWidth="1"/>
+    <col min="46" max="46" width="3.7109375" customWidth="1"/>
     <col min="47" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6017,11 +6225,11 @@
       </c>
       <c r="D3" s="40">
         <f ca="1">SUMIF(E9:G46,"P1",G9:G46)/16</f>
-        <v>22.0625</v>
+        <v>22.875</v>
       </c>
       <c r="E3" s="40">
         <f ca="1">C3-D3</f>
-        <v>9.375</v>
+        <v>8.5625</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -6034,11 +6242,11 @@
       </c>
       <c r="D4" s="40">
         <f ca="1">SUMIF(E9:G46,"P2",G9:G46)/16</f>
-        <v>3.1875</v>
+        <v>3.6875</v>
       </c>
       <c r="E4" s="40">
         <f t="shared" ref="E4:E6" ca="1" si="0">C4-D4</f>
-        <v>1.8125</v>
+        <v>1.3125</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -6051,11 +6259,11 @@
       </c>
       <c r="D5" s="40">
         <f ca="1">SUMIF(E9:G46,"P2",G9:G46)/16</f>
-        <v>3.1875</v>
+        <v>3.6875</v>
       </c>
       <c r="E5" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8125</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -6068,11 +6276,11 @@
       </c>
       <c r="D6" s="40">
         <f ca="1">SUMIF(E9:G46,"P2",G9:G46)/16</f>
-        <v>3.1875</v>
+        <v>3.6875</v>
       </c>
       <c r="E6" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8125</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="55.5" customHeight="1">
@@ -6208,7 +6416,9 @@
       <c r="AS8" s="33">
         <v>42431</v>
       </c>
-      <c r="AT8" s="33"/>
+      <c r="AT8" s="33">
+        <v>42432</v>
+      </c>
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="71" t="s">
@@ -6430,7 +6640,7 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(J12:BP12)</f>
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>122</v>
@@ -6523,10 +6733,14 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-    </row>
-    <row r="13" spans="1:46" ht="30">
+      <c r="AS12" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT12" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="30" hidden="1">
       <c r="B13" s="78"/>
       <c r="C13" s="73"/>
       <c r="D13" s="22" t="s">
@@ -6719,7 +6933,7 @@
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" hidden="1">
       <c r="B16" s="78"/>
       <c r="C16" s="73"/>
       <c r="D16" s="22" t="s">
@@ -7095,7 +7309,7 @@
       </c>
       <c r="G22" s="21">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>121</v>
@@ -7146,7 +7360,9 @@
       <c r="AR22" s="24">
         <v>3.25</v>
       </c>
-      <c r="AS22" s="24"/>
+      <c r="AS22" s="24">
+        <v>1</v>
+      </c>
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:46" ht="30">
@@ -7389,7 +7605,7 @@
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
     </row>
-    <row r="27" spans="2:46">
+    <row r="27" spans="2:46" hidden="1">
       <c r="B27" s="78"/>
       <c r="C27" s="77" t="s">
         <v>71</v>
@@ -7449,7 +7665,7 @@
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
     </row>
-    <row r="28" spans="2:46">
+    <row r="28" spans="2:46" hidden="1">
       <c r="B28" s="78"/>
       <c r="C28" s="77"/>
       <c r="D28" s="23" t="s">
@@ -7507,7 +7723,7 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:46">
+    <row r="29" spans="2:46" hidden="1">
       <c r="B29" s="78"/>
       <c r="C29" s="77" t="s">
         <v>95</v>
@@ -7567,7 +7783,7 @@
       <c r="AS29" s="24"/>
       <c r="AT29" s="24"/>
     </row>
-    <row r="30" spans="2:46">
+    <row r="30" spans="2:46" hidden="1">
       <c r="B30" s="78"/>
       <c r="C30" s="77"/>
       <c r="D30" s="23" t="s">
@@ -7641,7 +7857,7 @@
       </c>
       <c r="G31" s="21">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>123</v>
@@ -7701,9 +7917,11 @@
       <c r="AS31" s="24">
         <v>8</v>
       </c>
-      <c r="AT31" s="24"/>
-    </row>
-    <row r="32" spans="2:46">
+      <c r="AT31" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" hidden="1">
       <c r="B32" s="78"/>
       <c r="C32" s="77"/>
       <c r="D32" s="23" t="s">
@@ -7761,7 +7979,7 @@
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
     </row>
-    <row r="33" spans="2:46">
+    <row r="33" spans="2:46" hidden="1">
       <c r="B33" s="78"/>
       <c r="C33" s="77" t="s">
         <v>96</v>
@@ -7821,7 +8039,7 @@
       <c r="AS33" s="24"/>
       <c r="AT33" s="24"/>
     </row>
-    <row r="34" spans="2:46">
+    <row r="34" spans="2:46" hidden="1">
       <c r="B34" s="78"/>
       <c r="C34" s="77"/>
       <c r="D34" s="23" t="s">
@@ -7879,7 +8097,7 @@
       <c r="AS34" s="24"/>
       <c r="AT34" s="24"/>
     </row>
-    <row r="35" spans="2:46">
+    <row r="35" spans="2:46" hidden="1">
       <c r="B35" s="71" t="s">
         <v>74</v>
       </c>
@@ -7941,7 +8159,7 @@
       <c r="AS35" s="24"/>
       <c r="AT35" s="24"/>
     </row>
-    <row r="36" spans="2:46">
+    <row r="36" spans="2:46" hidden="1">
       <c r="B36" s="71"/>
       <c r="C36" s="73" t="s">
         <v>71</v>
@@ -8001,7 +8219,7 @@
       <c r="AS36" s="24"/>
       <c r="AT36" s="24"/>
     </row>
-    <row r="37" spans="2:46">
+    <row r="37" spans="2:46" hidden="1">
       <c r="B37" s="71"/>
       <c r="C37" s="73"/>
       <c r="D37" s="23" t="s">
@@ -8059,7 +8277,7 @@
       <c r="AS37" s="24"/>
       <c r="AT37" s="24"/>
     </row>
-    <row r="38" spans="2:46">
+    <row r="38" spans="2:46" hidden="1">
       <c r="B38" s="71"/>
       <c r="C38" s="30" t="s">
         <v>95</v>
@@ -8119,7 +8337,7 @@
       <c r="AS38" s="24"/>
       <c r="AT38" s="24"/>
     </row>
-    <row r="39" spans="2:46">
+    <row r="39" spans="2:46" hidden="1">
       <c r="B39" s="71"/>
       <c r="C39" s="30" t="s">
         <v>96</v>
@@ -8639,7 +8857,7 @@
       <c r="AS46" s="26"/>
       <c r="AT46" s="26"/>
     </row>
-    <row r="47" spans="2:46">
+    <row r="47" spans="2:46" hidden="1">
       <c r="B47" s="76" t="s">
         <v>86</v>
       </c>
@@ -8652,7 +8870,7 @@
       </c>
       <c r="G47" s="34">
         <f>SUM(G9:G45)</f>
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="35" t="s">
@@ -8800,25 +9018,26 @@
       </c>
       <c r="AS47" s="34">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AT47" s="34">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT47"/>
+  <autoFilter ref="B8:AT47">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P1"/>
+        <filter val="P2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="H22">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B8:AT47"/>
-    </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B8:AT47">
         <filterColumn colId="3">
           <filters>
@@ -8827,6 +9046,12 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="I13">
+      <selection activeCell="AT32" sqref="AT32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B8:AT47"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
@@ -8881,8 +9106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9413,12 +9638,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A19">
+      <selection activeCell="G44" sqref="G44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" topLeftCell="A46">
       <selection activeCell="C71" sqref="C71"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A19">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9444,7 +9669,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9535,13 +9760,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0">
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -9556,7 +9781,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9597,13 +9822,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+      <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
-      <selection activeCell="E14" sqref="E14"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -9635,11 +9860,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}">
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}">
       <selection activeCell="B2" sqref="B2:B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/LFCRM.xlsx
+++ b/LFCRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown function" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15,39 +15,41 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_199BE17D_61C0_4B28_A24B_5CA82A0CAF31_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_194CDAE2_8F60_4868_91E9_CB6E2F95FDBC_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_199BE17D_61C0_4B28_A24B_5CA82A0CAF31_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_22AAF32E_D1CE_4EB7_9332_117DDE5B30B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
     <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AQ</definedName>
-    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_5ADF00E7_CCDB_4CC6_A01A_371755DC28E4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_5D8FC28F_53A2_4F8F_8776_217BD8C16C44_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$AW</definedName>
-    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_8E258A2C_42BD_48C1_9DC0_AED40E563E0F_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_8F9CFF91_DA9F_479C_A923_47F221B06FC5_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$48</definedName>
-    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_DE973881_252E_4D4B_A8B9_4BC190495E91_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_DED87C21_C2CF_450A_9EAB_78DED3A29CC8_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_E306D1C2_9C23_4D59_9C34_FB139C6DDF28_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_E7CC5A2A_A3BB_4843_8FB5_C4CF730FB867_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
-    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$48</definedName>
+    <definedName name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_552525D9_FB0C_4F4C_8051_E509F3E83E84_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_5ADF00E7_CCDB_4CC6_A01A_371755DC28E4_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_5D8FC28F_53A2_4F8F_8776_217BD8C16C44_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" localSheetId="1" hidden="1">Estimation!$J:$BD</definedName>
+    <definedName name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_777C67F5_AE67_4664_9D7D_4EDDB1C7C779_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_8E258A2C_42BD_48C1_9DC0_AED40E563E0F_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_8F9CFF91_DA9F_479C_A923_47F221B06FC5_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_973F0C0F_EC70_4C89_9CF9_57DBB5CDD9CB_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_9A269990_FD52_490B_95DC_78468AB22C10_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$A$8:$AU$46</definedName>
+    <definedName name="Z_A4715288_3867_4F79_833C_23F1205A9320_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_CD0A4720_828A_448D_9329_BE5B74C1201C_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_DE973881_252E_4D4B_A8B9_4BC190495E91_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_DED87C21_C2CF_450A_9EAB_78DED3A29CC8_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_E306D1C2_9C23_4D59_9C34_FB139C6DDF28_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_E4CEFACF_9053_49E5_87E9_64A27DAE4376_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_E7CC5A2A_A3BB_4843_8FB5_C4CF730FB867_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
+    <definedName name="Z_F560E8F9_6B00_4AFC_8391_8C082B4F8F4B_.wvu.FilterData" localSheetId="1" hidden="1">Estimation!$B$8:$AT$46</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
-    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
+    <customWorkbookView name="thai.pham - Personal View" guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
     <customWorkbookView name="tan.thanh.vo - Personal View" guid="{468D878E-36A7-4B3B-948B-709488E832B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="178">
   <si>
     <t>User login</t>
   </si>
@@ -256,12 +258,6 @@
     <t>Add upcoming PTO/DTO</t>
   </si>
   <si>
-    <t>Show by week</t>
-  </si>
-  <si>
-    <t>Show by year</t>
-  </si>
-  <si>
     <t>Device/Chip Tracking</t>
   </si>
   <si>
@@ -299,9 +295,6 @@
   </si>
   <si>
     <t>Design DB and DB Relationship</t>
-  </si>
-  <si>
-    <t>Input data to DB</t>
   </si>
   <si>
     <t>Publish LFCRM</t>
@@ -568,6 +561,35 @@
   <si>
     <t>Core Tracking</t>
   </si>
+  <si>
+    <t>tbl_TitleBugTracking</t>
+  </si>
+  <si>
+    <t>TitleBugID</t>
+  </si>
+  <si>
+    <t>TotalBugs</t>
+  </si>
+  <si>
+    <t>DataBase
+- Input data to DB
+- Sparate DB to QA and PROD</t>
+  </si>
+  <si>
+    <t>View overall PTO/DTO</t>
+  </si>
+  <si>
+    <t>tbl_OffTracking</t>
+  </si>
+  <si>
+    <t>OffID</t>
+  </si>
+  <si>
+    <t>tbl_OffCategory</t>
+  </si>
+  <si>
+    <t>OffCategoryID</t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -774,11 +796,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -915,9 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -928,6 +958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -974,6 +1014,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1019,6 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,7 +1113,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{D0B8D4B0-76A9-4597-BEC8-3D0A1B2AFBDB}" diskRevisions="1" revisionId="477" version="140">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{8985060A-49A3-4A3A-BBBD-6F00D43FDAFD}" diskRevisions="1" revisionId="565" version="160">
   <header guid="{E516E368-4526-4864-86D7-7D2E35779AD0}" dateTime="2016-02-19T09:30:09" maxSheetId="7" userName="thai.pham" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -2470,43 +2514,221 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{8F4EEA5A-8B52-460F-9DDE-76734509C2C8}" dateTime="2016-03-11T09:41:04" maxSheetId="7" userName="tan.thanh.vo" r:id="rId141" minRId="478" maxRId="488">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E3EF0B87-94C7-47F4-8725-4F2AE2624CE3}" dateTime="2016-03-11T09:42:30" maxSheetId="7" userName="tan.thanh.vo" r:id="rId142" minRId="491" maxRId="492">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F70F44D-8A85-4DF6-92D9-005F021F6F79}" dateTime="2016-03-11T09:48:13" maxSheetId="7" userName="tan.thanh.vo" r:id="rId143" minRId="495">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5E38681B-884E-4229-83A4-34A2BF2E20D3}" dateTime="2016-03-11T09:49:03" maxSheetId="7" userName="tan.thanh.vo" r:id="rId144">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F7F0CA08-E7A9-423E-BECB-590ED62FCD71}" dateTime="2016-03-11T09:49:10" maxSheetId="7" userName="tan.thanh.vo" r:id="rId145" minRId="500" maxRId="501">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6F35B3A5-E1E5-4D93-AA7A-3B924B6672DC}" dateTime="2016-03-11T09:49:38" maxSheetId="7" userName="tan.thanh.vo" r:id="rId146" minRId="504" maxRId="505">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E20BD639-0AB7-4590-BFA8-B08563B12DEC}" dateTime="2016-03-11T09:49:45" maxSheetId="7" userName="tan.thanh.vo" r:id="rId147">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF230F2C-3E97-4B8F-8997-AA209407866C}" dateTime="2016-03-11T09:51:52" maxSheetId="7" userName="tan.thanh.vo" r:id="rId148">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D7D0714B-2A7F-4AB5-BC03-90CF952F1FA8}" dateTime="2016-03-11T11:33:32" maxSheetId="7" userName="tan.thanh.vo" r:id="rId149">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E151A1B-74FE-483D-AD42-534C9A4AFDE9}" dateTime="2016-03-11T17:40:52" maxSheetId="7" userName="thai.pham" r:id="rId150" minRId="514" maxRId="516">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53F14EA1-9C69-405D-8FC5-63F245C94586}" dateTime="2016-03-11T17:41:00" maxSheetId="7" userName="tan.thanh.vo" r:id="rId151">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3893B1BC-998C-4E73-9482-6B3041CB2A02}" dateTime="2016-03-11T17:41:29" maxSheetId="7" userName="thai.pham" r:id="rId152" minRId="521">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6ACE11C7-68CB-4F0F-93DD-BA5D8BEDF66D}" dateTime="2016-03-11T17:41:33" maxSheetId="7" userName="thai.pham" r:id="rId153">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F39A0072-8186-4B35-A0E3-F0AD49039FED}" dateTime="2016-03-11T17:41:45" maxSheetId="7" userName="tan.thanh.vo" r:id="rId154" minRId="526" maxRId="527">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{86FC4997-CD36-432F-BEF7-D48AF8DBACBD}" dateTime="2016-03-14T17:34:47" maxSheetId="7" userName="tan.thanh.vo" r:id="rId155" minRId="530">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D1D1102C-B5D4-4D99-AC36-397B733A47FC}" dateTime="2016-03-14T18:05:20" maxSheetId="7" userName="thai.pham" r:id="rId156" minRId="533" maxRId="535">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C3F85E6F-7D7F-416E-9F1A-CFACAAF04AF7}" dateTime="2016-03-15T14:21:16" maxSheetId="7" userName="thai.pham" r:id="rId157" minRId="538" maxRId="540">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B080CE8F-05EE-4861-AF8B-348DE4290986}" dateTime="2016-03-15T14:50:17" maxSheetId="7" userName="thai.pham" r:id="rId158" minRId="543" maxRId="558">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA97C8C6-D3CF-4D1A-B03F-61C79E772A4C}" dateTime="2016-03-15T14:50:26" maxSheetId="7" userName="thai.pham" r:id="rId159" minRId="561">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8985060A-49A3-4A3A-BBBD-6F00D43FDAFD}" dateTime="2016-03-15T14:59:43" maxSheetId="7" userName="thai.pham" r:id="rId160">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="473" sId="2">
-    <oc r="I27" t="inlineStr">
-      <is>
-        <t>In progress</t>
-      </is>
-    </oc>
-    <nc r="I27" t="inlineStr">
-      <is>
-        <t>Completed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="474" sId="2">
-    <nc r="BA27">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="475" sId="2">
-    <nc r="BA45">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$AQ</formula>
-    <oldFormula>Estimation!$J:$AQ</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$48</formula>
-    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$BD</formula>
+    <oldFormula>Estimation!$J:$BD</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
@@ -3142,16 +3364,16 @@
 
 <file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$AW</formula>
-    <oldFormula>Estimation!$J:$AW</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$48</formula>
     <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
   </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
@@ -3206,6 +3428,21 @@
 </file>
 
 <file path=xl/revisions/revisionLog1142.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AW</formula>
+    <oldFormula>Estimation!$J:$AW</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11421.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="444" sId="2">
     <oc r="E27" t="inlineStr">
@@ -3232,7 +3469,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11421.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog114211.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="410" sId="2">
     <nc r="AU22">
@@ -3277,7 +3514,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog114211.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1142111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
@@ -3980,6 +4217,57 @@
 
 <file path=xl/revisions/revisionLog119.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="514" sId="2">
+    <oc r="I23" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I23" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="515" sId="2">
+    <oc r="I24" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I24" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="516" sId="2">
+    <oc r="I25" t="inlineStr">
+      <is>
+        <t>Not start yet</t>
+      </is>
+    </oc>
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AW</formula>
+    <oldFormula>Estimation!$J:$AW</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -3988,6 +4276,64 @@
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$47</formula>
     <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1192.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="500" sId="3" ref="A54:XFD54" action="insertRow"/>
+  <rcc rId="501" sId="3">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11921.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="491" sId="3">
+    <oc r="C56" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </oc>
+    <nc r="C56"/>
+  </rcc>
+  <rcc rId="492" sId="3">
+    <oc r="C55" t="inlineStr">
+      <is>
+        <t>UserID</t>
+      </is>
+    </oc>
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>TotalBugs</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
   </rdn>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
@@ -4014,6 +4360,26 @@
 </file>
 
 <file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="530" sId="2">
+    <nc r="BE21">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1201.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="311" sId="3">
     <oc r="C66" t="inlineStr">
@@ -4052,7 +4418,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1201.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog12011.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="295" sId="3">
     <oc r="C66" t="inlineStr">
@@ -4352,36 +4718,73 @@
 
 <file path=xl/revisions/revisionLog123.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+  <rcc rId="473" sId="2">
+    <oc r="I27" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </oc>
+    <nc r="I27" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="474" sId="2">
+    <nc r="BA27">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="475" sId="2">
+    <nc r="BA45">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AQ</formula>
     <oldFormula>Estimation!$J:$AQ</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog1231.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$47</formula>
     <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
   </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog12311.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog123111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AI</formula>
@@ -4396,6 +4799,21 @@
 </file>
 
 <file path=xl/revisions/revisionLog124.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AW</formula>
+    <oldFormula>Estimation!$J:$AW</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1241.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="447" sId="2">
     <nc r="AX22">
@@ -4415,7 +4833,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog12411.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
@@ -4430,7 +4848,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog12411.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog124111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="348" sId="2">
     <nc r="AR22">
@@ -4482,6 +4900,84 @@
 
 <file path=xl/revisions/revisionLog126.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="495" sId="3">
+    <nc r="D53" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1261.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="478" sId="3" ref="A53:XFD53" action="insertRow"/>
+  <rrc rId="479" sId="3" ref="A53:XFD53" action="insertRow"/>
+  <rrc rId="480" sId="3" ref="A53:XFD53" action="insertRow"/>
+  <rrc rId="481" sId="3" ref="A53:XFD53" action="insertRow"/>
+  <rrc rId="482" sId="3" ref="A53:XFD53" action="insertRow"/>
+  <rcc rId="483" sId="3">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>tbl_TitleBugTracking</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="484" sId="3">
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>TitleBugID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="485" sId="3">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>UserID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="486" sId="3">
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>TitleID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="487" sId="3" ref="A54:XFD54" action="insertRow"/>
+  <rcc rId="488" sId="3">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12611.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -4496,6 +4992,103 @@
 </file>
 
 <file path=xl/revisions/revisionLog127.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1271.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="B47" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B47" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B47" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B47" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="504" sId="3">
+    <oc r="B48" t="inlineStr">
+      <is>
+        <t>tbl_BugTracking</t>
+      </is>
+    </oc>
+    <nc r="B48"/>
+  </rcc>
+  <rcc rId="505" sId="3">
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>tbl_BugTracking</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12711.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="450" sId="2">
     <nc r="AY27">
@@ -4525,7 +5118,111 @@
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1281.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
     <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog129.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="533" sId="2">
+    <nc r="BE46">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="534" sId="2" odxf="1" dxf="1" quotePrefix="1">
+    <oc r="C46" t="inlineStr">
+      <is>
+        <t>Input data to DB</t>
+      </is>
+    </oc>
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>DataBase
+- Input data to DB
+- Sparate DB to QA and PROD</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="535" sId="2">
+    <nc r="BE22">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$BD</formula>
+    <oldFormula>Estimation!$J:$AW</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1291.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="521" sId="2">
+    <nc r="BB22">
+      <v>5.5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AW</formula>
+    <oldFormula>Estimation!$J:$AW</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12911.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="C53">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$48</formula>
@@ -4550,6 +5247,3308 @@
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Estimation!$B$8:$AT$48</formula>
     <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog130.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="2" sqref="D17" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="538" sId="2">
+    <oc r="D18" t="inlineStr">
+      <is>
+        <t>Show by week</t>
+      </is>
+    </oc>
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>View overall PTO/DTO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="539" sId="2" ref="A19:XFD19" action="deleteRow">
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$BD$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$AQ$1048576" dn="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" sId="2"/>
+    <rfmt sheetId="2" xfDxf="1" sqref="A19:XFD19" start="0" length="0"/>
+    <rfmt sheetId="2" sqref="B19" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1" mergeCell="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="C19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="left" vertical="center" mergeCell="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D19" t="inlineStr">
+        <is>
+          <t>Show by month</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="E19" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="F19">
+        <v>8</v>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="G19">
+        <f>SUM(J19:BP19)</f>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="H19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="I19" t="inlineStr">
+        <is>
+          <t>Not start yet</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="J19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="K19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="L19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="N19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="V19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="W19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="X19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Y19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Z19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AA19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AB19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AC19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AD19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AE19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AF19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AG19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AH19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AI19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AJ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AK19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AL19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AM19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AN19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AO19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AP19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AQ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AR19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AS19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AT19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AU19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AV19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AW19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AX19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AY19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AZ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BA19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BB19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BC19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BD19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BE19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BF19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BG19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BH19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BI19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BJ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BK19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BL19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BM19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BN19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BO19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BP19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="540" sId="2" ref="A19:XFD19" action="deleteRow">
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$BD$1048576" dn="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" sId="2"/>
+    <undo index="0" exp="area" ref3D="1" dr="$J$1:$AQ$1048576" dn="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" sId="2"/>
+    <rfmt sheetId="2" xfDxf="1" sqref="A19:XFD19" start="0" length="0"/>
+    <rfmt sheetId="2" sqref="B19" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1" mergeCell="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="C19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="left" vertical="center" mergeCell="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D19" t="inlineStr">
+        <is>
+          <t>Show by year</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="E19" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="F19">
+        <v>8</v>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="G19">
+        <f>SUM(J19:BP19)</f>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="H19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="I19" t="inlineStr">
+        <is>
+          <t>Not start yet</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="J19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="K19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="L19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="N19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="V19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="W19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="X19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Y19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Z19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AA19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AB19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AC19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AD19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AE19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AF19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AG19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AH19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AI19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AJ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AK19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AL19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AM19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AN19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AO19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AP19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AQ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AR19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AS19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AT19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AU19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AV19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AW19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AX19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AY19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="AZ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BA19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BB19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BC19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BD19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BE19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BF19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BG19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BH19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BI19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BJ19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BK19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BL19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BM19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BN19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BO19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="BP19" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$BD</formula>
+    <oldFormula>Estimation!$J:$BD</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
   </rdn>
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
 </revisions>
@@ -4842,6 +8841,489 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog133.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="B82" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C82" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B83" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C83" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B84" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="543" sId="3" odxf="1" dxf="1">
+    <nc r="C84" t="inlineStr">
+      <is>
+        <t>UserID</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="B85" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C85" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="544" sId="3" odxf="1" dxf="1">
+    <nc r="B86" t="inlineStr">
+      <is>
+        <t>tbl_BugHunter</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="545" sId="3" odxf="1" dxf="1">
+    <nc r="C86" t="inlineStr">
+      <is>
+        <t>BugHunterID</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rrc rId="546" sId="3" ref="A86:XFD86" action="deleteRow">
+    <rfmt sheetId="3" xfDxf="1" sqref="A86:XFD86" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="B86" t="inlineStr">
+        <is>
+          <t>tbl_BugHunter</t>
+        </is>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="C86" t="inlineStr">
+        <is>
+          <t>BugHunterID</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFFFF00"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="547" sId="3">
+    <nc r="B82" t="inlineStr">
+      <is>
+        <t>tbl_OffTracking</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="548" sId="3">
+    <nc r="C82" t="inlineStr">
+      <is>
+        <t>OffID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="549" sId="3">
+    <nc r="C83" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="550" sId="3">
+    <nc r="C85" t="inlineStr">
+      <is>
+        <t>WorkingHoursID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="551" sId="3" ref="A86:XFD86" action="insertRow"/>
+  <rrc rId="552" sId="3" ref="A86:XFD86" action="insertRow"/>
+  <rfmt sheetId="3" sqref="B86" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="553" sId="3" odxf="1" dxf="1">
+    <nc r="C86" t="inlineStr">
+      <is>
+        <t>WorkingHoursID</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="B87" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C87" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B88" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C88" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B89" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C89" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B90" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C90" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="554" sId="3">
+    <nc r="B87" t="inlineStr">
+      <is>
+        <t>tbl_OffCategory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="B85" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B86" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B86:C86" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="555" sId="3">
+    <nc r="C87" t="inlineStr">
+      <is>
+        <t>OffCategoryID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="556" sId="3">
+    <nc r="C88" t="inlineStr">
+      <is>
+        <t>Category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="557" sId="3">
+    <nc r="D82" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="558" sId="3">
+    <nc r="D87" t="inlineStr">
+      <is>
+        <t>auto increment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$BD</formula>
+    <oldFormula>Estimation!$J:$BD</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
@@ -4977,6 +9459,38 @@
 
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="526" sId="2">
+    <oc r="I21" t="inlineStr">
+      <is>
+        <t>Completed</t>
+      </is>
+    </oc>
+    <nc r="I21" t="inlineStr">
+      <is>
+        <t>In progress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="527" sId="2">
+    <nc r="BB21">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rfmt sheetId="2" sqref="AY27" start="0" length="0">
     <dxf>
       <border outline="0">
@@ -5322,7 +9836,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -5337,7 +9851,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -5352,7 +9866,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="73" sId="2">
     <oc r="H12" t="inlineStr">
@@ -5391,7 +9905,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1511111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
@@ -6011,6 +10525,48 @@
 </file>
 
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="561" sId="3">
+    <oc r="C86" t="inlineStr">
+      <is>
+        <t>WorkingHoursID</t>
+      </is>
+    </oc>
+    <nc r="C86" t="inlineStr">
+      <is>
+        <t>OffCategoryID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$BD</formula>
+    <oldFormula>Estimation!$J:$BD</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_76957C0A_29B5_4A39_AEA8_92E87F389A57_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$46</formula>
+    <oldFormula>Estimation!$B$8:$AT$46</oldFormula>
+  </rdn>
+  <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$AQ</formula>
+    <oldFormula>Estimation!$J:$AQ</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$48</formula>
+    <oldFormula>Estimation!$B$8:$AT$48</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rfmt sheetId="2" sqref="AU8" start="0" length="0">
     <dxf>
@@ -19511,45 +24067,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="3" sqref="C47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Estimation!$J:$N</formula>
-    <oldFormula>Estimation!$J:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Estimation!$B$8:$AT$47</formula>
-    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
-  </rdn>
-  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" action="delete"/>
@@ -19597,6 +24114,45 @@
 
 <file path=xl/revisions/revisionLog18111111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18112.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Estimation!$J:$N</formula>
+    <oldFormula>Estimation!$J:$N</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Estimation!$B$8:$AT$47</formula>
+    <oldFormula>Estimation!$B$8:$AT$47</oldFormula>
+  </rdn>
+  <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18113.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="3" sqref="C47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
   <rcv guid="{468D878E-36A7-4B3B-948B-709488E832B4}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_468D878E_36A7_4B3B_948B_709488E832B4_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Estimation!$J:$N</formula>
@@ -20209,9 +24765,10 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
   <userInfo guid="{7275E7A5-6492-43B3-ACB4-630C001DC7FD}" name="thai.pham" id="-598504434" dateTime="2016-02-23T13:46:51"/>
   <userInfo guid="{2C083FFD-FBC8-4AC7-8F40-427533F0B33B}" name="tan.thanh.vo" id="-1397657193" dateTime="2016-03-07T09:32:53"/>
+  <userInfo guid="{8985060A-49A3-4A3A-BBBD-6F00D43FDAFD}" name="thai.pham" id="-598508145" dateTime="2016-03-15T14:20:37"/>
 </users>
 </file>
 
@@ -20533,13 +25090,13 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="66" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -20548,28 +25105,28 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="71"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="71"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="71"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -20577,56 +25134,56 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="71"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="71"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="71"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="71"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="71"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="71"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -20635,35 +25192,35 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="71"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="71"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="71"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="71"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
@@ -20671,8 +25228,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="71"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="69" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
@@ -20680,15 +25237,15 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="71"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="71"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="63" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -20698,8 +25255,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="71"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -20707,7 +25264,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="71"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -20716,10 +25273,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="69" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -20729,8 +25286,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="68"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -20738,7 +25295,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="68"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -20747,7 +25304,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="67"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
@@ -20785,10 +25342,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BP48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:BP46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="BA46" sqref="BA46"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20813,71 +25371,71 @@
     <col min="40" max="40" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="41" max="42" width="3.5703125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="5" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="4.85546875" customWidth="1"/>
-    <col min="45" max="45" width="5" customWidth="1"/>
-    <col min="46" max="46" width="8.28515625" customWidth="1"/>
-    <col min="47" max="47" width="5" customWidth="1"/>
-    <col min="48" max="49" width="3.7109375" customWidth="1"/>
-    <col min="50" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="5" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="5" hidden="1" customWidth="1"/>
+    <col min="48" max="56" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="57" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="16.5" customHeight="1">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:68">
       <c r="B3" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="40">
-        <f ca="1">SUMIF(E9:F47,"P1",F9:F47)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P1",F9:F45)/16</f>
         <v>31.4375</v>
       </c>
       <c r="D3" s="40">
-        <f ca="1">SUMIF(E9:G47,"P1",G9:G47)/16</f>
-        <v>24.296875</v>
+        <f ca="1">SUMIF(E9:G45,"P1",G9:G45)/16</f>
+        <v>25.953125</v>
       </c>
       <c r="E3" s="40">
         <f ca="1">C3-D3</f>
-        <v>7.140625</v>
+        <v>5.484375</v>
       </c>
     </row>
     <row r="4" spans="1:68">
       <c r="B4" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="40">
-        <f ca="1">SUMIF(E9:F47,"P2",F9:F47)/16</f>
-        <v>10</v>
+        <f ca="1">SUMIF(E9:F45,"P2",F9:F45)/16</f>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
-        <f ca="1">SUMIF(E9:G47,"P2",G9:G47)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>5.9375</v>
       </c>
       <c r="E4" s="40">
         <f t="shared" ref="E4:E6" ca="1" si="0">C4-D4</f>
-        <v>4.0625</v>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="5" spans="1:68">
       <c r="B5" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="40">
-        <f ca="1">SUMIF(E9:F47,"P3",F9:F47)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P3",F9:F45)/16</f>
         <v>6</v>
       </c>
       <c r="D5" s="40">
-        <f ca="1">SUMIF(E9:G47,"P2",G9:G47)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>5.9375</v>
       </c>
       <c r="E5" s="40">
@@ -20887,14 +25445,14 @@
     </row>
     <row r="6" spans="1:68">
       <c r="B6" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="40">
-        <f ca="1">SUMIF(E9:F47,"P4",F9:F47)/16</f>
+        <f ca="1">SUMIF(E9:F45,"P4",F9:F45)/16</f>
         <v>6</v>
       </c>
       <c r="D6" s="40">
-        <f ca="1">SUMIF(E9:G47,"P2",G9:G47)/16</f>
+        <f ca="1">SUMIF(E9:G45,"P2",G9:G45)/16</f>
         <v>5.9375</v>
       </c>
       <c r="E6" s="40">
@@ -20913,7 +25471,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>62</v>
@@ -20922,7 +25480,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>64</v>
@@ -21106,15 +25664,15 @@
       </c>
     </row>
     <row r="9" spans="1:68">
-      <c r="B9" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="75"/>
+      <c r="B9" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="79"/>
       <c r="E9" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9" s="25">
         <v>24</v>
@@ -21124,10 +25682,10 @@
         <v>16</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -21198,13 +25756,13 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="B10" s="76"/>
-      <c r="C10" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="75"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="79"/>
       <c r="E10" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="25">
         <v>16</v>
@@ -21214,10 +25772,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="26">
         <v>2</v>
@@ -21288,17 +25846,17 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="21">
         <v>16</v>
@@ -21308,10 +25866,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -21378,13 +25936,13 @@
       <c r="BP11" s="21"/>
     </row>
     <row r="12" spans="1:68" ht="30">
-      <c r="B12" s="77"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="F12" s="21">
         <v>150</v>
@@ -21394,10 +25952,10 @@
         <v>165</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -21513,14 +26071,14 @@
       <c r="BO12" s="21"/>
       <c r="BP12" s="21"/>
     </row>
-    <row r="13" spans="1:68" ht="30">
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
+    <row r="13" spans="1:68" ht="30" hidden="1">
+      <c r="B13" s="81"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="21">
         <v>24</v>
@@ -21569,15 +26127,15 @@
       <c r="AT13" s="21"/>
     </row>
     <row r="14" spans="1:68">
-      <c r="B14" s="77"/>
-      <c r="C14" s="74" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="77" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="21">
         <v>55</v>
@@ -21587,10 +26145,10 @@
         <v>51</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -21667,26 +26225,26 @@
       <c r="BP14" s="21"/>
     </row>
     <row r="15" spans="1:68" ht="30">
-      <c r="B15" s="77"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="21">
         <v>16</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" ref="G15:G43" si="2">SUM(J15:BP15)</f>
+        <f t="shared" ref="G15:G41" si="2">SUM(J15:BP15)</f>
         <v>8</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -21750,14 +26308,14 @@
       <c r="BO15" s="21"/>
       <c r="BP15" s="21"/>
     </row>
-    <row r="16" spans="1:68">
-      <c r="B16" s="77"/>
-      <c r="C16" s="74"/>
+    <row r="16" spans="1:68" hidden="1">
+      <c r="B16" s="81"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="21">
         <v>24</v>
@@ -21809,15 +26367,15 @@
       <c r="AT16" s="21"/>
     </row>
     <row r="17" spans="2:68">
-      <c r="B17" s="77"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="62" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="21">
         <v>24</v>
@@ -21891,13 +26449,13 @@
       <c r="BP17" s="21"/>
     </row>
     <row r="18" spans="2:68">
-      <c r="B18" s="77"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="23" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="21">
         <v>16</v>
@@ -21971,24 +26529,28 @@
       <c r="BP18" s="24"/>
     </row>
     <row r="19" spans="2:68">
-      <c r="B19" s="77"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="76" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="21">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="I19" s="21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -22004,13 +26566,21 @@
       <c r="U19" s="24"/>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="X19" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="24">
+        <v>4</v>
+      </c>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
+      <c r="AB19" s="24">
+        <v>6</v>
+      </c>
       <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
+      <c r="AD19" s="24">
+        <v>5</v>
+      </c>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
@@ -22034,10 +26604,14 @@
       <c r="AY19" s="24"/>
       <c r="AZ19" s="24"/>
       <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
+      <c r="BB19" s="24">
+        <v>8</v>
+      </c>
       <c r="BC19" s="24"/>
       <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
+      <c r="BE19" s="24">
+        <v>8</v>
+      </c>
       <c r="BF19" s="24"/>
       <c r="BG19" s="24"/>
       <c r="BH19" s="24"/>
@@ -22051,24 +26625,26 @@
       <c r="BP19" s="24"/>
     </row>
     <row r="20" spans="2:68">
-      <c r="B20" s="77"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="23" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F20" s="21">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="21"/>
+        <v>52.75</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="I20" s="21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -22101,23 +26677,45 @@
       <c r="AL20" s="21"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
+      <c r="AO20" s="24">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="24">
+        <v>6</v>
+      </c>
+      <c r="AQ20" s="24">
+        <v>4.25</v>
+      </c>
+      <c r="AR20" s="24">
+        <v>3.25</v>
+      </c>
+      <c r="AS20" s="24">
+        <v>1</v>
+      </c>
       <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
+      <c r="AU20" s="24">
+        <v>6.5</v>
+      </c>
       <c r="AV20" s="24"/>
       <c r="AW20" s="24"/>
-      <c r="AX20" s="24"/>
+      <c r="AX20" s="24">
+        <v>5.5</v>
+      </c>
       <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
+      <c r="AZ20" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="BA20" s="24">
+        <v>3.25</v>
+      </c>
+      <c r="BB20" s="24">
+        <v>5.5</v>
+      </c>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
+      <c r="BE20" s="24">
+        <v>3</v>
+      </c>
       <c r="BF20" s="24"/>
       <c r="BG20" s="24"/>
       <c r="BH20" s="24"/>
@@ -22130,29 +26728,25 @@
       <c r="BO20" s="24"/>
       <c r="BP20" s="24"/>
     </row>
-    <row r="21" spans="2:68">
-      <c r="B21" s="77"/>
-      <c r="C21" s="73" t="s">
-        <v>26</v>
-      </c>
+    <row r="21" spans="2:68" ht="30">
+      <c r="B21" s="81"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -22168,21 +26762,13 @@
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
-      <c r="X21" s="24">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="24">
-        <v>4</v>
-      </c>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="24">
-        <v>6</v>
-      </c>
+      <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
-      <c r="AD21" s="24">
-        <v>5</v>
-      </c>
+      <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24"/>
@@ -22222,27 +26808,25 @@
       <c r="BO21" s="24"/>
       <c r="BP21" s="24"/>
     </row>
-    <row r="22" spans="2:68">
-      <c r="B22" s="77"/>
-      <c r="C22" s="73"/>
+    <row r="22" spans="2:68" ht="30">
+      <c r="B22" s="81"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="23" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F22" s="21">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="2"/>
-        <v>44.25</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -22275,37 +26859,19 @@
       <c r="AL22" s="21"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="24"/>
-      <c r="AO22" s="24">
-        <v>7</v>
-      </c>
-      <c r="AP22" s="24">
-        <v>6</v>
-      </c>
-      <c r="AQ22" s="24">
-        <v>4.25</v>
-      </c>
-      <c r="AR22" s="24">
-        <v>3.25</v>
-      </c>
-      <c r="AS22" s="24">
-        <v>1</v>
-      </c>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
       <c r="AT22" s="24"/>
-      <c r="AU22" s="24">
-        <v>6.5</v>
-      </c>
+      <c r="AU22" s="24"/>
       <c r="AV22" s="24"/>
       <c r="AW22" s="24"/>
-      <c r="AX22" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="AX22" s="24"/>
       <c r="AY22" s="24"/>
-      <c r="AZ22" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="BA22" s="24">
-        <v>3.25</v>
-      </c>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
       <c r="BB22" s="24"/>
       <c r="BC22" s="24"/>
       <c r="BD22" s="24"/>
@@ -22323,13 +26889,13 @@
       <c r="BP22" s="24"/>
     </row>
     <row r="23" spans="2:68" ht="30">
-      <c r="B23" s="77"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="21">
         <v>24</v>
@@ -22340,7 +26906,7 @@
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -22402,25 +26968,27 @@
       <c r="BO23" s="24"/>
       <c r="BP23" s="24"/>
     </row>
-    <row r="24" spans="2:68" ht="30">
-      <c r="B24" s="77"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="23" t="s">
-        <v>89</v>
-      </c>
+    <row r="24" spans="2:68">
+      <c r="B24" s="81"/>
+      <c r="C24" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" s="21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="I24" s="21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -22446,9 +27014,15 @@
       <c r="AE24" s="24"/>
       <c r="AF24" s="24"/>
       <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
+      <c r="AH24" s="24">
+        <v>8</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>8</v>
+      </c>
+      <c r="AJ24" s="24">
+        <v>5</v>
+      </c>
       <c r="AK24" s="24"/>
       <c r="AL24" s="21"/>
       <c r="AM24" s="24"/>
@@ -22482,25 +27056,27 @@
       <c r="BO24" s="24"/>
       <c r="BP24" s="24"/>
     </row>
-    <row r="25" spans="2:68" ht="30">
-      <c r="B25" s="77"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="23" t="s">
-        <v>91</v>
-      </c>
+    <row r="25" spans="2:68">
+      <c r="B25" s="81"/>
+      <c r="C25" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="23"/>
       <c r="E25" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F25" s="21">
         <v>24</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="I25" s="21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -22542,10 +27118,18 @@
       <c r="AU25" s="24"/>
       <c r="AV25" s="24"/>
       <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
+      <c r="AX25" s="24">
+        <v>8</v>
+      </c>
+      <c r="AY25" s="24">
+        <v>6</v>
+      </c>
+      <c r="AZ25" s="24">
+        <v>8</v>
+      </c>
+      <c r="BA25" s="24">
+        <v>6</v>
+      </c>
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="24"/>
@@ -22562,12 +27146,14 @@
       <c r="BO25" s="24"/>
       <c r="BP25" s="24"/>
     </row>
-    <row r="26" spans="2:68">
-      <c r="B26" s="77"/>
-      <c r="C26" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="23"/>
+    <row r="26" spans="2:68" hidden="1">
+      <c r="B26" s="81"/>
+      <c r="C26" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" s="21" t="s">
         <v>106</v>
       </c>
@@ -22576,13 +27162,11 @@
       </c>
       <c r="G26" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -22608,17 +27192,11 @@
       <c r="AE26" s="24"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="24">
-        <v>8</v>
-      </c>
-      <c r="AI26" s="24">
-        <v>8</v>
-      </c>
-      <c r="AJ26" s="24">
-        <v>5</v>
-      </c>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
-      <c r="AL26" s="21"/>
+      <c r="AL26" s="24"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
       <c r="AO26" s="24"/>
@@ -22627,50 +27205,26 @@
       <c r="AR26" s="24"/>
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="24"/>
-      <c r="BJ26" s="24"/>
-      <c r="BK26" s="24"/>
-      <c r="BL26" s="24"/>
-      <c r="BM26" s="24"/>
-      <c r="BN26" s="24"/>
-      <c r="BO26" s="24"/>
-      <c r="BP26" s="24"/>
     </row>
-    <row r="27" spans="2:68">
-      <c r="B27" s="77"/>
-      <c r="C27" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="23"/>
+    <row r="27" spans="2:68" hidden="1">
+      <c r="B27" s="81"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -22700,7 +27254,7 @@
       <c r="AI27" s="24"/>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
-      <c r="AL27" s="21"/>
+      <c r="AL27" s="24"/>
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
       <c r="AO27" s="24"/>
@@ -22709,50 +27263,20 @@
       <c r="AR27" s="24"/>
       <c r="AS27" s="24"/>
       <c r="AT27" s="24"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="24">
+    </row>
+    <row r="28" spans="2:68" hidden="1">
+      <c r="B28" s="81"/>
+      <c r="C28" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="21">
         <v>8</v>
-      </c>
-      <c r="AY27" s="24">
-        <v>6</v>
-      </c>
-      <c r="AZ27" s="24">
-        <v>8</v>
-      </c>
-      <c r="BA27" s="24">
-        <v>6</v>
-      </c>
-      <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="24"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="24"/>
-      <c r="BJ27" s="24"/>
-      <c r="BK27" s="24"/>
-      <c r="BL27" s="24"/>
-      <c r="BM27" s="24"/>
-      <c r="BN27" s="24"/>
-      <c r="BO27" s="24"/>
-      <c r="BP27" s="24"/>
-    </row>
-    <row r="28" spans="2:68">
-      <c r="B28" s="77"/>
-      <c r="C28" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="21">
-        <v>16</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="2"/>
@@ -22800,14 +27324,14 @@
       <c r="AS28" s="24"/>
       <c r="AT28" s="24"/>
     </row>
-    <row r="29" spans="2:68">
-      <c r="B29" s="77"/>
-      <c r="C29" s="73"/>
+    <row r="29" spans="2:68" hidden="1">
+      <c r="B29" s="81"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="23" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F29" s="21">
         <v>16</v>
@@ -22859,26 +27383,28 @@
       <c r="AT29" s="24"/>
     </row>
     <row r="30" spans="2:68">
-      <c r="B30" s="77"/>
-      <c r="C30" s="73" t="s">
-        <v>95</v>
+      <c r="B30" s="81"/>
+      <c r="C30" s="76" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" s="21">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="I30" s="21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -22907,28 +27433,70 @@
       <c r="AH30" s="24"/>
       <c r="AI30" s="24"/>
       <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
+      <c r="AK30" s="24">
+        <v>8</v>
+      </c>
+      <c r="AL30" s="21">
+        <v>8</v>
+      </c>
+      <c r="AM30" s="24">
+        <v>1</v>
+      </c>
       <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
+      <c r="AO30" s="24">
+        <v>5</v>
+      </c>
+      <c r="AP30" s="24">
+        <v>7</v>
+      </c>
+      <c r="AQ30" s="24">
+        <v>7</v>
+      </c>
+      <c r="AR30" s="24">
+        <v>7</v>
+      </c>
+      <c r="AS30" s="24">
+        <v>8</v>
+      </c>
+      <c r="AT30" s="24">
+        <v>8</v>
+      </c>
+      <c r="AU30" s="24">
+        <v>8</v>
+      </c>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+      <c r="BA30" s="24"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="24"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="24"/>
+      <c r="BF30" s="24"/>
+      <c r="BG30" s="24"/>
+      <c r="BH30" s="24"/>
+      <c r="BI30" s="24"/>
+      <c r="BJ30" s="24"/>
+      <c r="BK30" s="24"/>
+      <c r="BL30" s="24"/>
+      <c r="BM30" s="24"/>
+      <c r="BN30" s="24"/>
+      <c r="BO30" s="24"/>
+      <c r="BP30" s="24"/>
     </row>
-    <row r="31" spans="2:68">
-      <c r="B31" s="77"/>
-      <c r="C31" s="73"/>
+    <row r="31" spans="2:68" hidden="1">
+      <c r="B31" s="81"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31" s="21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="2"/>
@@ -22976,29 +27544,27 @@
       <c r="AS31" s="24"/>
       <c r="AT31" s="24"/>
     </row>
-    <row r="32" spans="2:68">
-      <c r="B32" s="77"/>
-      <c r="C32" s="73" t="s">
-        <v>92</v>
+    <row r="32" spans="2:68" hidden="1">
+      <c r="B32" s="81"/>
+      <c r="C32" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="21">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -23027,70 +27593,28 @@
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
       <c r="AJ32" s="24"/>
-      <c r="AK32" s="24">
-        <v>8</v>
-      </c>
-      <c r="AL32" s="21">
-        <v>8</v>
-      </c>
-      <c r="AM32" s="24">
-        <v>1</v>
-      </c>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
       <c r="AN32" s="24"/>
-      <c r="AO32" s="24">
-        <v>5</v>
-      </c>
-      <c r="AP32" s="24">
-        <v>7</v>
-      </c>
-      <c r="AQ32" s="24">
-        <v>7</v>
-      </c>
-      <c r="AR32" s="24">
-        <v>7</v>
-      </c>
-      <c r="AS32" s="24">
-        <v>8</v>
-      </c>
-      <c r="AT32" s="24">
-        <v>8</v>
-      </c>
-      <c r="AU32" s="24">
-        <v>8</v>
-      </c>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24"/>
-      <c r="BC32" s="24"/>
-      <c r="BD32" s="24"/>
-      <c r="BE32" s="24"/>
-      <c r="BF32" s="24"/>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="24"/>
-      <c r="BI32" s="24"/>
-      <c r="BJ32" s="24"/>
-      <c r="BK32" s="24"/>
-      <c r="BL32" s="24"/>
-      <c r="BM32" s="24"/>
-      <c r="BN32" s="24"/>
-      <c r="BO32" s="24"/>
-      <c r="BP32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
     </row>
-    <row r="33" spans="2:68">
-      <c r="B33" s="77"/>
-      <c r="C33" s="73"/>
+    <row r="33" spans="2:68" hidden="1">
+      <c r="B33" s="81"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F33" s="21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="2"/>
@@ -23138,16 +27662,18 @@
       <c r="AS33" s="24"/>
       <c r="AT33" s="24"/>
     </row>
-    <row r="34" spans="2:68">
-      <c r="B34" s="77"/>
-      <c r="C34" s="73" t="s">
-        <v>96</v>
+    <row r="34" spans="2:68" hidden="1">
+      <c r="B34" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F34" s="21">
         <v>8</v>
@@ -23198,17 +27724,19 @@
       <c r="AS34" s="24"/>
       <c r="AT34" s="24"/>
     </row>
-    <row r="35" spans="2:68">
-      <c r="B35" s="77"/>
-      <c r="C35" s="73"/>
+    <row r="35" spans="2:68" hidden="1">
+      <c r="B35" s="80"/>
+      <c r="C35" s="77" t="s">
+        <v>69</v>
+      </c>
       <c r="D35" s="23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35" s="21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="2"/>
@@ -23256,18 +27784,14 @@
       <c r="AS35" s="24"/>
       <c r="AT35" s="24"/>
     </row>
-    <row r="36" spans="2:68">
-      <c r="B36" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>34</v>
-      </c>
+    <row r="36" spans="2:68" hidden="1">
+      <c r="B36" s="80"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="21">
         <v>8</v>
@@ -23318,16 +27842,16 @@
       <c r="AS36" s="24"/>
       <c r="AT36" s="24"/>
     </row>
-    <row r="37" spans="2:68">
-      <c r="B37" s="76"/>
-      <c r="C37" s="74" t="s">
-        <v>71</v>
+    <row r="37" spans="2:68" hidden="1">
+      <c r="B37" s="80"/>
+      <c r="C37" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F37" s="21">
         <v>8</v>
@@ -23378,14 +27902,16 @@
       <c r="AS37" s="24"/>
       <c r="AT37" s="24"/>
     </row>
-    <row r="38" spans="2:68">
-      <c r="B38" s="76"/>
-      <c r="C38" s="74"/>
+    <row r="38" spans="2:68" hidden="1">
+      <c r="B38" s="80"/>
+      <c r="C38" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="D38" s="23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F38" s="21">
         <v>8</v>
@@ -23437,154 +27963,218 @@
       <c r="AT38" s="24"/>
     </row>
     <row r="39" spans="2:68">
-      <c r="B39" s="76"/>
-      <c r="C39" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="21">
-        <v>8</v>
+      <c r="B39" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="25">
+        <v>4</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="I39" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="26"/>
+      <c r="BH39" s="26"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="26"/>
+      <c r="BM39" s="26"/>
+      <c r="BN39" s="26"/>
+      <c r="BO39" s="26"/>
+      <c r="BP39" s="26"/>
     </row>
     <row r="40" spans="2:68">
-      <c r="B40" s="76"/>
-      <c r="C40" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="21">
-        <v>8</v>
+      <c r="B40" s="80"/>
+      <c r="C40" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="25">
+        <v>16</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="21"/>
+        <v>16.5</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="I40" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26">
+        <v>1</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26">
+        <v>2</v>
+      </c>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26">
+        <v>1</v>
+      </c>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="26">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="26"/>
+      <c r="BL40" s="26"/>
+      <c r="BM40" s="26"/>
+      <c r="BN40" s="26"/>
+      <c r="BO40" s="26"/>
+      <c r="BP40" s="26"/>
     </row>
     <row r="41" spans="2:68">
-      <c r="B41" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="75"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="79"/>
       <c r="E41" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F41" s="25">
         <v>4</v>
       </c>
       <c r="G41" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
+      <c r="N41" s="26">
+        <v>4</v>
+      </c>
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
@@ -23640,46 +28230,39 @@
       <c r="BO41" s="26"/>
       <c r="BP41" s="26"/>
     </row>
-    <row r="42" spans="2:68">
-      <c r="B42" s="76"/>
-      <c r="C42" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="75"/>
+    <row r="42" spans="2:68" ht="37.5" customHeight="1">
+      <c r="B42" s="80"/>
+      <c r="C42" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="83"/>
       <c r="E42" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F42" s="25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G42" s="21">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="26">
-        <v>1</v>
-      </c>
-      <c r="K42" s="26">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
-      <c r="O42" s="26">
-        <v>2</v>
-      </c>
+      <c r="O42" s="26"/>
       <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="Q42" s="26">
+        <v>5</v>
+      </c>
       <c r="R42" s="26"/>
-      <c r="S42" s="26">
-        <v>1</v>
-      </c>
+      <c r="S42" s="26"/>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="26"/>
@@ -23688,9 +28271,7 @@
       <c r="Y42" s="26"/>
       <c r="Z42" s="26"/>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="26">
-        <v>1</v>
-      </c>
+      <c r="AB42" s="26"/>
       <c r="AC42" s="26"/>
       <c r="AD42" s="26"/>
       <c r="AE42" s="26"/>
@@ -23702,19 +28283,11 @@
       <c r="AK42" s="26"/>
       <c r="AL42" s="25"/>
       <c r="AM42" s="26"/>
-      <c r="AN42" s="26">
-        <v>7.5</v>
-      </c>
+      <c r="AN42" s="26"/>
       <c r="AO42" s="26"/>
-      <c r="AP42" s="26">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="26">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="26">
-        <v>1</v>
-      </c>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
       <c r="AU42" s="26"/>
@@ -23740,35 +28313,32 @@
       <c r="BO42" s="26"/>
       <c r="BP42" s="26"/>
     </row>
-    <row r="43" spans="2:68">
-      <c r="B43" s="76"/>
-      <c r="C43" s="75" t="s">
+    <row r="43" spans="2:68" ht="83.25" customHeight="1">
+      <c r="B43" s="80"/>
+      <c r="C43" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="25">
+        <v>5</v>
+      </c>
+      <c r="G43" s="21">
+        <v>5</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="25">
-        <v>4</v>
-      </c>
-      <c r="G43" s="21">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="I43" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
-      <c r="N43" s="26">
-        <v>4</v>
-      </c>
+      <c r="N43" s="26"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
@@ -23788,16 +28358,30 @@
       <c r="AE43" s="26"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
+      <c r="AH43" s="25">
+        <v>5</v>
+      </c>
       <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
+      <c r="AJ43" s="25">
+        <v>3</v>
+      </c>
       <c r="AK43" s="26"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
+      <c r="AL43" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="AM43" s="25">
+        <v>7</v>
+      </c>
+      <c r="AN43" s="25">
+        <v>6</v>
+      </c>
+      <c r="AO43" s="25">
+        <v>3</v>
+      </c>
       <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
+      <c r="AQ43" s="26">
+        <v>1</v>
+      </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="26"/>
       <c r="AT43" s="26"/>
@@ -23805,9 +28389,13 @@
       <c r="AV43" s="26"/>
       <c r="AW43" s="26"/>
       <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
+      <c r="AY43" s="26">
+        <v>2</v>
+      </c>
       <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
+      <c r="BA43" s="26">
+        <v>2</v>
+      </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
@@ -23824,26 +28412,27 @@
       <c r="BO43" s="26"/>
       <c r="BP43" s="26"/>
     </row>
-    <row r="44" spans="2:68" ht="37.5" customHeight="1">
-      <c r="B44" s="76"/>
+    <row r="44" spans="2:68" ht="38.25" customHeight="1">
+      <c r="B44" s="80"/>
       <c r="C44" s="78" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D44" s="79"/>
       <c r="E44" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F44" s="25">
+        <v>16</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" ref="G44:G45" si="3">SUM(J44:BP44)</f>
         <v>5</v>
       </c>
-      <c r="G44" s="21">
-        <v>5</v>
-      </c>
       <c r="H44" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
@@ -23852,9 +28441,7 @@
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
-      <c r="Q44" s="26">
-        <v>5</v>
-      </c>
+      <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
@@ -23870,7 +28457,9 @@
       <c r="AD44" s="26"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
+      <c r="AG44" s="26">
+        <v>3</v>
+      </c>
       <c r="AH44" s="26"/>
       <c r="AI44" s="26"/>
       <c r="AJ44" s="26"/>
@@ -23894,7 +28483,9 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="26"/>
       <c r="BD44" s="26"/>
-      <c r="BE44" s="26"/>
+      <c r="BE44" s="26">
+        <v>2</v>
+      </c>
       <c r="BF44" s="26"/>
       <c r="BG44" s="26"/>
       <c r="BH44" s="26"/>
@@ -23907,26 +28498,27 @@
       <c r="BO44" s="26"/>
       <c r="BP44" s="26"/>
     </row>
-    <row r="45" spans="2:68" ht="83.25" customHeight="1">
-      <c r="B45" s="76"/>
-      <c r="C45" s="78" t="s">
-        <v>157</v>
+    <row r="45" spans="2:68">
+      <c r="B45" s="80"/>
+      <c r="C45" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="D45" s="79"/>
       <c r="E45" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="21">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -23950,32 +28542,20 @@
       <c r="AC45" s="26"/>
       <c r="AD45" s="26"/>
       <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
+      <c r="AF45" s="26">
+        <v>3</v>
+      </c>
       <c r="AG45" s="26"/>
-      <c r="AH45" s="25">
-        <v>5</v>
-      </c>
+      <c r="AH45" s="26"/>
       <c r="AI45" s="26"/>
-      <c r="AJ45" s="25">
-        <v>3</v>
-      </c>
+      <c r="AJ45" s="26"/>
       <c r="AK45" s="26"/>
-      <c r="AL45" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="AM45" s="25">
-        <v>7</v>
-      </c>
-      <c r="AN45" s="25">
-        <v>6</v>
-      </c>
-      <c r="AO45" s="25">
-        <v>3</v>
-      </c>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
-      <c r="AQ45" s="26">
-        <v>1</v>
-      </c>
+      <c r="AQ45" s="26"/>
       <c r="AR45" s="26"/>
       <c r="AS45" s="26"/>
       <c r="AT45" s="26"/>
@@ -23983,13 +28563,9 @@
       <c r="AV45" s="26"/>
       <c r="AW45" s="26"/>
       <c r="AX45" s="26"/>
-      <c r="AY45" s="26">
-        <v>2</v>
-      </c>
+      <c r="AY45" s="26"/>
       <c r="AZ45" s="26"/>
-      <c r="BA45" s="26">
-        <v>2</v>
-      </c>
+      <c r="BA45" s="26"/>
       <c r="BB45" s="26"/>
       <c r="BC45" s="26"/>
       <c r="BD45" s="26"/>
@@ -24006,349 +28582,189 @@
       <c r="BO45" s="26"/>
       <c r="BP45" s="26"/>
     </row>
-    <row r="46" spans="2:68">
-      <c r="B46" s="76"/>
-      <c r="C46" s="75" t="s">
-        <v>84</v>
-      </c>
+    <row r="46" spans="2:68" hidden="1">
+      <c r="B46" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="75"/>
       <c r="D46" s="75"/>
-      <c r="E46" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="25">
+      <c r="E46" s="32"/>
+      <c r="F46" s="34">
+        <f>SUM(F9:F45)</f>
+        <v>839</v>
+      </c>
+      <c r="G46" s="34">
+        <f>SUM(G9:G44)</f>
+        <v>507.25</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="34">
+        <f>SUM(J9:J45)</f>
+        <v>3</v>
+      </c>
+      <c r="K46" s="34">
+        <f>SUM(K9:K45)</f>
+        <v>4</v>
+      </c>
+      <c r="L46" s="34">
+        <f>SUM(L9:L45)</f>
+        <v>8</v>
+      </c>
+      <c r="M46" s="34">
+        <f>SUM(M9:M45)</f>
+        <v>8</v>
+      </c>
+      <c r="N46" s="34">
+        <f t="shared" ref="N46" si="4">SUM(N9:N45)</f>
+        <v>4</v>
+      </c>
+      <c r="O46" s="34">
+        <f t="shared" ref="O46" si="5">SUM(O9:O45)</f>
         <v>16</v>
       </c>
-      <c r="G46" s="21">
-        <f t="shared" ref="G46:G47" si="3">SUM(J46:BP46)</f>
-        <v>3</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26">
-        <v>3</v>
-      </c>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="26"/>
-      <c r="AO46" s="26"/>
-      <c r="AP46" s="26"/>
-      <c r="AQ46" s="26"/>
-      <c r="AR46" s="26"/>
-      <c r="AS46" s="26"/>
-      <c r="AT46" s="26"/>
-      <c r="AU46" s="26"/>
-      <c r="AV46" s="26"/>
-      <c r="AW46" s="26"/>
-      <c r="AX46" s="26"/>
-      <c r="AY46" s="26"/>
-      <c r="AZ46" s="26"/>
-      <c r="BA46" s="26"/>
-      <c r="BB46" s="26"/>
-      <c r="BC46" s="26"/>
-      <c r="BD46" s="26"/>
-      <c r="BE46" s="26"/>
-      <c r="BF46" s="26"/>
-      <c r="BG46" s="26"/>
-      <c r="BH46" s="26"/>
-      <c r="BI46" s="26"/>
-      <c r="BJ46" s="26"/>
-      <c r="BK46" s="26"/>
-      <c r="BL46" s="26"/>
-      <c r="BM46" s="26"/>
-      <c r="BN46" s="26"/>
-      <c r="BO46" s="26"/>
-      <c r="BP46" s="26"/>
-    </row>
-    <row r="47" spans="2:68">
-      <c r="B47" s="76"/>
-      <c r="C47" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="25">
+      <c r="P46" s="34">
+        <f t="shared" ref="P46" si="6">SUM(P9:P45)</f>
+        <v>16</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" ref="Q46" si="7">SUM(Q9:Q45)</f>
+        <v>16</v>
+      </c>
+      <c r="R46" s="34">
+        <f t="shared" ref="R46" si="8">SUM(R9:R45)</f>
+        <v>16</v>
+      </c>
+      <c r="S46" s="34">
+        <f t="shared" ref="S46" si="9">SUM(S9:S45)</f>
+        <v>16</v>
+      </c>
+      <c r="T46" s="34">
+        <f t="shared" ref="T46" si="10">SUM(T9:T45)</f>
+        <v>16</v>
+      </c>
+      <c r="U46" s="34">
+        <f t="shared" ref="U46" si="11">SUM(U9:U45)</f>
+        <v>16</v>
+      </c>
+      <c r="V46" s="34">
+        <f t="shared" ref="V46" si="12">SUM(V9:V45)</f>
         <v>8</v>
       </c>
-      <c r="G47" s="21">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26">
-        <v>3</v>
-      </c>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="AO47" s="26"/>
-      <c r="AP47" s="26"/>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="26"/>
-      <c r="AS47" s="26"/>
-      <c r="AT47" s="26"/>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26"/>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="26"/>
-      <c r="BA47" s="26"/>
-      <c r="BB47" s="26"/>
-      <c r="BC47" s="26"/>
-      <c r="BD47" s="26"/>
-      <c r="BE47" s="26"/>
-      <c r="BF47" s="26"/>
-      <c r="BG47" s="26"/>
-      <c r="BH47" s="26"/>
-      <c r="BI47" s="26"/>
-      <c r="BJ47" s="26"/>
-      <c r="BK47" s="26"/>
-      <c r="BL47" s="26"/>
-      <c r="BM47" s="26"/>
-      <c r="BN47" s="26"/>
-      <c r="BO47" s="26"/>
-      <c r="BP47" s="26"/>
-    </row>
-    <row r="48" spans="2:68">
-      <c r="B48" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="34">
-        <f>SUM(F9:F47)</f>
-        <v>855</v>
-      </c>
-      <c r="G48" s="34">
-        <f>SUM(G9:G46)</f>
-        <v>480.75</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="34">
-        <f>SUM(J9:J47)</f>
-        <v>3</v>
-      </c>
-      <c r="K48" s="34">
-        <f>SUM(K9:K47)</f>
-        <v>4</v>
-      </c>
-      <c r="L48" s="34">
-        <f>SUM(L9:L47)</f>
+      <c r="W46" s="34">
+        <f t="shared" ref="W46" si="13">SUM(W9:W45)</f>
+        <v>16</v>
+      </c>
+      <c r="X46" s="34">
+        <f t="shared" ref="X46" si="14">SUM(X9:X45)</f>
+        <v>10</v>
+      </c>
+      <c r="Y46" s="34">
+        <f t="shared" ref="Y46" si="15">SUM(Y9:Y45)</f>
+        <v>12</v>
+      </c>
+      <c r="Z46" s="34">
+        <f t="shared" ref="Z46" si="16">SUM(Z9:Z45)</f>
         <v>8</v>
       </c>
-      <c r="M48" s="34">
-        <f>SUM(M9:M47)</f>
+      <c r="AA46" s="34">
+        <f t="shared" ref="AA46" si="17">SUM(AA9:AA45)</f>
         <v>8</v>
       </c>
-      <c r="N48" s="34">
-        <f t="shared" ref="N48" si="4">SUM(N9:N47)</f>
-        <v>4</v>
-      </c>
-      <c r="O48" s="34">
-        <f t="shared" ref="O48" si="5">SUM(O9:O47)</f>
+      <c r="AB46" s="34">
+        <f t="shared" ref="AB46" si="18">SUM(AB9:AB45)</f>
+        <v>10</v>
+      </c>
+      <c r="AC46" s="34">
+        <f t="shared" ref="AC46" si="19">SUM(AC9:AC45)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD46" s="34">
+        <f t="shared" ref="AD46" si="20">SUM(AD9:AD45)</f>
         <v>16</v>
       </c>
-      <c r="P48" s="34">
-        <f t="shared" ref="P48" si="6">SUM(P9:P47)</f>
-        <v>16</v>
-      </c>
-      <c r="Q48" s="34">
-        <f t="shared" ref="Q48" si="7">SUM(Q9:Q47)</f>
-        <v>16</v>
-      </c>
-      <c r="R48" s="34">
-        <f t="shared" ref="R48" si="8">SUM(R9:R47)</f>
-        <v>16</v>
-      </c>
-      <c r="S48" s="34">
-        <f t="shared" ref="S48" si="9">SUM(S9:S47)</f>
-        <v>16</v>
-      </c>
-      <c r="T48" s="34">
-        <f t="shared" ref="T48" si="10">SUM(T9:T47)</f>
-        <v>16</v>
-      </c>
-      <c r="U48" s="34">
-        <f t="shared" ref="U48" si="11">SUM(U9:U47)</f>
-        <v>16</v>
-      </c>
-      <c r="V48" s="34">
-        <f t="shared" ref="V48" si="12">SUM(V9:V47)</f>
-        <v>8</v>
-      </c>
-      <c r="W48" s="34">
-        <f t="shared" ref="W48" si="13">SUM(W9:W47)</f>
-        <v>16</v>
-      </c>
-      <c r="X48" s="34">
-        <f t="shared" ref="X48" si="14">SUM(X9:X47)</f>
-        <v>10</v>
-      </c>
-      <c r="Y48" s="34">
-        <f t="shared" ref="Y48" si="15">SUM(Y9:Y47)</f>
-        <v>12</v>
-      </c>
-      <c r="Z48" s="34">
-        <f t="shared" ref="Z48" si="16">SUM(Z9:Z47)</f>
-        <v>8</v>
-      </c>
-      <c r="AA48" s="34">
-        <f t="shared" ref="AA48" si="17">SUM(AA9:AA47)</f>
-        <v>8</v>
-      </c>
-      <c r="AB48" s="34">
-        <f t="shared" ref="AB48" si="18">SUM(AB9:AB47)</f>
-        <v>10</v>
-      </c>
-      <c r="AC48" s="34">
-        <f t="shared" ref="AC48" si="19">SUM(AC9:AC47)</f>
+      <c r="AE46" s="34">
+        <f t="shared" ref="AE46" si="21">SUM(AE9:AE45)</f>
+        <v>7</v>
+      </c>
+      <c r="AF46" s="34">
+        <f t="shared" ref="AF46" si="22">SUM(AF9:AF45)</f>
         <v>6.5</v>
       </c>
-      <c r="AD48" s="34">
-        <f t="shared" ref="AD48" si="20">SUM(AD9:AD47)</f>
-        <v>16</v>
-      </c>
-      <c r="AE48" s="34">
-        <f t="shared" ref="AE48" si="21">SUM(AE9:AE47)</f>
-        <v>7</v>
-      </c>
-      <c r="AF48" s="34">
-        <f t="shared" ref="AF48" si="22">SUM(AF9:AF47)</f>
+      <c r="AG46" s="34">
+        <f t="shared" ref="AG46" si="23">SUM(AG9:AG45)</f>
         <v>6.5</v>
       </c>
-      <c r="AG48" s="34">
-        <f t="shared" ref="AG48" si="23">SUM(AG9:AG47)</f>
-        <v>6.5</v>
-      </c>
-      <c r="AH48" s="34">
-        <f t="shared" ref="AH48" si="24">SUM(AH9:AH47)</f>
+      <c r="AH46" s="34">
+        <f t="shared" ref="AH46" si="24">SUM(AH9:AH45)</f>
         <v>15</v>
       </c>
-      <c r="AI48" s="34">
-        <f t="shared" ref="AI48" si="25">SUM(AI9:AI47)</f>
+      <c r="AI46" s="34">
+        <f t="shared" ref="AI46" si="25">SUM(AI9:AI45)</f>
         <v>15</v>
       </c>
-      <c r="AJ48" s="34">
-        <f t="shared" ref="AJ48" si="26">SUM(AJ9:AJ47)</f>
+      <c r="AJ46" s="34">
+        <f t="shared" ref="AJ46" si="26">SUM(AJ9:AJ45)</f>
         <v>15.5</v>
       </c>
-      <c r="AK48" s="34">
-        <f t="shared" ref="AK48" si="27">SUM(AK9:AK47)</f>
+      <c r="AK46" s="34">
+        <f t="shared" ref="AK46" si="27">SUM(AK9:AK45)</f>
         <v>15.5</v>
       </c>
-      <c r="AL48" s="34">
-        <f t="shared" ref="AL48" si="28">SUM(AL9:AL47)</f>
+      <c r="AL46" s="34">
+        <f t="shared" ref="AL46" si="28">SUM(AL9:AL45)</f>
         <v>15.5</v>
       </c>
-      <c r="AM48" s="34">
-        <f t="shared" ref="AM48" si="29">SUM(AM9:AM47)</f>
+      <c r="AM46" s="34">
+        <f t="shared" ref="AM46" si="29">SUM(AM9:AM45)</f>
         <v>15.5</v>
       </c>
-      <c r="AN48" s="34">
-        <f t="shared" ref="AN48" si="30">SUM(AN9:AN47)</f>
+      <c r="AN46" s="34">
+        <f t="shared" ref="AN46" si="30">SUM(AN9:AN45)</f>
         <v>15.5</v>
       </c>
-      <c r="AO48" s="34">
-        <f t="shared" ref="AO48:AT48" si="31">SUM(AO9:AO47)</f>
+      <c r="AO46" s="34">
+        <f t="shared" ref="AO46:AT46" si="31">SUM(AO9:AO45)</f>
         <v>15</v>
       </c>
-      <c r="AP48" s="34">
+      <c r="AP46" s="34">
         <f t="shared" si="31"/>
         <v>14</v>
       </c>
-      <c r="AQ48" s="34">
+      <c r="AQ46" s="34">
         <f t="shared" si="31"/>
         <v>13.25</v>
       </c>
-      <c r="AR48" s="34">
+      <c r="AR46" s="34">
         <f t="shared" si="31"/>
         <v>11.25</v>
       </c>
-      <c r="AS48" s="34">
+      <c r="AS46" s="34">
         <f t="shared" si="31"/>
         <v>15</v>
       </c>
-      <c r="AT48" s="34">
+      <c r="AT46" s="34">
         <f t="shared" si="31"/>
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AT48"/>
+  <autoFilter ref="B8:AT46">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P1"/>
+        <filter val="P2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
     <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="D18" sqref="D18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B8:AT48">
+      <autoFilter ref="B8:AT46">
         <filterColumn colId="3">
           <filters>
             <filter val="P1"/>
@@ -24357,8 +28773,8 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="F22">
-      <selection activeCell="BA46" sqref="BA46"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" showAutoFilter="1" hiddenColumns="1" topLeftCell="G7">
+      <selection activeCell="BE22" sqref="BE22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B8:AT48"/>
@@ -24366,30 +28782,30 @@
   </customSheetViews>
   <mergeCells count="23">
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B11:B33"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B11:B35"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C21:C25"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I48">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Not start yet"</formula>
     </cfRule>
@@ -24397,13 +28813,13 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I48">
+  <conditionalFormatting sqref="I9:I46">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I46">
       <formula1>"Completed, In progress, Not start yet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24414,10 +28830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G74"/>
+  <dimension ref="B2:G90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24439,96 +28855,96 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>158</v>
+      <c r="C3" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="81"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="81"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="81"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="81"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="81"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="81"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="81"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="82"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="81"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="81"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="88"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
@@ -24536,72 +28952,72 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="89"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>159</v>
+      <c r="C18" s="50" t="s">
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="81"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="81"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="81"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="81"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="81"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="82"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -24613,7 +29029,7 @@
     <row r="27" spans="2:4">
       <c r="B27" s="28"/>
       <c r="C27" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -24621,350 +29037,451 @@
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="86" t="s">
-        <v>111</v>
+      <c r="B29" s="90" t="s">
+        <v>108</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="86"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="86"/>
-      <c r="C31" s="51" t="s">
-        <v>158</v>
+      <c r="B31" s="90"/>
+      <c r="C31" s="50" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="86"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="86"/>
-      <c r="C33" s="51" t="s">
-        <v>159</v>
+      <c r="B33" s="90"/>
+      <c r="C33" s="50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="86"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="86"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="86"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="80" t="s">
-        <v>139</v>
+      <c r="B37" s="84" t="s">
+        <v>136</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="81"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="81"/>
-      <c r="C39" s="51" t="s">
-        <v>159</v>
+      <c r="B39" s="85"/>
+      <c r="C39" s="50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="81"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="81"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="81"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="82"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="80" t="s">
-        <v>140</v>
+      <c r="B44" s="84" t="s">
+        <v>137</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="81"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51" t="s">
-        <v>160</v>
+      <c r="B47" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="80" t="s">
-        <v>49</v>
-      </c>
+      <c r="B48" s="85"/>
       <c r="C48" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="81"/>
-      <c r="C49" s="51" t="s">
-        <v>158</v>
+      <c r="B49" s="85"/>
+      <c r="C49" s="50" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="81"/>
-      <c r="C50" s="51" t="s">
-        <v>159</v>
+      <c r="B50" s="85"/>
+      <c r="C50" s="50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="81"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="82"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>54</v>
+      <c r="B53" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="84"/>
-      <c r="C54" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="85"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="84"/>
-      <c r="C57" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="85"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="84"/>
+      <c r="B60" s="87" t="s">
+        <v>51</v>
+      </c>
       <c r="C60" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="84"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="84"/>
-      <c r="C62" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="B62" s="89"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="85"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="89"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="88"/>
+      <c r="C67" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="88"/>
+      <c r="C68" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="88"/>
+      <c r="C69" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="89"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="51"/>
+      <c r="C72" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="51"/>
+      <c r="C73" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="51"/>
+      <c r="C74" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="51"/>
+      <c r="C75" s="54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="51"/>
+      <c r="C76" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="52"/>
+      <c r="C77" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="56" t="s">
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D64" t="s">
-        <v>127</v>
+      <c r="C78" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="52"/>
-      <c r="C65" s="53" t="s">
+    <row r="79" spans="2:6">
+      <c r="B79" s="56"/>
+      <c r="C79" s="53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="56"/>
+      <c r="C80" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="57"/>
+      <c r="C81" s="53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="56"/>
+      <c r="C83" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="52"/>
-      <c r="C66" s="55" t="s">
-        <v>168</v>
+    <row r="84" spans="2:4">
+      <c r="B84" s="56"/>
+      <c r="C84" s="53" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="52"/>
-      <c r="C67" s="55" t="s">
-        <v>169</v>
+    <row r="85" spans="2:4">
+      <c r="B85" s="56"/>
+      <c r="C85" s="53" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="52"/>
-      <c r="C68" s="55" t="s">
-        <v>159</v>
+    <row r="86" spans="2:4">
+      <c r="B86" s="57"/>
+      <c r="C86" s="53" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="52"/>
-      <c r="C69" s="54" t="s">
-        <v>163</v>
+    <row r="87" spans="2:4">
+      <c r="B87" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="53"/>
-      <c r="C70" s="54" t="s">
-        <v>164</v>
+    <row r="88" spans="2:4">
+      <c r="B88" s="56"/>
+      <c r="C88" s="53" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" t="s">
-        <v>127</v>
-      </c>
+    <row r="89" spans="2:4">
+      <c r="B89" s="56"/>
+      <c r="C89" s="53"/>
     </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="57"/>
-      <c r="C72" s="54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="57"/>
-      <c r="C73" s="54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="58"/>
-      <c r="C74" s="54" t="s">
-        <v>167</v>
-      </c>
+    <row r="90" spans="2:4">
+      <c r="B90" s="57"/>
+      <c r="C90" s="53"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A19">
-      <selection activeCell="G44" sqref="G44"/>
+    <customSheetView guid="{76957C0A-29B5-4A39-AEA8-92E87F389A57}" showGridLines="0" topLeftCell="A55">
+      <selection activeCell="F79" sqref="F79"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" topLeftCell="A7">
-      <selection activeCell="B65" sqref="B65"/>
+    <customSheetView guid="{468D878E-36A7-4B3B-948B-709488E832B4}" showGridLines="0" topLeftCell="A25">
+      <selection activeCell="C55" sqref="C55"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B70"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B37:B43"/>
@@ -24979,7 +29496,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24990,7 +29507,7 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>4</v>
@@ -25001,39 +29518,39 @@
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -25091,7 +29608,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25102,32 +29619,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -25160,12 +29677,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
